--- a/Trump.xlsx
+++ b/Trump.xlsx
@@ -1,16 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\INSPER\Ciência dos Dados\Projeto2\Project2DaSci\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEFA0829-5DB7-46F9-B770-7736A08044BD}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Treinamento" sheetId="1" r:id="rId1"/>
     <sheet name="Teste" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -843,8 +849,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -907,11 +913,19 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -953,7 +967,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -985,9 +999,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1019,6 +1051,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1194,1514 +1244,1514 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A301"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="37" spans="1:1">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="38" spans="1:1">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="39" spans="1:1">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="40" spans="1:1">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:1">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="42" spans="1:1">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="43" spans="1:1">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="44" spans="1:1">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="45" spans="1:1">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:1">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="47" spans="1:1">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="1:1">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="49" spans="1:1">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="50" spans="1:1">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="51" spans="1:1">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="52" spans="1:1">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="53" spans="1:1">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="54" spans="1:1">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="55" spans="1:1">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:1">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="57" spans="1:1">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="58" spans="1:1">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="59" spans="1:1">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="60" spans="1:1">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="61" spans="1:1">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="62" spans="1:1">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:1">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="64" spans="1:1">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="65" spans="1:1">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="66" spans="1:1">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="67" spans="1:1">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="68" spans="1:1">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="1:1">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="70" spans="1:1">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="71" spans="1:1">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="72" spans="1:1">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="73" spans="1:1">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:1">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="75" spans="1:1">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="76" spans="1:1">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="77" spans="1:1">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="78" spans="1:1">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="79" spans="1:1">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="80" spans="1:1">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="81" spans="1:1">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="82" spans="1:1">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="83" spans="1:1">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="84" spans="1:1">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="85" spans="1:1">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="86" spans="1:1">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="87" spans="1:1">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="88" spans="1:1">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="89" spans="1:1">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="90" spans="1:1">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="91" spans="1:1">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="92" spans="1:1">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="93" spans="1:1">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="94" spans="1:1">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="95" spans="1:1">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="96" spans="1:1">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="97" spans="1:1">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="98" spans="1:1">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="99" spans="1:1">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="100" spans="1:1">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="101" spans="1:1">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="102" spans="1:1">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="103" spans="1:1">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="104" spans="1:1">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="105" spans="1:1">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="106" spans="1:1">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="107" spans="1:1">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="108" spans="1:1">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="109" spans="1:1">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="110" spans="1:1">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="111" spans="1:1">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="112" spans="1:1">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:1">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="114" spans="1:1">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="115" spans="1:1">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="116" spans="1:1">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="117" spans="1:1">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="118" spans="1:1">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="119" spans="1:1">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="120" spans="1:1">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="121" spans="1:1">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="122" spans="1:1">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="123" spans="1:1">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="124" spans="1:1">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="125" spans="1:1">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="126" spans="1:1">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="127" spans="1:1">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="128" spans="1:1">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="129" spans="1:1">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="130" spans="1:1">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="131" spans="1:1">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="132" spans="1:1">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="133" spans="1:1">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:1">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="135" spans="1:1">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="136" spans="1:1">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:1">
+    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="138" spans="1:1">
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="139" spans="1:1">
+    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="140" spans="1:1">
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="141" spans="1:1">
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="142" spans="1:1">
+    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="143" spans="1:1">
+    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="144" spans="1:1">
+    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="145" spans="1:1">
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="146" spans="1:1">
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:1">
+    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="148" spans="1:1">
+    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="149" spans="1:1">
+    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="150" spans="1:1">
+    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="151" spans="1:1">
+    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="152" spans="1:1">
+    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="153" spans="1:1">
+    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="154" spans="1:1">
+    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="155" spans="1:1">
+    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="156" spans="1:1">
+    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="157" spans="1:1">
+    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="158" spans="1:1">
+    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="159" spans="1:1">
+    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="160" spans="1:1">
+    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="161" spans="1:1">
+    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="162" spans="1:1">
+    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="163" spans="1:1">
+    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="164" spans="1:1">
+    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="165" spans="1:1">
+    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="166" spans="1:1">
+    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="167" spans="1:1">
+    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="168" spans="1:1">
+    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="169" spans="1:1">
+    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="170" spans="1:1">
+    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="171" spans="1:1">
+    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="172" spans="1:1">
+    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="173" spans="1:1">
+    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="174" spans="1:1">
+    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="175" spans="1:1">
+    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="176" spans="1:1">
+    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="177" spans="1:1">
+    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="178" spans="1:1">
+    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="179" spans="1:1">
+    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="180" spans="1:1">
+    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="181" spans="1:1">
+    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="182" spans="1:1">
+    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="183" spans="1:1">
+    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="184" spans="1:1">
+    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="185" spans="1:1">
+    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="186" spans="1:1">
+    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="187" spans="1:1">
+    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:1">
+    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="189" spans="1:1">
+    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="190" spans="1:1">
+    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="191" spans="1:1">
+    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:1">
+    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="193" spans="1:1">
+    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="194" spans="1:1">
+    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="195" spans="1:1">
+    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:1">
+    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:1">
+    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="198" spans="1:1">
+    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="199" spans="1:1">
+    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="200" spans="1:1">
+    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="201" spans="1:1">
+    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="202" spans="1:1">
+    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="203" spans="1:1">
+    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="204" spans="1:1">
+    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="205" spans="1:1">
+    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="206" spans="1:1">
+    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="207" spans="1:1">
+    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="208" spans="1:1">
+    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="209" spans="1:1">
+    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="210" spans="1:1">
+    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="211" spans="1:1">
+    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="212" spans="1:1">
+    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="213" spans="1:1">
+    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="214" spans="1:1">
+    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="215" spans="1:1">
+    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="216" spans="1:1">
+    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="217" spans="1:1">
+    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="218" spans="1:1">
+    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="219" spans="1:1">
+    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="220" spans="1:1">
+    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:1">
+    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="222" spans="1:1">
+    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="223" spans="1:1">
+    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="224" spans="1:1">
+    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="225" spans="1:1">
+    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="226" spans="1:1">
+    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="227" spans="1:1">
+    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="228" spans="1:1">
+    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="229" spans="1:1">
+    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="230" spans="1:1">
+    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="231" spans="1:1">
+    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="232" spans="1:1">
+    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="233" spans="1:1">
+    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="234" spans="1:1">
+    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="235" spans="1:1">
+    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="236" spans="1:1">
+    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="237" spans="1:1">
+    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="238" spans="1:1">
+    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="239" spans="1:1">
+    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="240" spans="1:1">
+    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="241" spans="1:1">
+    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="242" spans="1:1">
+    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="243" spans="1:1">
+    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="244" spans="1:1">
+    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="245" spans="1:1">
+    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="246" spans="1:1">
+    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="247" spans="1:1">
+    <row r="247" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="248" spans="1:1">
+    <row r="248" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="249" spans="1:1">
+    <row r="249" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="250" spans="1:1">
+    <row r="250" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="251" spans="1:1">
+    <row r="251" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="252" spans="1:1">
+    <row r="252" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="253" spans="1:1">
+    <row r="253" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="254" spans="1:1">
+    <row r="254" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="255" spans="1:1">
+    <row r="255" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="256" spans="1:1">
+    <row r="256" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="257" spans="1:1">
+    <row r="257" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="258" spans="1:1">
+    <row r="258" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="259" spans="1:1">
+    <row r="259" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="260" spans="1:1">
+    <row r="260" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="261" spans="1:1">
+    <row r="261" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="262" spans="1:1">
+    <row r="262" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="263" spans="1:1">
+    <row r="263" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="264" spans="1:1">
+    <row r="264" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="265" spans="1:1">
+    <row r="265" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="266" spans="1:1">
+    <row r="266" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="267" spans="1:1">
+    <row r="267" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="268" spans="1:1">
+    <row r="268" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="269" spans="1:1">
+    <row r="269" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="270" spans="1:1">
+    <row r="270" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="271" spans="1:1">
+    <row r="271" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="272" spans="1:1">
+    <row r="272" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="273" spans="1:1">
+    <row r="273" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="274" spans="1:1">
+    <row r="274" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="275" spans="1:1">
+    <row r="275" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="276" spans="1:1">
+    <row r="276" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="277" spans="1:1">
+    <row r="277" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="278" spans="1:1">
+    <row r="278" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="279" spans="1:1">
+    <row r="279" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="280" spans="1:1">
+    <row r="280" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="281" spans="1:1">
+    <row r="281" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="282" spans="1:1">
+    <row r="282" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="283" spans="1:1">
+    <row r="283" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="284" spans="1:1">
+    <row r="284" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="285" spans="1:1">
+    <row r="285" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="286" spans="1:1">
+    <row r="286" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="287" spans="1:1">
+    <row r="287" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="288" spans="1:1">
+    <row r="288" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="289" spans="1:1">
+    <row r="289" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="290" spans="1:1">
+    <row r="290" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="291" spans="1:1">
+    <row r="291" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="292" spans="1:1">
+    <row r="292" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="293" spans="1:1">
+    <row r="293" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="294" spans="1:1">
+    <row r="294" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="295" spans="1:1">
+    <row r="295" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="296" spans="1:1">
+    <row r="296" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="297" spans="1:1">
+    <row r="297" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="298" spans="1:1">
+    <row r="298" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="299" spans="1:1">
+    <row r="299" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="300" spans="1:1">
+    <row r="300" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="301" spans="1:1">
+    <row r="301" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>145</v>
       </c>
@@ -2712,1014 +2762,1014 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A201"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:1">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="38" spans="1:1">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:1">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="40" spans="1:1">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="1:1">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="42" spans="1:1">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="43" spans="1:1">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="44" spans="1:1">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="45" spans="1:1">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="1:1">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="47" spans="1:1">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="48" spans="1:1">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="49" spans="1:1">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="50" spans="1:1">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="51" spans="1:1">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="52" spans="1:1">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="53" spans="1:1">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="54" spans="1:1">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="55" spans="1:1">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="56" spans="1:1">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="57" spans="1:1">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="58" spans="1:1">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="59" spans="1:1">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="60" spans="1:1">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="61" spans="1:1">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="62" spans="1:1">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="63" spans="1:1">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="64" spans="1:1">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="65" spans="1:1">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="66" spans="1:1">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="67" spans="1:1">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="68" spans="1:1">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="69" spans="1:1">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="70" spans="1:1">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="71" spans="1:1">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="72" spans="1:1">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="73" spans="1:1">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="74" spans="1:1">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="75" spans="1:1">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="76" spans="1:1">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="77" spans="1:1">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="78" spans="1:1">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="79" spans="1:1">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="80" spans="1:1">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="81" spans="1:1">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="82" spans="1:1">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="83" spans="1:1">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="84" spans="1:1">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="85" spans="1:1">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="86" spans="1:1">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="87" spans="1:1">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="88" spans="1:1">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="89" spans="1:1">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="90" spans="1:1">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="91" spans="1:1">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="92" spans="1:1">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="93" spans="1:1">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="94" spans="1:1">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="95" spans="1:1">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="96" spans="1:1">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="97" spans="1:1">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="98" spans="1:1">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="99" spans="1:1">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="100" spans="1:1">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="101" spans="1:1">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="102" spans="1:1">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="103" spans="1:1">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="104" spans="1:1">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="105" spans="1:1">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="106" spans="1:1">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="107" spans="1:1">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="108" spans="1:1">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="109" spans="1:1">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="110" spans="1:1">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="111" spans="1:1">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="112" spans="1:1">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="113" spans="1:1">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="114" spans="1:1">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="115" spans="1:1">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="116" spans="1:1">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="117" spans="1:1">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:1">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="119" spans="1:1">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="120" spans="1:1">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:1">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="122" spans="1:1">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="123" spans="1:1">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="124" spans="1:1">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="125" spans="1:1">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="126" spans="1:1">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="127" spans="1:1">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="128" spans="1:1">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="129" spans="1:1">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="130" spans="1:1">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="131" spans="1:1">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="132" spans="1:1">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="133" spans="1:1">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:1">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:1">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="136" spans="1:1">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="137" spans="1:1">
+    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="138" spans="1:1">
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="139" spans="1:1">
+    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="140" spans="1:1">
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="141" spans="1:1">
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="142" spans="1:1">
+    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="143" spans="1:1">
+    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="144" spans="1:1">
+    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="145" spans="1:1">
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="146" spans="1:1">
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="147" spans="1:1">
+    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="148" spans="1:1">
+    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="149" spans="1:1">
+    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="150" spans="1:1">
+    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="151" spans="1:1">
+    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="152" spans="1:1">
+    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="153" spans="1:1">
+    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="154" spans="1:1">
+    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="155" spans="1:1">
+    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="156" spans="1:1">
+    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="157" spans="1:1">
+    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="158" spans="1:1">
+    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="159" spans="1:1">
+    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="160" spans="1:1">
+    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="161" spans="1:1">
+    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="162" spans="1:1">
+    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="163" spans="1:1">
+    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="164" spans="1:1">
+    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="165" spans="1:1">
+    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="166" spans="1:1">
+    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="167" spans="1:1">
+    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="168" spans="1:1">
+    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="169" spans="1:1">
+    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="170" spans="1:1">
+    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="171" spans="1:1">
+    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="172" spans="1:1">
+    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="173" spans="1:1">
+    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="174" spans="1:1">
+    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="175" spans="1:1">
+    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="176" spans="1:1">
+    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="177" spans="1:1">
+    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="178" spans="1:1">
+    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="179" spans="1:1">
+    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="180" spans="1:1">
+    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="181" spans="1:1">
+    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="182" spans="1:1">
+    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="183" spans="1:1">
+    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="184" spans="1:1">
+    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="185" spans="1:1">
+    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="186" spans="1:1">
+    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="187" spans="1:1">
+    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="188" spans="1:1">
+    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="189" spans="1:1">
+    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="190" spans="1:1">
+    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="191" spans="1:1">
+    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:1">
+    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="193" spans="1:1">
+    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:1">
+    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="195" spans="1:1">
+    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="196" spans="1:1">
+    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="197" spans="1:1">
+    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="198" spans="1:1">
+    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="199" spans="1:1">
+    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="200" spans="1:1">
+    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="201" spans="1:1">
+    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>237</v>
       </c>

--- a/Trump.xlsx
+++ b/Trump.xlsx
@@ -1,16 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arthu\Documents\Project2DaSci\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CD67251-3C95-475E-AA3A-A0C12FA9EB35}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Treinamento" sheetId="1" r:id="rId1"/>
     <sheet name="Teste" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -843,8 +849,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -907,11 +913,19 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -953,7 +967,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -985,9 +999,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1019,6 +1051,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1194,1514 +1244,1519 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A301"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="255.6328125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="37" spans="1:1">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="38" spans="1:1">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="39" spans="1:1">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="40" spans="1:1">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:1">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="42" spans="1:1">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="43" spans="1:1">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="44" spans="1:1">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="45" spans="1:1">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:1">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="47" spans="1:1">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="1:1">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="49" spans="1:1">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="50" spans="1:1">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="51" spans="1:1">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="52" spans="1:1">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="53" spans="1:1">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="54" spans="1:1">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="55" spans="1:1">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:1">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="57" spans="1:1">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="58" spans="1:1">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="59" spans="1:1">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="60" spans="1:1">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="61" spans="1:1">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="62" spans="1:1">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:1">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="64" spans="1:1">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="65" spans="1:1">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="66" spans="1:1">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="67" spans="1:1">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="68" spans="1:1">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="1:1">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="70" spans="1:1">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="71" spans="1:1">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="72" spans="1:1">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="73" spans="1:1">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:1">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="75" spans="1:1">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="76" spans="1:1">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="77" spans="1:1">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="78" spans="1:1">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="79" spans="1:1">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="80" spans="1:1">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="81" spans="1:1">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="82" spans="1:1">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="83" spans="1:1">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="84" spans="1:1">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="85" spans="1:1">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="86" spans="1:1">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="87" spans="1:1">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="88" spans="1:1">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="89" spans="1:1">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="90" spans="1:1">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="91" spans="1:1">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="92" spans="1:1">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="93" spans="1:1">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="94" spans="1:1">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="95" spans="1:1">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="96" spans="1:1">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="97" spans="1:1">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="98" spans="1:1">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="99" spans="1:1">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="100" spans="1:1">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="101" spans="1:1">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="102" spans="1:1">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="103" spans="1:1">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="104" spans="1:1">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="105" spans="1:1">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="106" spans="1:1">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="107" spans="1:1">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="108" spans="1:1">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="109" spans="1:1">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="110" spans="1:1">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="111" spans="1:1">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="112" spans="1:1">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:1">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="114" spans="1:1">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="115" spans="1:1">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="116" spans="1:1">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="117" spans="1:1">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="118" spans="1:1">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="119" spans="1:1">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="120" spans="1:1">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="121" spans="1:1">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="122" spans="1:1">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="123" spans="1:1">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="124" spans="1:1">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="125" spans="1:1">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="126" spans="1:1">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="127" spans="1:1">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="128" spans="1:1">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="129" spans="1:1">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="130" spans="1:1">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="131" spans="1:1">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="132" spans="1:1">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="133" spans="1:1">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:1">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="135" spans="1:1">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="136" spans="1:1">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:1">
+    <row r="137" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="138" spans="1:1">
+    <row r="138" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="139" spans="1:1">
+    <row r="139" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="140" spans="1:1">
+    <row r="140" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="141" spans="1:1">
+    <row r="141" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="142" spans="1:1">
+    <row r="142" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="143" spans="1:1">
+    <row r="143" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="144" spans="1:1">
+    <row r="144" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="145" spans="1:1">
+    <row r="145" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="146" spans="1:1">
+    <row r="146" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:1">
+    <row r="147" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="148" spans="1:1">
+    <row r="148" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="149" spans="1:1">
+    <row r="149" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="150" spans="1:1">
+    <row r="150" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="151" spans="1:1">
+    <row r="151" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="152" spans="1:1">
+    <row r="152" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="153" spans="1:1">
+    <row r="153" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="154" spans="1:1">
+    <row r="154" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="155" spans="1:1">
+    <row r="155" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="156" spans="1:1">
+    <row r="156" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="157" spans="1:1">
+    <row r="157" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="158" spans="1:1">
+    <row r="158" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="159" spans="1:1">
+    <row r="159" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="160" spans="1:1">
+    <row r="160" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="161" spans="1:1">
+    <row r="161" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="162" spans="1:1">
+    <row r="162" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="163" spans="1:1">
+    <row r="163" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="164" spans="1:1">
+    <row r="164" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="165" spans="1:1">
+    <row r="165" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="166" spans="1:1">
+    <row r="166" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="167" spans="1:1">
+    <row r="167" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="168" spans="1:1">
+    <row r="168" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="169" spans="1:1">
+    <row r="169" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="170" spans="1:1">
+    <row r="170" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="171" spans="1:1">
+    <row r="171" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="172" spans="1:1">
+    <row r="172" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="173" spans="1:1">
+    <row r="173" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="174" spans="1:1">
+    <row r="174" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="175" spans="1:1">
+    <row r="175" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="176" spans="1:1">
+    <row r="176" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="177" spans="1:1">
+    <row r="177" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="178" spans="1:1">
+    <row r="178" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="179" spans="1:1">
+    <row r="179" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="180" spans="1:1">
+    <row r="180" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="181" spans="1:1">
+    <row r="181" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="182" spans="1:1">
+    <row r="182" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="183" spans="1:1">
+    <row r="183" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="184" spans="1:1">
+    <row r="184" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="185" spans="1:1">
+    <row r="185" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="186" spans="1:1">
+    <row r="186" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="187" spans="1:1">
+    <row r="187" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:1">
+    <row r="188" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="189" spans="1:1">
+    <row r="189" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="190" spans="1:1">
+    <row r="190" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="191" spans="1:1">
+    <row r="191" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:1">
+    <row r="192" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="193" spans="1:1">
+    <row r="193" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="194" spans="1:1">
+    <row r="194" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="195" spans="1:1">
+    <row r="195" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:1">
+    <row r="196" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:1">
+    <row r="197" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="198" spans="1:1">
+    <row r="198" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="199" spans="1:1">
+    <row r="199" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="200" spans="1:1">
+    <row r="200" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="201" spans="1:1">
+    <row r="201" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="202" spans="1:1">
+    <row r="202" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="203" spans="1:1">
+    <row r="203" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="204" spans="1:1">
+    <row r="204" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="205" spans="1:1">
+    <row r="205" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="206" spans="1:1">
+    <row r="206" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="207" spans="1:1">
+    <row r="207" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="208" spans="1:1">
+    <row r="208" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="209" spans="1:1">
+    <row r="209" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="210" spans="1:1">
+    <row r="210" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="211" spans="1:1">
+    <row r="211" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="212" spans="1:1">
+    <row r="212" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="213" spans="1:1">
+    <row r="213" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="214" spans="1:1">
+    <row r="214" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="215" spans="1:1">
+    <row r="215" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="216" spans="1:1">
+    <row r="216" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="217" spans="1:1">
+    <row r="217" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="218" spans="1:1">
+    <row r="218" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="219" spans="1:1">
+    <row r="219" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="220" spans="1:1">
+    <row r="220" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:1">
+    <row r="221" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="222" spans="1:1">
+    <row r="222" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="223" spans="1:1">
+    <row r="223" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="224" spans="1:1">
+    <row r="224" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="225" spans="1:1">
+    <row r="225" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="226" spans="1:1">
+    <row r="226" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="227" spans="1:1">
+    <row r="227" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="228" spans="1:1">
+    <row r="228" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="229" spans="1:1">
+    <row r="229" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="230" spans="1:1">
+    <row r="230" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="231" spans="1:1">
+    <row r="231" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="232" spans="1:1">
+    <row r="232" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A232" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="233" spans="1:1">
+    <row r="233" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A233" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="234" spans="1:1">
+    <row r="234" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A234" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="235" spans="1:1">
+    <row r="235" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A235" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="236" spans="1:1">
+    <row r="236" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A236" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="237" spans="1:1">
+    <row r="237" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A237" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="238" spans="1:1">
+    <row r="238" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A238" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="239" spans="1:1">
+    <row r="239" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A239" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="240" spans="1:1">
+    <row r="240" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A240" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="241" spans="1:1">
+    <row r="241" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A241" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="242" spans="1:1">
+    <row r="242" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A242" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="243" spans="1:1">
+    <row r="243" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A243" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="244" spans="1:1">
+    <row r="244" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A244" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="245" spans="1:1">
+    <row r="245" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A245" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="246" spans="1:1">
+    <row r="246" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A246" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="247" spans="1:1">
+    <row r="247" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A247" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="248" spans="1:1">
+    <row r="248" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A248" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="249" spans="1:1">
+    <row r="249" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A249" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="250" spans="1:1">
+    <row r="250" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A250" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="251" spans="1:1">
+    <row r="251" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A251" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="252" spans="1:1">
+    <row r="252" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A252" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="253" spans="1:1">
+    <row r="253" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A253" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="254" spans="1:1">
+    <row r="254" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A254" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="255" spans="1:1">
+    <row r="255" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A255" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="256" spans="1:1">
+    <row r="256" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A256" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="257" spans="1:1">
+    <row r="257" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A257" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="258" spans="1:1">
+    <row r="258" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A258" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="259" spans="1:1">
+    <row r="259" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A259" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="260" spans="1:1">
+    <row r="260" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A260" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="261" spans="1:1">
+    <row r="261" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A261" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="262" spans="1:1">
+    <row r="262" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A262" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="263" spans="1:1">
+    <row r="263" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A263" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="264" spans="1:1">
+    <row r="264" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A264" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="265" spans="1:1">
+    <row r="265" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A265" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="266" spans="1:1">
+    <row r="266" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A266" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="267" spans="1:1">
+    <row r="267" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A267" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="268" spans="1:1">
+    <row r="268" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A268" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="269" spans="1:1">
+    <row r="269" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A269" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="270" spans="1:1">
+    <row r="270" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A270" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="271" spans="1:1">
+    <row r="271" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A271" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="272" spans="1:1">
+    <row r="272" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A272" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="273" spans="1:1">
+    <row r="273" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A273" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="274" spans="1:1">
+    <row r="274" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A274" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="275" spans="1:1">
+    <row r="275" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A275" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="276" spans="1:1">
+    <row r="276" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A276" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="277" spans="1:1">
+    <row r="277" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A277" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="278" spans="1:1">
+    <row r="278" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A278" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="279" spans="1:1">
+    <row r="279" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A279" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="280" spans="1:1">
+    <row r="280" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A280" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="281" spans="1:1">
+    <row r="281" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A281" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="282" spans="1:1">
+    <row r="282" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A282" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="283" spans="1:1">
+    <row r="283" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A283" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="284" spans="1:1">
+    <row r="284" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A284" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="285" spans="1:1">
+    <row r="285" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A285" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="286" spans="1:1">
+    <row r="286" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A286" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="287" spans="1:1">
+    <row r="287" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A287" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="288" spans="1:1">
+    <row r="288" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A288" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="289" spans="1:1">
+    <row r="289" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A289" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="290" spans="1:1">
+    <row r="290" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A290" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="291" spans="1:1">
+    <row r="291" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A291" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="292" spans="1:1">
+    <row r="292" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A292" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="293" spans="1:1">
+    <row r="293" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A293" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="294" spans="1:1">
+    <row r="294" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A294" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="295" spans="1:1">
+    <row r="295" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A295" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="296" spans="1:1">
+    <row r="296" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A296" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="297" spans="1:1">
+    <row r="297" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A297" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="298" spans="1:1">
+    <row r="298" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A298" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="299" spans="1:1">
+    <row r="299" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A299" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="300" spans="1:1">
+    <row r="300" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A300" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="301" spans="1:1">
+    <row r="301" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A301" t="s">
         <v>145</v>
       </c>
@@ -2712,1014 +2767,1014 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A201"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:1">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="38" spans="1:1">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:1">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="40" spans="1:1">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="1:1">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="42" spans="1:1">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="43" spans="1:1">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="44" spans="1:1">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="45" spans="1:1">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="1:1">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="47" spans="1:1">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="48" spans="1:1">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="49" spans="1:1">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="50" spans="1:1">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="51" spans="1:1">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="52" spans="1:1">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="53" spans="1:1">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="54" spans="1:1">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="55" spans="1:1">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="56" spans="1:1">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="57" spans="1:1">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="58" spans="1:1">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="59" spans="1:1">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="60" spans="1:1">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="61" spans="1:1">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="62" spans="1:1">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="63" spans="1:1">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="64" spans="1:1">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="65" spans="1:1">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="66" spans="1:1">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="67" spans="1:1">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="68" spans="1:1">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="69" spans="1:1">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="70" spans="1:1">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="71" spans="1:1">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="72" spans="1:1">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="73" spans="1:1">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="74" spans="1:1">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="75" spans="1:1">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="76" spans="1:1">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="77" spans="1:1">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="78" spans="1:1">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="79" spans="1:1">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="80" spans="1:1">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="81" spans="1:1">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="82" spans="1:1">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="83" spans="1:1">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="84" spans="1:1">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="85" spans="1:1">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="86" spans="1:1">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="87" spans="1:1">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="88" spans="1:1">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="89" spans="1:1">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="90" spans="1:1">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="91" spans="1:1">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="92" spans="1:1">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="93" spans="1:1">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="94" spans="1:1">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="95" spans="1:1">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="96" spans="1:1">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="97" spans="1:1">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="98" spans="1:1">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="99" spans="1:1">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="100" spans="1:1">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="101" spans="1:1">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="102" spans="1:1">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="103" spans="1:1">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="104" spans="1:1">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="105" spans="1:1">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="106" spans="1:1">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="107" spans="1:1">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="108" spans="1:1">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="109" spans="1:1">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="110" spans="1:1">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="111" spans="1:1">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="112" spans="1:1">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="113" spans="1:1">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="114" spans="1:1">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="115" spans="1:1">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="116" spans="1:1">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="117" spans="1:1">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:1">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="119" spans="1:1">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="120" spans="1:1">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:1">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="122" spans="1:1">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="123" spans="1:1">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="124" spans="1:1">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="125" spans="1:1">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="126" spans="1:1">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="127" spans="1:1">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="128" spans="1:1">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="129" spans="1:1">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="130" spans="1:1">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="131" spans="1:1">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="132" spans="1:1">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="133" spans="1:1">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:1">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:1">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="136" spans="1:1">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="137" spans="1:1">
+    <row r="137" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="138" spans="1:1">
+    <row r="138" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="139" spans="1:1">
+    <row r="139" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="140" spans="1:1">
+    <row r="140" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="141" spans="1:1">
+    <row r="141" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="142" spans="1:1">
+    <row r="142" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="143" spans="1:1">
+    <row r="143" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="144" spans="1:1">
+    <row r="144" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="145" spans="1:1">
+    <row r="145" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="146" spans="1:1">
+    <row r="146" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="147" spans="1:1">
+    <row r="147" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="148" spans="1:1">
+    <row r="148" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="149" spans="1:1">
+    <row r="149" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="150" spans="1:1">
+    <row r="150" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="151" spans="1:1">
+    <row r="151" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="152" spans="1:1">
+    <row r="152" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="153" spans="1:1">
+    <row r="153" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="154" spans="1:1">
+    <row r="154" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="155" spans="1:1">
+    <row r="155" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="156" spans="1:1">
+    <row r="156" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="157" spans="1:1">
+    <row r="157" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="158" spans="1:1">
+    <row r="158" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="159" spans="1:1">
+    <row r="159" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="160" spans="1:1">
+    <row r="160" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="161" spans="1:1">
+    <row r="161" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="162" spans="1:1">
+    <row r="162" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="163" spans="1:1">
+    <row r="163" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="164" spans="1:1">
+    <row r="164" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="165" spans="1:1">
+    <row r="165" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="166" spans="1:1">
+    <row r="166" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="167" spans="1:1">
+    <row r="167" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="168" spans="1:1">
+    <row r="168" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="169" spans="1:1">
+    <row r="169" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="170" spans="1:1">
+    <row r="170" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="171" spans="1:1">
+    <row r="171" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="172" spans="1:1">
+    <row r="172" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="173" spans="1:1">
+    <row r="173" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="174" spans="1:1">
+    <row r="174" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="175" spans="1:1">
+    <row r="175" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="176" spans="1:1">
+    <row r="176" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="177" spans="1:1">
+    <row r="177" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="178" spans="1:1">
+    <row r="178" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="179" spans="1:1">
+    <row r="179" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="180" spans="1:1">
+    <row r="180" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="181" spans="1:1">
+    <row r="181" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="182" spans="1:1">
+    <row r="182" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="183" spans="1:1">
+    <row r="183" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="184" spans="1:1">
+    <row r="184" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="185" spans="1:1">
+    <row r="185" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="186" spans="1:1">
+    <row r="186" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="187" spans="1:1">
+    <row r="187" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="188" spans="1:1">
+    <row r="188" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="189" spans="1:1">
+    <row r="189" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="190" spans="1:1">
+    <row r="190" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="191" spans="1:1">
+    <row r="191" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:1">
+    <row r="192" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="193" spans="1:1">
+    <row r="193" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:1">
+    <row r="194" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="195" spans="1:1">
+    <row r="195" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="196" spans="1:1">
+    <row r="196" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="197" spans="1:1">
+    <row r="197" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="198" spans="1:1">
+    <row r="198" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="199" spans="1:1">
+    <row r="199" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="200" spans="1:1">
+    <row r="200" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="201" spans="1:1">
+    <row r="201" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
         <v>237</v>
       </c>

--- a/Trump.xlsx
+++ b/Trump.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arthu\Documents\Project2DaSci\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CD67251-3C95-475E-AA3A-A0C12FA9EB35}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{517F15BE-5A5B-4376-A2B9-605AA1F9A3B4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,12 +16,22 @@
     <sheet name="Treinamento" sheetId="1" r:id="rId1"/>
     <sheet name="Teste" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="237">
   <si>
     <t>Treinamento</t>
   </si>
@@ -324,9 +334,6 @@
     <t>@laurocardosoara @stephenbyrne86 @ricardopf forçar a barra é censurar quadrinhos em pleno século 21 em um país que é democrático. mesmo com donald trump nos estados unidos, este fascismo não acontece.</t>
   </si>
   <si>
-    <t>@sabrinajurinich @g_abseixas @theloverarcher @thepinkfridayx @swiftiiover @dalmivin @sweeteney “não pensa em números” realidade: todo lançamento precisa criar uma nova polemica ter tentar ser assunto, para de ser sonsa, a última foi o apoio no trump e falar que escravidão foi escolha, logo em seguida lançou duas musicas. depois são os fãs da taylor que são cegos kkkkkkkkkk</t>
-  </si>
-  <si>
     <t>além de tudo, porcos!!!!
 líderes políticos, entre eles o presidente brasileiro, foram chamados de "porcos". https://t.co/8rntmh0yar</t>
   </si>
@@ -442,9 +449,6 @@
   </si>
   <si>
     <t>@jose_simao só faltou o trump nessa foto kkkk</t>
-  </si>
-  <si>
-    <t>@biancardgss misericórdia b2. logo trump?? poxa 😪</t>
   </si>
   <si>
     <t>@annavirginia @juliatlindner adoro a esquerda fazer questão de ridicularizar quem tem outra opinião. aí o povo fica ofendido e vota em trump e em bolsonaro e as elites intelectuais choram traídas. parem de chamar de canalha quem pensa diferente, vocês vão garantir a reeleição de bolsonaro.</t>
@@ -844,6 +848,9 @@
   </si>
   <si>
     <t>como o estrategista-chefe de trump usou videogames para espalhar o ódio https://t.co/ffyrb2fw2s via @uolstart @uol</t>
+  </si>
+  <si>
+    <t>Relevancia</t>
   </si>
 </sst>
 </file>
@@ -1245,1524 +1252,2433 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A301"/>
+  <dimension ref="A1:B301"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" topLeftCell="A285" workbookViewId="0">
+      <selection activeCell="A301" sqref="A301"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="255.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B125">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B128">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B132">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B133">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B135">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A141" t="s">
+      <c r="B140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A141" t="e">
+        <f>_xlfn.SINGLE(sabrinajurinich _xlfn.SINGLE(g_abseixas _xlfn.SINGLE(theloverarcher _xlfn.SINGLE(thepinkfridayx _xlfn.SINGLE(swiftiiover _xlfn.SINGLE(dalmivin _xlfn.SINGLE(sweeteney “não pensa em números” realidade: todo lançamento precisa criar uma nova polemica ter tentar ser  para de ser  a última foi o apoio no trump e falar que escravidão foi A143 logo em seguida lançou duas musicas. depois são os fãs da taylor que são cegos kkkkkkkkkk)))))))</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="B141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A142" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A142" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B142">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.35">
+        <v>87</v>
+      </c>
+      <c r="B144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B146">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
+        <v>88</v>
+      </c>
+      <c r="B150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A151" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A151" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
+        <v>90</v>
+      </c>
+      <c r="B154">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A155" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A155" t="s">
+      <c r="B155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A156" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A156" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
+        <v>93</v>
+      </c>
+      <c r="B159">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A160" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A160" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B160">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B165">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.35">
+        <v>95</v>
+      </c>
+      <c r="B166">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B167">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
+        <v>96</v>
+      </c>
+      <c r="B168">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A169" t="s">
+        <v>5</v>
+      </c>
+      <c r="B169">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A170" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A169" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A170" t="s">
+      <c r="B170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A171" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A171" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B172">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B174">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
+        <v>99</v>
+      </c>
+      <c r="B175">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A176" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A176" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B177">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B178">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B179">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B180">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B181">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
+        <v>101</v>
+      </c>
+      <c r="B182">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A183" t="s">
+        <v>5</v>
+      </c>
+      <c r="B183">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A184" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A183" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A184" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B184">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B186">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B187">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B188">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
+        <v>103</v>
+      </c>
+      <c r="B189">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A190" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A190" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B190">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B191">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B192">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B193">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B194">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B195">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B196">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B197">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
+        <v>105</v>
+      </c>
+      <c r="B198">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A199" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A199" t="s">
+      <c r="B199">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A200" t="s">
+        <v>5</v>
+      </c>
+      <c r="B200">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A201" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A200" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A201" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B201">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B202">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B203">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
+        <v>108</v>
+      </c>
+      <c r="B204">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A205" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A205" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B205">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B206">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B207">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B208">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B209">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
+        <v>110</v>
+      </c>
+      <c r="B210">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A211" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A211" t="s">
+      <c r="B211">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A212" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A212" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B212">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B213">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B214">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.35">
+        <v>113</v>
+      </c>
+      <c r="B215">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.35">
+        <v>104</v>
+      </c>
+      <c r="B216">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B217">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B218">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B219">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B220">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.35">
+        <v>114</v>
+      </c>
+      <c r="B221">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B222">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B223">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B224">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.35">
+        <v>104</v>
+      </c>
+      <c r="B225">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B226">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
+        <v>115</v>
+      </c>
+      <c r="B227">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A228" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A228" t="s">
+      <c r="B228">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A229" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A229" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B229">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B230">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.35">
+        <v>118</v>
+      </c>
+      <c r="B231">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A232" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B232">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A233" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B233">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A234" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B234">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A235" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B235">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A236" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.35">
+        <v>119</v>
+      </c>
+      <c r="B236">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A237" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B237">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A238" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.35">
+        <v>89</v>
+      </c>
+      <c r="B238">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A239" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B239">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A240" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.35">
+        <v>120</v>
+      </c>
+      <c r="B240">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A241" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B241">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A242" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A243" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B242">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A243" t="e">
+        <f>biancardgss misericórdia. logo trump?? poxa K243</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="B243">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A244" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B244">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A245" t="s">
+        <v>121</v>
+      </c>
+      <c r="B245">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A246" t="s">
+        <v>122</v>
+      </c>
+      <c r="B246">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A247" t="s">
+        <v>5</v>
+      </c>
+      <c r="B247">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A248" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A246" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A247" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A248" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B248">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A249" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B249">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A250" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B250">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A251" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.35">
+        <v>124</v>
+      </c>
+      <c r="B251">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A252" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B252">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A253" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B253">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A254" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.35">
+        <v>125</v>
+      </c>
+      <c r="B254">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A255" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="256" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B255">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A256" t="s">
+        <v>126</v>
+      </c>
+      <c r="B256">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A257" t="s">
+        <v>127</v>
+      </c>
+      <c r="B257">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A258" t="s">
+        <v>1</v>
+      </c>
+      <c r="B258">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A259" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A257" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="258" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A258" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="259" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A259" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="260" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B259">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A260" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="261" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B260">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A261" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="262" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B261">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A262" t="s">
+        <v>129</v>
+      </c>
+      <c r="B262">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A263" t="s">
+        <v>130</v>
+      </c>
+      <c r="B263">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A264" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="263" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A263" t="s">
+      <c r="B264">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A265" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="264" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A264" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="265" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A265" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="266" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B265">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A266" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="267" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B266">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A267" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="268" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B267">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A268" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="269" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B268">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A269" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="270" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B269">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A270" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="271" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B270">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A271" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="272" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B271">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A272" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="273" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B272">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A273" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="274" spans="1:1" x14ac:dyDescent="0.35">
+        <v>133</v>
+      </c>
+      <c r="B273">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A274" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="275" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B274">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A275" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="276" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B275">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A276" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="277" spans="1:1" x14ac:dyDescent="0.35">
+        <v>134</v>
+      </c>
+      <c r="B276">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A277" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="278" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B277">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A278" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="279" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B278">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A279" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="280" spans="1:1" x14ac:dyDescent="0.35">
+        <v>119</v>
+      </c>
+      <c r="B279">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A280" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="281" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B280">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A281" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="282" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B281">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A282" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="283" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B282">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A283" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="284" spans="1:1" x14ac:dyDescent="0.35">
+        <v>135</v>
+      </c>
+      <c r="B283">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A284" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="285" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B284">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A285" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="286" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B285">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A286" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="287" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B286">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A287" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="288" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B287">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A288" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="289" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B288">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A289" t="s">
+        <v>136</v>
+      </c>
+      <c r="B289">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A290" t="s">
+        <v>137</v>
+      </c>
+      <c r="B290">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A291" t="s">
+        <v>5</v>
+      </c>
+      <c r="B291">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A292" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="290" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A290" t="s">
+      <c r="B292">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A293" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="291" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A291" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="292" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A292" t="s">
+      <c r="B293">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A294" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="293" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A293" t="s">
+      <c r="B294">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A295" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="294" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A294" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="295" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A295" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="296" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B295">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A296" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="297" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B296">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A297" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="298" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B297">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A298" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="299" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B298">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A299" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="300" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B299">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A300" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="301" spans="1:1" x14ac:dyDescent="0.35">
+        <v>142</v>
+      </c>
+      <c r="B300">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A301" t="s">
-        <v>145</v>
+        <v>143</v>
+      </c>
+      <c r="B301">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="A141 A243" evalError="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
 
@@ -2776,7 +3692,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
@@ -2786,22 +3702,22 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.35">
@@ -2811,22 +3727,22 @@
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.35">
@@ -2836,7 +3752,7 @@
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.35">
@@ -2846,7 +3762,7 @@
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.35">
@@ -2856,7 +3772,7 @@
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.35">
@@ -2886,7 +3802,7 @@
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.35">
@@ -2896,17 +3812,17 @@
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.35">
@@ -2916,27 +3832,27 @@
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.35">
@@ -2966,7 +3882,7 @@
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.35">
@@ -2986,12 +3902,12 @@
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.35">
@@ -3001,7 +3917,7 @@
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.35">
@@ -3011,12 +3927,12 @@
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.35">
@@ -3026,7 +3942,7 @@
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.35">
@@ -3041,22 +3957,22 @@
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.35">
@@ -3071,7 +3987,7 @@
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.35">
@@ -3086,12 +4002,12 @@
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.35">
@@ -3101,7 +4017,7 @@
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.35">
@@ -3111,12 +4027,12 @@
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.35">
@@ -3131,7 +4047,7 @@
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.35">
@@ -3141,12 +4057,12 @@
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.35">
@@ -3156,7 +4072,7 @@
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.35">
@@ -3166,7 +4082,7 @@
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.35">
@@ -3176,17 +4092,17 @@
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.35">
@@ -3196,37 +4112,37 @@
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.35">
@@ -3241,7 +4157,7 @@
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.35">
@@ -3251,7 +4167,7 @@
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.35">
@@ -3261,12 +4177,12 @@
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.35">
@@ -3276,7 +4192,7 @@
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.35">
@@ -3296,7 +4212,7 @@
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.35">
@@ -3306,12 +4222,12 @@
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.35">
@@ -3336,22 +4252,22 @@
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.35">
@@ -3366,7 +4282,7 @@
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.35">
@@ -3381,12 +4297,12 @@
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.35">
@@ -3396,22 +4312,22 @@
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.35">
@@ -3456,7 +4372,7 @@
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.35">
@@ -3481,17 +4397,17 @@
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.35">
@@ -3501,12 +4417,12 @@
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.35">
@@ -3516,7 +4432,7 @@
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.35">
@@ -3531,12 +4447,12 @@
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.35">
@@ -3546,17 +4462,17 @@
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.35">
@@ -3586,7 +4502,7 @@
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.35">
@@ -3601,7 +4517,7 @@
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.35">
@@ -3616,12 +4532,12 @@
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.35">
@@ -3636,7 +4552,7 @@
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.35">
@@ -3646,27 +4562,27 @@
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.35">
@@ -3681,17 +4597,17 @@
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.35">
@@ -3706,22 +4622,22 @@
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.35">
@@ -3731,7 +4647,7 @@
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.35">
@@ -3751,32 +4667,32 @@
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
   </sheetData>

--- a/Trump.xlsx
+++ b/Trump.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arthu\Documents\Project2DaSci\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{517F15BE-5A5B-4376-A2B9-605AA1F9A3B4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC9E26EA-D720-48A4-9306-C16D678BE939}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,838 +16,1679 @@
     <sheet name="Treinamento" sheetId="1" r:id="rId1"/>
     <sheet name="Teste" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="503">
   <si>
     <t>Treinamento</t>
   </si>
   <si>
-    <t>rt @emirsader: mick jagger e roger waters atacam bolsonaro e trump por política ambiental - brasil 247 https://t.co/mwzzgmn4mr</t>
-  </si>
-  <si>
-    <t>rt @cynaramenezes: este ano trump também aderiu aos tanques na rua no dia da independência dos eua, para espanto geral. a mídia comparou el…</t>
-  </si>
-  <si>
-    <t>rt @pauloap: vamos noticiar direito?
-a atriz debra messing, de will &amp;amp; grace, curtiu um post racista, que dizia que "negros que votam em tr…</t>
-  </si>
-  <si>
-    <t>rt @popzonebr: anjo: lana del rey surra trump em declaração: "eu cresci com o obama e nós estávamos felizes. é isso que as pessoas sentem f…</t>
-  </si>
-  <si>
-    <t>rt @siteptbr: shakira será a grande atração do super bowl 2020, afirma site renomado. performance será um ato contra as leis imigratórias d…</t>
-  </si>
-  <si>
-    <t>@deputadofederal só um asno pra ainda crer que esse capacho sem vergonha tem algum resquício de patriotismo, o indecente odeia o brasil e seu povo. se alguém chutar as bolas do trump acerta o boca do bolsonaro.</t>
-  </si>
-  <si>
-    <t>rt @jseoksoul: bolsonaro, trump e maduro sabendo q sao os piores presidentes da atualidade
-https://t.co/bxym8qfefk</t>
-  </si>
-  <si>
-    <t>@bolsonarosp lula, hugo chavez e trump e bolsonaro, todos populistas. 
-muito papo, muito marketing, falácia, conspirações, autoritarismo posturas hipócritas, teorias conspiratórias, cara de pau, ou seja, os populistas são todos iguais.</t>
-  </si>
-  <si>
-    <t>rt @luciaguimaraes: a concorrência é fortíssima. pentágono desviou voos militares para aeroporto na escócia quase falido e próximo a 1 dos…</t>
-  </si>
-  <si>
-    <t>rt @goingtoanywh3re: o filme é simplesmente perfeito
-- fala sobre temas como estupro, machismo, bulimia, bullying, body shaming, pedofilia,…</t>
-  </si>
-  <si>
-    <t>rt @manoelmsgontijo: não há um jornal ou telejornal no brasil q seja capaz de transmitir as verdades dos fatos que envolvem nosso país e o…</t>
-  </si>
-  <si>
-    <t>rt @erikakokay: bolsonaro fere nossa soberania e humilha todos os dias o brasil e o povo brasileiro. presidente entreguista, lacaio de trum…</t>
-  </si>
-  <si>
-    <t>rt @beatrizbulla: filho de trump divulgou e-mail em que 1 jornalista do post faz jornalismo - envia seus contatos a uma possível fonte. ten…</t>
-  </si>
-  <si>
-    <t>@flavioxsid fazem com o bolsonaro o mesmo que com o trump. a esquerda não tem criatividade.</t>
-  </si>
-  <si>
-    <t>rt @updatechart: shakira está finalizando um acordo com a nfl para se apresentar no intervalo do super bowl de 2020. uma das demandas de de…</t>
-  </si>
-  <si>
-    <t>fica cada vez mais evidente que essa miséria no governo é um capacho dos americanos, cachorrinho na coleira do trump
-https://t.co/jbwqmkuzs9 via @youtube</t>
-  </si>
-  <si>
-    <t>@marcosalves_l @vidalazevedo76 @blogdopannunzio não usaram porque não é praxe. nem no brasil, nem no mundo. trump, por exemplo, não usa. merkel também não. isso pra citar dois dos políticos mais influentes do mundo. usar faixa presidencial assim é apenas uma vergonha a mais.</t>
-  </si>
-  <si>
-    <t>vejam  a homenagem do governo  trump, para o governo bolsonaro e sua equipe.   parabéns. 
-é bolsonaro presidente  - 2022
-chupa seus idiotas úteis. https://t.co/g81ojgsydc</t>
-  </si>
-  <si>
-    <t>@andersondoclube @elyanedjesus @deputadofederal asneira é fingir que vai ter um "leilão" imparcial e sem maracutaias quando nem navios iranianos o governo queria abastecer para não irritarem o trump; mas asneira maior ainda é achar digno vender uma riqueza bruta por papéis pintados.</t>
-  </si>
-  <si>
-    <t>no dia da independência o bolsonaro foi comemorar dando o cu pro trump kkkkk</t>
-  </si>
-  <si>
-    <t>basicamente, minhas partes favoritas foram aquelas em que the principal foi performada, (lembra aquela música pro donald trump? então, é essa.) e onde elas falam sobre menstruação, dizendo que "os absorventes deveriam ser de graça.", algo que eu concordo muito.</t>
-  </si>
-  <si>
-    <t>@oglobopolitica @jairbolsonaro @carlosbolsonaro e o trump no cangote.
-#bolsonarotraidor https://t.co/av1sqglfza</t>
-  </si>
-  <si>
-    <t>anjo: lana del rey surra trump em declaração: "eu cresci com o obama e nós estávamos felizes. é isso que as pessoas sentem falta. não é coincidência que esteja tendo queimadas florestais em todos os lugares... tudo isso me faz perguntar: a onde está nosso coração?" https://t.co/thgllao2i8</t>
-  </si>
-  <si>
-    <t>@eddiedonovan @nelsoncviana esquerdistas pedindo para suspender a conta do trump.  autoritários que amam uma censura  nos outros.</t>
-  </si>
-  <si>
-    <t>único jeito do brasil triunfar sobre o endemoniado império americano é casando laurinha bolsonaro com o frágil jovem barron trump</t>
-  </si>
-  <si>
-    <t>@xicosa donald trump é autor das músicas do sex pistols</t>
-  </si>
-  <si>
-    <t>@tate_cg @canalplatinho @alextheblessed @lilovlog diz aí alguém (público) q vc acha macho alfa. 
-e aí eu vou procurar se ele não paga pau pra ninguém... o q eu duvido. o cara tem q ser um egolatra se ele não paga pau pra ninguém. acho q até os maiores alfas da atualidade putin e trump, tem declarações pagando pau pra outros...</t>
-  </si>
-  <si>
-    <t>vou ter que comer cenoura até pegar o bronzeado do trump</t>
-  </si>
-  <si>
-    <t>@trabsamilha prefiro assistir amelie poulan com uma paty pós modernas apontando as nuancias do filme enquanto o donald trump me da choque no mamilo e toca a musica q o matue robo o beat no fundo do q asssistir 30 segundos de um jogo de lol</t>
-  </si>
-  <si>
-    <t>2030 - barron trump e laurinha se casam, o terceiro reich da grande américa é estabelecido, não há fome, toda degeneração foi expurgada.
-tempos prósperos</t>
-  </si>
-  <si>
-    <t>este ano trump também aderiu aos tanques na rua no dia da independência dos eua, para espanto geral. a mídia comparou ele a ditadores ao redor do  mundo. sim, o patriotismo é o último refúgio dos canalhas (samuel johnson) https://t.co/nutqcwptuj</t>
-  </si>
-  <si>
-    <t>@bolsonarosp @portalfab @jairbolsonaro eduardo, me ajude.
-precisamos mesmo de um esquerdista com canudo para a pgr?
-x a favor do foro privilegiado
-x discurso lacrador de minorias
-x ''aaainn, ditadura''
-x donald trump fascista
-x ''aaainn, delação premiada não pode''
-x acha que é o estado quem deve investir em tudo https://t.co/aal4ef3zmf</t>
-  </si>
-  <si>
-    <t>rt @nerdhand: 2030 - barron trump e laurinha se casam, o terceiro reich da grande américa é estabelecido, não há fome, toda degeneração foi…</t>
-  </si>
-  <si>
-    <t>@ysanikalapalo patriota?  saúda o trump? :</t>
-  </si>
-  <si>
-    <t>rt @heversonsantos5: bolsonaro se torna o terceiro líder mundial com mais seguidores nas redes sociais.
-os 3 primeiros:
-1- narendra modi…</t>
-  </si>
-  <si>
-    <t>rt @imprensamundi: delegados do gabinete do trump sao flagrados almoçando e debatendo sobre guerra do brasil e mexico https://t.co/cwsfhsny…</t>
-  </si>
-  <si>
-    <t>rt @pssyeilish: billie eilish:
-- apoia casos a favor da natureza (a mesma divulgou uma causa em seu ultimo clipe lançado)
-- a favor da lega…</t>
-  </si>
-  <si>
-    <t>@raquelstasiaki guga não acertou nenhuma até agora disse que o trump era um bobão e não se elegeria e que bolsonaro não teria nenhuma vitória....🇧🇷🇧🇷🇧🇷🇧🇷👍👍👏👏</t>
-  </si>
-  <si>
-    <t>@veja pronto agora é oficial se ele esta do outro lado, trump e bonoro já estão  reeleitos, pé  gelado kkk https://t.co/rbabyyd2iy</t>
-  </si>
-  <si>
-    <t>trump ta comendo esse fdp não tem outra explicação! https://t.co/hj8gtzj6eg</t>
-  </si>
-  <si>
-    <t>cadê o telefonema do trump para o bolsonaro? bozo deve tá ansioso demais.</t>
-  </si>
-  <si>
-    <t>rt @gugachacra: sim, o contribuinte brasileiro pagou esta viagem para eduardo bolsonaro tirar uma foto com trump e mostrar a senadores que…</t>
-  </si>
-  <si>
-    <t>@jairbolsonaro independencia? como? quando? e o saco do trump?</t>
-  </si>
-  <si>
-    <t>corrupção continua existindo. 
-brasil é ridicularizado pelo mundo inteiro, só quem vê algo de positivo no atual governo é o brasileiro burro e trump. 
-espero que os envolvidos estejam felizes.</t>
-  </si>
-  <si>
-    <t>entendo um presidente levar no carro seu filhinho, tipo o trump fazer isso com o moleque de uns 12 anos. mas carluxo?! sério?! o que é isso, gente?! ele é o guarda-costas do pai? ele é o responsável por sua vitória e portanto merece tais regalias? isso é apenas... constrangedor! https://t.co/k7gbsk2pjh</t>
-  </si>
-  <si>
-    <t>rt @pablovillaca: trump tuitou que o furacão dorian iria atigir o estado do alabama. era mentira - que foi imediatamente apontada pelo órgã…</t>
-  </si>
-  <si>
-    <t>mick jagger e roger waters atacam bolsonaro e trump por política ambiental - brasil 247 https://t.co/mwzzgmn4mr</t>
-  </si>
-  <si>
-    <t>rt @daegusens: e o trump q achou q a menininha queria uma foto e ela virou e disse 
-"você é uma desgraça para o mundo" kkkkkkkkkkkkkkkkkkkk…</t>
-  </si>
-  <si>
-    <t>@hbrumjunior @czmartins @conjur_oficial @onubrasil já nos tornamos capacho do trump, mesmo...</t>
-  </si>
-  <si>
-    <t>@misterromanini @jairbolsonaro @wakeup_imperium mestre, que tal fazer uma camiseta com bolsa, trump, netanyahu, orban e os líderes da polônia e ucrania?! muita coisa? kkkkk</t>
-  </si>
-  <si>
-    <t>@veja 👏👏🙏🙏 trump e bolsonaro reeleitos</t>
-  </si>
-  <si>
-    <t>@guilhermeboulos esse doente deu uma mamada na piroca fina do trump ctz</t>
-  </si>
-  <si>
-    <t>na época em que o trump foi eleito, a melanie falou que tinha uma musica sobre isso e que quando as pessoas ouvissem todo mundo ia perceber...
-bom n sei vocês, pra mim a the principal é o bolsonaro todinho 
-#melaniemartinez</t>
-  </si>
-  <si>
-    <t>@conversaafiada isso explica a eleição do trump e do bolsonaro.</t>
-  </si>
-  <si>
-    <t>rt @esquerdadiario: na véspera do #7desetembro bolsonaro organizou o leilão da maior reserva de petróleo do país. trump e outros imperialis…</t>
-  </si>
-  <si>
-    <t>@jairbolsonaro querido no caso os estudantes apanham é não esquecem tua hora vai chegar vamos ter a honra de ti ver fora do brasil vai morar com trump tua paixão e nos deixa em paz!</t>
-  </si>
-  <si>
-    <t>@olobolibertario eu não, nós. para avançarmos nesta conversa temos de definir isso. o governo americano também intervém na economia - bailout 2008, tarifas trump, mas não me digas que achas os eua um país socialista...</t>
-  </si>
-  <si>
-    <t>@bolsonarosp @portalfab @jairbolsonaro fantástica essa aeronave. precisamos investir muito em equipamentos para as ffaa. quem sabe o pres. trump nos ajude nisso. precisamos de muitos caças, navios, tecnologia, etc. um país forte militarmente será muito mais respeitado. 🇧🇷🇧🇷🇧🇷</t>
-  </si>
-  <si>
-    <t>eu nao acredito que tem uma animacao do trump https://t.co/ds3hzesylp</t>
-  </si>
-  <si>
-    <t>@jairbolsonaro q orgulho 👋👋🇧🇷🇧🇷
-finalmente estamos entre países amigos e q representam parceria, como quando o trump no g7 logo deu uma bronca no macron e todos abaixarem a bola, ficaram falando sozinhos ele e o troudot (não sei se escrevi certo o nome dele) do canadá🇧🇷🇧🇷viva o brasil https://t.co/g0fwtlk35m</t>
-  </si>
-  <si>
-    <t>se liguem 2020 tem eleição para presidente nos eua e quase certeza que o trump sai, agora vemos pensa no brasil imagina o cachorrinho de estimação dele aqui no brasil sera que vai ser o mesmo machao que ta sendo ai vai chupa a china fica vendo</t>
-  </si>
-  <si>
-    <t>rt @nsportore: olha a mesa que o pr recebe um dos homens mais importantes do governo trump. https://t.co/tbrutvjusx</t>
-  </si>
-  <si>
-    <t>rt @renato_fmenezes: vocês não sabem o significado da shakira no halftime do super bowl 2020: mulher latina que quebrou as barreiras linguí…</t>
-  </si>
-  <si>
-    <t>comunista inglês. https://t.co/1xgsfqzmqs</t>
-  </si>
-  <si>
-    <t>toma essa no meio da cara trump https://t.co/xll7qgsldc</t>
-  </si>
-  <si>
-    <t>exposição de charges com bolsonaro lambendo botas de trump é suspensa no rs https://t.co/uudycgzer2 via @uolgeek @uol</t>
-  </si>
-  <si>
-    <t>tire a mão,o trump  é meu talkei! https://t.co/fsyxvv4vgy</t>
-  </si>
-  <si>
-    <t>@laradossantosc @isaflach pior é os q vem pros eua e postam foto apoiando trump como se fosse mudar algo na vida deles</t>
-  </si>
-  <si>
-    <t>rt @luciaguimaraes: a concorrência é forte, mas esta é a revelação mais escandalosa do dia e não está no radar. eua estão chantageando ucrâ…</t>
-  </si>
-  <si>
-    <t>rt @jandira_feghali: "mundo tem inveja do acesso do brasil a trump".
-quem fez essa afirmação?</t>
-  </si>
-  <si>
-    <t>rt @tofanipiu: @mortiferasp @denizes36433345 ele não tem educação e não obedece protocolos.
-assemelha-se ao trump, que foi capaz de dar as…</t>
-  </si>
-  <si>
-    <t>rt @bolsonarosp: além disso, sr. trump aceitou nossa proposta de trabalhar conjuntamente para desenvolver de forma sustentável a amazônia.…</t>
-  </si>
-  <si>
-    <t>trump q o diga. https://t.co/wchh9d8ogw</t>
-  </si>
-  <si>
-    <t>"falando bem mais merda q o próprio donald trump
-com uns trap retardado mais vazio do q o lil pump"
-- emicouto</t>
-  </si>
-  <si>
-    <t>@gugachacra @globonews a mulher do príncipe charles também é feia pra caramba, a ângela merkel é feia, a bachelet do chile é feia,  a cristina kirchner é feia..a mulher do donald trump é bonita pra caramba.</t>
-  </si>
-  <si>
-    <t>rt @samuel93967896: @numeiro
-até o trump te curte
-https://t.co/zy5vuoi1kt #madlipz https://t.co/5orciesamh</t>
-  </si>
-  <si>
-    <t>esquerda e esquerda anti-trump, bolsonaro, witzel e aecio-lemann.....
-em luto pelo pais, viuvas, orfaos, doentes incuraveis, idosos e portadores de necessidades especiais..... e os trabalhadores e pobres frente a maquina assassina do fascismo..... https://t.co/6ozyrpqtjm</t>
-  </si>
-  <si>
-    <t>vai ser incrível e ainda vai comer o c* do trump #latinogang https://t.co/jlwyd17br6</t>
-  </si>
-  <si>
-    <t>rt @moneymakerbr: se as falas do bolsonaro ou os tuítes do trump não te distraírem talvez você note que tem algo acontecendo no brasil... h…</t>
-  </si>
-  <si>
-    <t>@veja o jagger é um baita "pé frio".
-ainda bem que ele é contra o trump e o bolsonaro.
-kkkkkkkkkkkkkkkk.
-se ele ele fosse a favor, seria preocupante.</t>
-  </si>
-  <si>
-    <t>rt @musicolotra: shakira é ativista, fez desde o começo campanha anti-trump, é a artista latina #1 all time, nome perfeito pra afrontar ess…</t>
-  </si>
-  <si>
-    <t>@rubens_85_cg @julesce315 @desesquerdizada tá falando do trump? aquele cabelo amarelo é horrível mesmo https://t.co/uhtjtf7tb6</t>
-  </si>
-  <si>
-    <t>@carlosbolsonaro carlos, me ajude. precisamos mesmo de um esquerdista com canudo para a pgr? 
-x a favor do foro privilegiado 
-x discurso lacrador de minorias 
-x ''aaainn, ditadura'' 
-x donald trump fascista 
-x ''aaainn, delação premiada não pode'' 
-x acha que é o estado quem deve investir em tudo https://t.co/dktu3epufe</t>
-  </si>
-  <si>
-    <t>trump surpreende todos e ora por bolsonaro e pelo brasil https://t.co/lqm9baese6</t>
-  </si>
-  <si>
-    <t>@laurocardosoara @stephenbyrne86 @ricardopf forçar a barra é censurar quadrinhos em pleno século 21 em um país que é democrático. mesmo com donald trump nos estados unidos, este fascismo não acontece.</t>
-  </si>
-  <si>
-    <t>além de tudo, porcos!!!!
-líderes políticos, entre eles o presidente brasileiro, foram chamados de "porcos". https://t.co/8rntmh0yar</t>
-  </si>
-  <si>
-    <t>@veja pé frio trump vai ser reeleito.</t>
-  </si>
-  <si>
-    <t>rt @kirillovos: único jeito do brasil triunfar sobre o endemoniado império americano é casando laurinha bolsonaro com o frágil jovem barron…</t>
-  </si>
-  <si>
-    <t>rt @karim_brito: @flavioxsid fazem com o bolsonaro o mesmo que com o trump. a esquerda não tem criatividade.</t>
-  </si>
-  <si>
-    <t>rt @renojams: eu sei que essa música foi para o trump, mas eu a dedico a você .i. https://t.co/ephxu1xqej 
-@jairbolsonaro</t>
-  </si>
-  <si>
-    <t>@jairbolsonaro lambe bota de trump: dia da dependência</t>
-  </si>
-  <si>
-    <t>rt @leucio02: eles enganam os brasileiros e entregam tudo para trump  https://t.co/ts7orwwdce</t>
-  </si>
-  <si>
-    <t>rt @isabellagargiu3: @jairbolsonaro q orgulho 👋👋🇧🇷🇧🇷
-finalmente estamos entre países amigos e q representam parceria, como quando o trump n…</t>
-  </si>
-  <si>
-    <t>jagger e sutherland criticam trump e bolsonaro por política ambiental | https://t.co/agwqlb1him | jornal do povão df https://t.co/rgvspiiryo https://t.co/jbci3av9k4</t>
-  </si>
-  <si>
-    <t>@donia_trump esaaa melania👏👏</t>
-  </si>
-  <si>
-    <t>rt @xgossipxg: • governo e sistemas 
-é mais q óbvio q a melanie n estava se referindo somente ao diretor da escola cm essa música e sim a t…</t>
-  </si>
-  <si>
-    <t>@bolsonarosp @portalfab @jairbolsonaro israel já deu os parabéns pole 7 de setembro. no aguardo pra vc postar os do trump.</t>
-  </si>
-  <si>
-    <t>rt @rconstantino: a bolha "progressista" encontrou sua nova luta contra o "fascismo" numa polêmica de livro infantil de herói gay com beijo…</t>
-  </si>
-  <si>
-    <t>@malikrings também é uma critica pro trump a</t>
-  </si>
-  <si>
-    <t>@jairbolsonaro já chupou a rola do trump hoje amada?</t>
-  </si>
-  <si>
-    <t>@generalgirao gostei da segurança igual do presidente trump e isso aí vigia nosso presida please! 🙏💛💚</t>
-  </si>
-  <si>
-    <t>@o_antagonista as mulheres francesas não são bonitas em sua maioria. mas a mulher do macron e feia pra dedé.. em compensação a mulher do trump é linda para caramba.. a esquerda tem mais gosto</t>
-  </si>
-  <si>
-    <t>esquema del air force one #airforceone #boeing #747 #trump https://t.co/3b9nnrzbhs</t>
-  </si>
-  <si>
-    <t>rt @parkermrvei: eu queria muito a opção de editar tweet 
-imagina fazer um post de apoio ao bolsonaro, esperar os minion dar muito rt
-aí…</t>
-  </si>
-  <si>
-    <t>@merodrigues1983 @aryribeironeto @gauchazh foda-se vc e o trump 🤮</t>
-  </si>
-  <si>
-    <t>rt @jacque_brasil: não visito mais aparecida. quer dá ibope para os mamadotes do dinheiro público e ongs interessada no nosso subsolo, cheg…</t>
-  </si>
-  <si>
-    <t>@marcosquezado1 precisamos fazer como o trump e sair da onu, que só apoia vagabundo como maduro</t>
-  </si>
-  <si>
-    <t>rt @niralima: @gduvivier presida quer brigar com o mundo todo exceto com os eua por conta do seu ídolo e chefe trump!</t>
-  </si>
-  <si>
-    <t>rt @jliocsa40437174: @gaijinzin @ggreenwald @arthurmoledoval tenha consciência estratégica. 
-em 2016 muitos da esquerda ridicularizavam o…</t>
-  </si>
-  <si>
-    <t>rt @jessesouzaecht: o discurso de ódio de trump é um cálculo frio e cínico, mas estratégico. ele tem limite. em bolsonaro o ódio é a expres…</t>
-  </si>
-  <si>
-    <t>@mortiferasp @denizes36433345 ele não tem educação e não obedece protocolos.
-assemelha-se ao trump, que foi capaz de dar as costas à rainha da inglaterra.</t>
-  </si>
-  <si>
-    <t>@guilhermeboulos ele faz do brasil, um puxadinho do banheiro do trump. #bolsonaroenvergonhaobrasil</t>
-  </si>
-  <si>
-    <t>minhas reflexões sobre o "presente amazônico" de bolsonaro a trump.
-die+%e2%80%9cschlacht%e2%80%9d+um+amazonien+%e2%80%93+bolsonaro%2c+die+usa+und+die+waldmenschen via @nachdenkseiten -  https://t.co/hejy38liuf</t>
-  </si>
-  <si>
-    <t>@letiiiiizia não é exclusividade dele tem outros fatores que afetaram como a crise política na argentina e as desavenças do trump com a china, mas a participação dele é bem grande</t>
-  </si>
-  <si>
-    <t>não visito mais aparecida. quer dá ibope para os mamadotes do dinheiro público e ongs interessada no nosso subsolo, chega a amazônia é nossa e outra coisa tira o muro para depois falar do trump. acabou a palhaçada. https://t.co/hmohdqmeyg</t>
-  </si>
-  <si>
-    <t>dois véio doido que andam de rolls royce e falam bosta na tv, um vive em miami,o outro tchutchuca do trump que elogia eua na sua maior crise diplomática comercial pleno dia mais importante da história brasileira, tavam esperando oq desse 7 de setembro brazel??????
-#lutopelobrasil https://t.co/cg7vdzbo4b</t>
-  </si>
-  <si>
-    <t>@veja queria mesmo é que torcesse pelo o trump e pelo bolsonaro</t>
-  </si>
-  <si>
-    <t>e get back foi encomendada por trump https://t.co/sapc7qaoxn</t>
-  </si>
-  <si>
-    <t>rt @lahfeminist: eu gostaria de saber porque merda o bolsonaro não foi morar nos eua.
-se ele peida é por causa dos eua,
-se ele caga é por c…</t>
-  </si>
-  <si>
-    <t>@jose_simao só faltou o trump nessa foto kkkk</t>
-  </si>
-  <si>
-    <t>@annavirginia @juliatlindner adoro a esquerda fazer questão de ridicularizar quem tem outra opinião. aí o povo fica ofendido e vota em trump e em bolsonaro e as elites intelectuais choram traídas. parem de chamar de canalha quem pensa diferente, vocês vão garantir a reeleição de bolsonaro.</t>
-  </si>
-  <si>
-    <t>nos estados unidos, quando a extrema direita assumiu, os nazistas voltaram a rua. aqui no brasil, quando ela assumiu, a censura voltou as ruas. lula e obama mostraram as minorias e aos operários a oportunidade. bolsonaro e trump mostram a idade das trevas. 
-#censuranabienal</t>
-  </si>
-  <si>
-    <t>rt @fregraf: minhas reflexões sobre o "presente amazônico" de bolsonaro a trump.
-die+%e2%80%9cschlacht%e2%80%9d+um+amazonien+%e2%80%93+bols…</t>
-  </si>
-  <si>
-    <t>rt @allekka87: dois véio doido que andam de rolls royce e falam bosta na tv, um vive em miami,o outro tchutchuca do trump que elogia eua na…</t>
-  </si>
-  <si>
-    <t>@abrahamweint abraham, me ajude. precisamos mesmo de um esquerdista com canudo para a pgr? 
-x a favor do foro privilegiado 
-x discurso lacrador de minorias
-x ''aaainn, ditadura'' 
-x donald trump fascista 
-x ''aaainn, delação premiada não pode'' 
-x acha que é o estado quem deve investir em tudo https://t.co/rh0cz3xuyj</t>
-  </si>
-  <si>
-    <t>mundo tem inveja do acesso do brasil a trump, diz chanceler de bolsonaro https://t.co/ja1uvctduj</t>
-  </si>
-  <si>
-    <t>rt @bby_bunnyb: ela diz que ele simplesmente se importa com seu dinheiro e não dá a mínima ao resto dos alunos. 
-uma clara crítica à donald…</t>
-  </si>
-  <si>
-    <t>a concorrência é fortíssima. pentágono desviou voos militares para aeroporto na escócia quase falido e próximo a 1 dos 2 clubes de golfe do homem. tripulação foi mandada para hotel do clube e diária habitual não dava nem para pagar comida. https://t.co/53g8l0y38x https://t.co/xcavjl7x2a</t>
-  </si>
-  <si>
-    <t>@priweinstein @danilogentili recomendo cuidado, pois há pouquíssimo tempo o trump era o véio da havan dos eua, e olha onde ele foi parar...</t>
-  </si>
-  <si>
-    <t>@erikakokay o patriota do trump.</t>
-  </si>
-  <si>
-    <t>@selmavasconce10 cadê o trump ?</t>
-  </si>
-  <si>
-    <t>@guilhermeboulos cadelinha do trump, esperava o que?</t>
-  </si>
-  <si>
-    <t>rt @ofoxofox: @folha vale lembrar também: https://t.co/efwd6z1kx6</t>
-  </si>
-  <si>
-    <t>@deputadofederal @cidadaodemal bozo é lambe botas do trump!</t>
-  </si>
-  <si>
-    <t>@guilhermeboulos quanto será que o trump paga para o bozonaro chupar o pau dele?? https://t.co/wynb1bjbyq</t>
-  </si>
-  <si>
-    <t>delegados do gabinete do trump sao flagrados almoçando e debatendo sobre guerra do brasil e mexico https://t.co/cwsfhsny3a</t>
-  </si>
-  <si>
-    <t>trump não, trampo sim.</t>
-  </si>
-  <si>
-    <t>@50chicoalencar @biakicis sr. @aroeiracartum , engraçado vocês falam que o pres. se submete ao trump, + se vê com clareza solar um presidente que grita ao mundo a soberania do brasil, inclusive ao trump, quando lhe diz, que assim como ele, quer um brasil grande. chola +!</t>
-  </si>
-  <si>
-    <t>@hilde_angel um lambe botas do trump ! #forabolsonaro #forabolsonaroeseubandodecriminosos #forabol卐onaro</t>
-  </si>
-  <si>
-    <t>meu comentário no jornal da cultura dias antes da vitória de donald trump 🇺🇲 sobre a qualidade de nossos analistas que sempre erram tudo (2016).
-trump será reeleito e dizem que disputará com ronald reagan o posto de melhor presidente da história 🇺🇲 https://t.co/aekwods02h</t>
-  </si>
-  <si>
-    <t>rt @sahlobandita: gente o #k12movie é perfeito, ele aborda trabsfobia, tem indireta pro trump, aborda sobre machismo e padrões de beleza, m…</t>
-  </si>
-  <si>
-    <t>olha o "hedge" dele. fez jogada sem volta q está dando errado. provocou freio em expectativas por todo lado desde fev18. ele insistiu no blefe e teve troco. está vendo economia ir para buraco. então foi p hedge batendo no fed: recessão e crise-&amp;gt; culpa  fe; milagre -&amp;gt; trump wins https://t.co/2bggdq0rtb</t>
-  </si>
-  <si>
-    <t>silvio: há hái! quem qué cu e greloo? o trump tá cagando para vcs, seus palha! https://t.co/6ki9qlnptq</t>
+    <t>um presidente lunático acha que o mundo tá contra ele, menos trump,   só fala em cú e comunismo, um ministro da educação sem o mínimo de decoro, incita o ódio a professores e a universidade federal, um marmita de banqueiro, moro que não entende d lei. qdo vão fazer alguma coisa?</t>
+  </si>
+  <si>
+    <t>@folha se trump... cair... no impechement... bozo se lasca bem mais cedo do que se esperava...</t>
+  </si>
+  <si>
+    <t>vejam que coisa maravilhosa: ---comitê judiciário da câmara deverá analisar possível obstrução de justiça e abusos de poder cometidos por trump---
+vai dar em alguma coisa?
+não sei.
+mas é melhor do que um congresso parado.
+https://t.co/e2wrcf8dl7</t>
+  </si>
+  <si>
+    <t>pastores ligados a trump chegam ao brasil para iniciar estudos bíblicos no congresso https://t.co/ks5ct8os7k</t>
+  </si>
+  <si>
+    <t>trump calma , diz aí aos talibans que o rambo de portugal não vai aos states !! https://t.co/frsg4gawcw</t>
+  </si>
+  <si>
+    <t>em tempos em que kim jong-un e o presidente dos estados unidos, donald trump, apertam as mãos, os crentes continuam brigando e cantando que vão morar em canaã....</t>
+  </si>
+  <si>
+    <t>@estadao não aconteceria com o 1 ministro da inglaterra, ou trump.
+só nessa imprensa lixo 
+#estadaofake</t>
+  </si>
+  <si>
+    <t>mick jagger e sutherland criticam bolsonaro e trump em festival - bem blogado https://t.co/yu4uul4fqb</t>
+  </si>
+  <si>
+    <t>@adriano27091778 @uol nosso lado??? trump odeia latinos, você sabe que somos latinos né?? veja ai quantos brasileiros foram deportados do eua só esse ano meu caro. não viva de ilusão, estude! abraço.</t>
+  </si>
+  <si>
+    <t>@uolnoticias esses "líderes " são esquerdista de pior qualidade, a velha tem tremedeira de tanto beber cachaça, o macron é um moleque que não sabe governar nem a própria frança levou uma bela de comida de rabo do trump, esse outro velho gagá que aparecer na foto  😂😂😂😂😂😂😂 bolsonaro 🇧🇷</t>
+  </si>
+  <si>
+    <t>@vinicius_m @lu4lencar @jeremyjr379 @lucasberti perfeita analogia, só que ao meu ver bolsonaro acerta quando se alia a trump que tem uma possibilidade clara de reeleição do que a macron, rejeitado por 70% da população francesa.</t>
+  </si>
+  <si>
+    <t>@estadao @fausto_macedo é o que faltava.e lá nos states o trump quer a volta da pena de morte...</t>
+  </si>
+  <si>
+    <t>a tentativa de trump de negociar com o taleban para tentar encerrar os 18 anos de guerra no afeganistão foi corajosa. mas os terroristas voltaram a atacar. debatemos no podcast do @globonews internacional, com o @marcelolins68 @andrefran e @leilasterenberg https://t.co/x3nerpglqn</t>
+  </si>
+  <si>
+    <t>pastores ligados a trump chegam ao brasil para iniciar estudos bíblicos no congresso https://t.co/oviagpizg4</t>
+  </si>
+  <si>
+    <t>@folha meu deus!!! tomara que consigam tirar trump! única luz no fim do túnel para o brasil nesse momento.</t>
+  </si>
+  <si>
+    <t>john legend e a chrissy teigen trollando o trump enquanto ele tem mais um ataque de raiva no twitter não só é a coisa mais divertida do dia, como traz aquela sensação gostosa de que não somos só nós que temos um débil mental governando o país.
+https://t.co/rlgfxlnots</t>
+  </si>
+  <si>
+    <t>quando acharem que os fãs do trump são fodidos lembrem-se que eles não são nada à beira dos fãs da tap ❤ https://t.co/70l9kfuhi5</t>
+  </si>
+  <si>
+    <t>@michell18509663 dia do fogo. trump. terraplanismo.
+https://t.co/9xry1tzvnb</t>
+  </si>
+  <si>
+    <t>@uolnoticias "o brasil é soberano, não tem que tentar agradar ninguém lá fora."
+falou o lambedor dos bagos de donald trump.</t>
+  </si>
+  <si>
+    <t>não aguento mais seguir o trump, esse homem é imbecil demais</t>
+  </si>
+  <si>
+    <t>@acm_cmachado @zatsune_miku_br @realdonaldtrump esse apoio a conta chega depois criatura. a primeira conta, a do apoio de trump no assunto da amazônia, ja chegou. o etanol americano, concorrente do brasileiro, vai ser comprado em dobro aos americanos sem reciprocidade. meu fi é burrinho. acha mesmo que trump é amigão de bono🤦‍♂️</t>
+  </si>
+  <si>
+    <t>situação triste, bananeira, nos eua, com ameaças a funcionários do serviço de meteorologia que querem fazer o seu trabalho e não referendar a maluquice de trump sobre furacão no alabama https://t.co/3lg4olwqhi</t>
+  </si>
+  <si>
+    <t>@mblivre pergunta  trump o q ele acha da indicação, depois conversamos.</t>
+  </si>
+  <si>
+    <t>mano é incabível pensar que o chefe do executivo baixa tanto o nível assim caralho, maldito trump que normalizou ( os eua como principal potência geopolítica do mundo ) ficar fazendo picuinha no twitter xingando chefe de estado servindo de exemplo pros imbecis...</t>
+  </si>
+  <si>
+    <t>@gugachacra @globonews vc nem aqui vive, e se mora nos usa é porque a #globolixotraidoradapatria te banca, e vc mesmo morando fora ainda ataca o presidente trump, vc é um fanfarrão.</t>
+  </si>
+  <si>
+    <t>[opinião] "muitos afegãos morrem em ataques talibãs, mas bastou a morte de um soldado americano para trump suspender diálogos com o grupo. pesar a importância das vítimas pela nacionalidade é cínico, mas é exatamente essa a lógica do presidente dos eua." https://t.co/akyzb6groo</t>
+  </si>
+  <si>
+    <t>barraco! #donaldtrump detona #johnlegend e a esposa: 'boca suja'
+https://t.co/qa5nl1n1qw</t>
+  </si>
+  <si>
+    <t>@folha que ridículo! copiando o trump...</t>
+  </si>
+  <si>
+    <t>esqueçam república, é monarquia de banana. primeira frase da reportagem: “o império começa com um bordel.” é verdade, assim começaram nos negócios da família, em 1899. https://t.co/s7jjpci790 https://t.co/kmifuqiroa</t>
+  </si>
+  <si>
+    <t>@zekkaaa aahhh... ufa, obg por esclarecer a questão. achei que já íamos ter que oprimir mães tb. temos que ficar vigilantes, afinal, vai que o donald “guerra nuclear” trump ou o jair “qlq coisa ista” bolsonaro tem uma idéia fascista dessas né?! temos que denunciar. o bernie tá tranquilo👍🏼</t>
+  </si>
+  <si>
+    <t>presidente da microsoft ao lado da huawei: trump está a ser injusto https://t.co/xblej3hgdm https://t.co/zn8yhgjxyz</t>
+  </si>
+  <si>
+    <t>@danilomagalh4es @pr_alexandregon @killingrobotz ah, sim, porque manter a soberania é bater continência para a bandeira americana e fazer o jogo do trump sem ganhar nada em troca. tá serto.</t>
+  </si>
+  <si>
+    <t>nunca se portou como presidente e acha que assim conseguirá melhorar a economia e atrair investidores. se porta como uma criança e só tem olhos e língua para as bolas do trump. https://t.co/naiubxotay</t>
+  </si>
+  <si>
+    <t>microsoft defende huawei e chama trump de 'antiamericano' https://t.co/9kkggehehw via @tec_mundo</t>
+  </si>
+  <si>
+    <t>@uol inconformados? para de falar merda.
+1o) macron é ninguem mundialmente
+2o) trump e boris apoiam bolsonaro
+3o) ue mandou macron se calar
+4o) vcs nao falaram nada sobre o ataque ao menino ivo 9a com bolsonaro pelo g1
+5o) exercito prende ong francesa roubando diamante na amazonia</t>
+  </si>
+  <si>
+    <t>o partido comunistas chinês está sendo pressionado de forma avassaladora pelo povo de hong kong. após serem acusados de espancaram jovens até a morte no último protesto, agora se vêem impotentes ao ver a população pedido a ajuda de donald trump. é o início do fim do pc chinês.</t>
+  </si>
+  <si>
+    <t>bravo
+https://t.co/i7ex5sbvcq</t>
+  </si>
+  <si>
+    <t>bibi vai perder. trump vai perder. brexit vai recuar. o mundo vai respirar, exceto o brasil, sempre na vanguarda do atraso. https://t.co/nlivj3xdtb</t>
+  </si>
+  <si>
+    <t>"bolsonaro trata o brasil como trump trata o mexico" te amo @gduvivier</t>
+  </si>
+  <si>
+    <t>@uolnoticias cachorrinho do trump, outro imbecil</t>
+  </si>
+  <si>
+    <t>o presidente dos estados unidos, donald trump, suspendeu abruptamente negociações com o grupo talebã quando os dois lados pareciam perto de chegar a um acordo de paz
+https://t.co/bzjpnbtylm</t>
+  </si>
+  <si>
+    <t>@visaoaustriaca acho paia esses libertários que ficam se aproximando dos nacionalistas como trump e.bozonauro...</t>
+  </si>
+  <si>
+    <t>mais uma vez a esquerda ataca o presidente norte-americano com mentiras infundadas através de uma “fonte” da cia.
+trump passou segredos de israel para a rússia, diz fonte da cia https://t.co/gbihxucdnd via @youtube prof. bellei #canalprofessorbellei</t>
+  </si>
+  <si>
+    <t>@eleonmoraes as pautas delas são bem parecidas com as de trump, em ajudar a classe média americana. seus rallies andam lotando demais. 
+o ponto fraco dela é o eleitorado negro. ela ainda precisa conquistar. mas entre brancos, ela tá bem demais</t>
+  </si>
+  <si>
+    <t>mais notícias falsas da #cnn trump awards medal of valor to mass shooting responders https://t.co/6tnk6rc67s #fakenews</t>
+  </si>
+  <si>
+    <t>@lets_dex mano eu amo o trump</t>
+  </si>
+  <si>
+    <t>erro fatal! macron tralu trump e negocia com lrã 
+https://t.co/150q1qqbew via @youtube</t>
+  </si>
+  <si>
+    <t>donald trump diz que negociações com talibã estão 'mortas' https://t.co/hwwx8mrafh</t>
+  </si>
+  <si>
+    <t>@estadao isolamento diplomático!
+bolsonaro quer agir igual ao trump, mas ele esquece q governa o brasil. o brasil ñ tem o poderio econômico-militar dos eua. infelizmente, para bolsonaro, segregar o br ñ custa tão caro.
+o presidente tem que encontrar outra maneira de homenagear o ídolo.</t>
+  </si>
+  <si>
+    <t>@rafaelglau eu só fiquei meio desapontado num dos especiais dele do netflix q ele teve q pagar o pedágio, chamando o trump de racista, mas né... tem q manter o networking...</t>
+  </si>
+  <si>
+    <t>@mauestevez onde esta a mensagem do amigo trump ? 😂😂😂</t>
+  </si>
+  <si>
+    <t>@macunaimaz @adelenascal e a midia chama o trump de opressor!</t>
+  </si>
+  <si>
+    <t>"não adoramos ao governo, adoramos a deus", diz donald trump https://t.co/v34eiubqp5</t>
+  </si>
+  <si>
+    <t>exposição de charges com bolsonaro lambendo botas de trump é suspensa no rs https://t.co/ldce4tdwj8 via @uolgeek @uol</t>
+  </si>
+  <si>
+    <t>não vamos esquecer que quando o trump assumiu o poder a esquerda mundial foi totalmente surpreendida. eles absolutamente não esperavam por aquilo e não viram essa porrada vindo bem no meio da cara deles. o mesmo aconteceu com o bolsonaro aqui no brasil.</t>
+  </si>
+  <si>
+    <t>do nada uma ligação dos eua. q isso?? o mt internacional. devendo até o trump 😂</t>
+  </si>
+  <si>
+    <t>cnco brincando de adivinha e o joel pra se referir ao trump disse isso. o resto do grupo ainda sacou na hora o que era ehudheueheu
+eu amo esses garotos https://t.co/nalvcfamtc</t>
+  </si>
+  <si>
+    <t>ai toda vez que vejo a laura prepon me sinto triste e broxada pois ela hoje em dia eh trump</t>
+  </si>
+  <si>
+    <t>@gugachacra @globonews @marcelolins68 @andrefran @leilasterenberg homenzinho mimado , que foi viver  das benesses da maior potência mundial ao invés de "cobrir" cuba, angola, venezuela para sentir aquilo que prega! fala mal do trump tb? ele fala na cara como o nosso presidente! odeia viver aí? rs</t>
+  </si>
+  <si>
+    <t>@flpmodesto isolamento eu não diria, temos o apoio dos eua e israel, mas dada a insanidade do nosso governante não duvido ele arranjar briga até com o trump</t>
+  </si>
+  <si>
+    <t>@velhojuve1 @felipesounet @uolnoticias e o pré sal, minion?
+ah, esse pode
+o trump quer
+vcs são a piada</t>
+  </si>
+  <si>
+    <t>trump é meu personal stylist.
+@tavarespetersen</t>
+  </si>
+  <si>
+    <t>"não adoramos ao governo, adoramos a deus", diz donald trump https://t.co/uxr4zyyvqh</t>
+  </si>
+  <si>
+    <t>@mamatocrata @sandraf16584305 @o_antagonista pois é... 
+o único detalhe é que o detonador do trump, detona umas 30 bombas. kkk... fora isso, é verdade oq vc diz.</t>
+  </si>
+  <si>
+    <t>@nadiafalcao1 @walternunes "honre sua pátria " com o bozó dando o cuzinho pro trump https://t.co/ml5wxl7hd2</t>
+  </si>
+  <si>
+    <t>trump: se não fosse os eua, a frança estaria falando alemão.
+será que algum dia, alguém dirá "se não fosse (país), a frança seria muçulmana agora"?</t>
+  </si>
+  <si>
+    <t>@diothed0g @brito_fdx até agora, o único “político” que vi, cumprir promessas eleitorais na mesma semana em que chegou ao gabinete, foi trump...  just saying... portanto o carisma é importante. porque se obama com o carisma que tem, tivesse feito o mesmo, seria o maior 😎.</t>
+  </si>
+  <si>
+    <t>trump 2020 a todos os heróis que reconhecemos hoje - obrigado e que deus os abençoe! https://t.co/2uxqavyzzk</t>
+  </si>
+  <si>
+    <t>@jpmachadorocha @filipebarrost eu discordo. em um art de opinião precisei elucidar brevemente sobre a trajetória de trump e em seguida coloquei algumas citações do presid. americano. até aí, não havia me posicionado. quer dizer que, por isso, eu estava enaltecendo trump? n foi o caso. mesma coisa serve p conti</t>
+  </si>
+  <si>
+    <t>primeiro kim, depois taleban: trump segue pronto a dialogar com os inimigos - https://t.co/yq3ih3e2rb https://t.co/0qrfjtcwj1</t>
+  </si>
+  <si>
+    <t>donald trump, jair bolsonaro e mais recentemente boris johnson estão provando ao mundo que o novo requisito pra liderar uma grande nação é ter cara de mongol e o cabelo ruim https://t.co/euazbhyrz5</t>
+  </si>
+  <si>
+    <t>@_silencewllfall @suxbernardo @fabia_de_aguiar @bslvra @anacronices lembrei aquela reunião com o trump e ele a melina trump trocando olhares hahahaha</t>
+  </si>
+  <si>
+    <t>tuítes de donald trump agora compõem um índice do mercado financeiro https://t.co/qo3n3pycjq</t>
+  </si>
+  <si>
+    <t>no brasil a galera chama de cor de pele, mas deveria se chamar "cor da pele do trump" pq só ele tem essa cor https://t.co/m2qh7nh5oq</t>
+  </si>
+  <si>
+    <t>@euvivi_s @regina_cypriano @rnngr1 @uolnoticias @jairbolsonaro então quer dizer que se formos precisa de alguém que seja os eua, mais depois que os outros países cortarem relações tu achar mesmo que o trump vai ficar do lado do brasil ainda ? 🤦</t>
+  </si>
+  <si>
+    <t>@cardoso pô se não é tão caro, bem que o brasil podia fazer um sistema para nós. eua e russia já tem. china já está tudo encaminhado, a india está lançado satélite. o bonoro podia conversar com trump para dá um ajudada no nosso programa</t>
+  </si>
+  <si>
+    <t>o pior é que para os zumbis, os minions, todo o mundo está errado exceto bolsonaro e talvez o trump (ao menos até o próximo encontro do g7). https://t.co/hbj73s6jvt</t>
+  </si>
+  <si>
+    <t>donald trump está construindo o muro. mesmo com todos os contrários!
+#thewall
+#congratulationsdtrump https://t.co/5p6lg1o6zn</t>
+  </si>
+  <si>
+    <t>ex-governador republicano da carolina do sul decide concorrer contra trump https://t.co/3p4grdpqbd https://t.co/bkhg9ujbbo</t>
+  </si>
+  <si>
+    <t>@lilianmgmota @mariofla95 @uolnoticias para de ser retardada crl, vive dizendo que o bonoro não vai entregar o brasil de graça mas já tá ele lá chupando o saco do trump, para de ser iludida!</t>
+  </si>
+  <si>
+    <t>donald trump ataca john legend e chrissy teigen nas redes sociais, e o casal rebate de forma (muito!) ácida: 'melania está ocupada'
+https://t.co/hjswbqvgmg</t>
+  </si>
+  <si>
+    <t>@lauraabcarvalho vale lembrar que a própria ângela foi alvo de brincadeira grosseira e preconceituosa do vice da besta. ele disse que os tremores que a afetaram recentemente eram por medo de trump!</t>
+  </si>
+  <si>
+    <t>@georgeseia @braziliancolle2 o filme é basicamente mostrando como arthur se tornou o coringa graças a sociedade fudida.tem bastante violência..é um coringa mais pé no chão igual ao ledger.o trump é atacado no filme usando thomas wayne..</t>
+  </si>
+  <si>
+    <t>trump é só charme, nem o kim coreano resistiu... kkkkkkkk https://t.co/6yhi1gqbnk</t>
+  </si>
+  <si>
+    <t>trump se diz pronto para ‘se envolver’ no diálogo entre rússia e ucrânia https://t.co/u4kozsoazu https://t.co/ns003cxdrt</t>
+  </si>
+  <si>
+    <t>mais notícias falsas da #cnn trump: u.s. &amp;amp; taliban talks 'dead'...for now https://t.co/kzupgqp8ji #fakenews</t>
+  </si>
+  <si>
+    <t>hoje minha sala de oitavo ano teve um júri e meu professor falou q se fosse de vdd iríamos levar o trump preso</t>
+  </si>
+  <si>
+    <t>... o mundo de fato está mais pacífico... a" turminha " do trump e a "turminha" do bozo não tem escutado nem passado nem a metade do merecem por todo o mal que eles têm feito ao mundo !</t>
+  </si>
+  <si>
+    <t>meu amigo turquinho, gosto quando vc elogia trump (amigo de bozo)...já sua ótica política para bozo deixa a desejar. é ordem do plim plim? https://t.co/ci3smcpro8</t>
+  </si>
+  <si>
+    <t>a culpa é do trump e do bolsonaro. https://t.co/d1fdgthz75</t>
+  </si>
+  <si>
+    <t>abertura do processo divide oposição a pouco mais de um ano da eleição presidencial americana
+https://t.co/nsgvbjtjok</t>
+  </si>
+  <si>
+    <t>tudo que tem os 7 pecados capitais , se propaga na internet, o trump se elegeu assim, bolsonaro se elegeu assim</t>
+  </si>
+  <si>
+    <t>boné da reeleição de trump mostra desprezo pela soberania, artigo 1 da constituiçao...
+https://t.co/3uxyjvzckj</t>
+  </si>
+  <si>
+    <t>então é aqui onde o trump trabalha, que interessante https://t.co/tkhfpktecp</t>
+  </si>
+  <si>
+    <t>@zeno_1972 @pt_kiko @nmenano pq esses países exportam alto valor acrescentado e criam emprego de alta qualificação, aí a classe média beneficia sempre e vê os ordenados aumentar logo a média sobe. é que acontece nos estados unidos e reino unido não é por acaso que o trump e outro nabo inglês ganhou eleições.</t>
+  </si>
+  <si>
+    <t>@caioblinder trump faz o que bolsonaro fez no brasil com inpe e outros institutos de pesquisa</t>
+  </si>
+  <si>
+    <t>@gugachacra todo mundo querendo tirar uma casquinha do bolsonaro... aí aí...macron será o cabo eleitoral de bolsonaro, já vi esse filme  ...macron é um bosta, um nada.. bastou o trump da um chega pra lá nele.. ficou todo pianinho</t>
+  </si>
+  <si>
+    <t>@gui_outeiro tenho amigos democratas (boa sorte achando amigo republicano na california...rsrs😅😂) que votaram 2x em obama e em 2016 votaram trump pq hillary nem pensar.</t>
+  </si>
+  <si>
+    <t>isto é surreal https://t.co/l0xzq599mf</t>
+  </si>
+  <si>
+    <t>@xadrezverbal @thehill era a demissão do secretário do trump. ué.</t>
+  </si>
+  <si>
+    <t>jornais de goiânia – polícia de hong kong lança gás lacrimogêneo em meio a confrontos; manifestantes apelam a trump https://t.co/undoqdlgtp https://t.co/nylcotejom</t>
+  </si>
+  <si>
+    <t>o presidente donald trump disse hoje que seu governo está conversando com muitas pessoas sobre a possibilidade de estender o status de proteção temporária, concedido a pessoas que não podem retornar com segurança a seus países, a imigrantes das bahamas atingidas pelo furacão.</t>
+  </si>
+  <si>
+    <t>o twitter era um lugar melhor antes de trump e bolsonaro</t>
+  </si>
+  <si>
+    <t>donald trump e chrissy teigen. troca de insultos incendeia o twitter https://t.co/tor3glksc4</t>
+  </si>
+  <si>
+    <t>@adalmiroandrade @lu4lencar @jeremyjr379 @lucasberti e é por isso que a gente não fica amiguinho de um só. quanto mais aliados, mais poder de barganha. na primeira necessidade o trump abandona e aí?
+pelo menos estamos exportando 3 caminhões de abacate ao ano para argentina.</t>
+  </si>
+  <si>
+    <t>@cgabigol @lb4rb0sa @felipeneto @ctorsoares a alemanha não tem nem constituição. e grande parte dos países usam comon law, q são decisões judiciais por casos semelhantes e não leis impostas! kkkkk
+e o trump cortou um monte de regulação e isso criou um monte de emprego e melhorou a economia lá!</t>
+  </si>
+  <si>
+    <t>@anderylrs @joaquinshow @breitbartnews foi jogo de cena do trump e bannon, assim o bannon pode agir livremente com the movement.</t>
+  </si>
+  <si>
+    <t>microsoft defende huawei e chama trump de 'antiamericano' https://t.co/mul3jba6en https://t.co/otdlzxzynt</t>
+  </si>
+  <si>
+    <t>presidente da microsoft ao lado da huawei: trump está a ser injusto https://t.co/tdgm7y13ys https://t.co/mbe8jnk7or</t>
+  </si>
+  <si>
+    <t>@folha esquerdopatas no mundo inteiro só sabem passar vergonha dale neles trump 😂😂</t>
+  </si>
+  <si>
+    <t>aeee!! tem q tacar o pau nesse escroto @jairbolsonaro q tá brincando  de ser presidente.
+nem o trump faz um papel vergonhoso desse 
+já passou da hora dele sair só poder, por bem ou por mal https://t.co/fxymbcllcm</t>
+  </si>
+  <si>
+    <t>eua: democratas tentam novamente processo de impeachment de trump https://t.co/ghrtlx1vqc https://t.co/t9mxmvvmhs</t>
+  </si>
+  <si>
+    <t>@chockada pronto, nesse caso eu só não iria falar nada. nesse contexto específico em que ele parece ter uma adoração pelo trump, seria muito difícil mudar a opinião dele em uma discussão de internet. teria que ser uma discussão bem extensa.</t>
+  </si>
+  <si>
+    <t>@gen_heleno meu general o objetivo desta ‘extrema imprensa’ nos já sabemos , acho que temos que fazer igual ao trump não de entrevista para este pseudos jornalista</t>
+  </si>
+  <si>
+    <t>"assim a gente muda as pessoas" muda nada, só dá a desculpa "eu passei a semana com 5 caras gays" (oq ele falou 30 vezes) enquanto vai votar em trump</t>
+  </si>
+  <si>
+    <t>"não aceito pró-trump e aproveitador". o que mais me surpreende é que ela fez sexo com 50 homens que não votaram no trump. 
+maravilhosa. https://t.co/5bgbmp8ynm</t>
+  </si>
+  <si>
+    <t>eles acham que ganharão  , pois estão  enganados , estou apoiando o trump até  2025 , os democratas foram corrompidos , entraram na corrupção  ! https://t.co/nueko3cj2z</t>
+  </si>
+  <si>
+    <t>@uvichier só do trump</t>
+  </si>
+  <si>
+    <t>@emrcanelas para mim o pior é o donal trump</t>
+  </si>
+  <si>
+    <t>@nadhia_nadin @vastarwave @uvichier @bordinvania o valor era maior do que o próprio governo disponibilizou para combater os incêndios. 
+e tem mais, qualquer ajuda é bem vinda. 
+vira-lata é o ser que vcs chamam de presidente. cadelinha do trump e dos eua.</t>
+  </si>
+  <si>
+    <t>@dadourado é o nosso hillary v trump. no sentido de q la tambem ouve um racha no campo progressista (la hillary v sanders) q complicou vencer a direita (q apelou para o grotesco la e ca).</t>
+  </si>
+  <si>
+    <t>o cara chega no posto de presidente sem saber ou ligar pro mínimo de educação básica necessária pra qualquer cargo. ninguém vai entender mesmo. até o trump, que é um completo jumento, sabe que nesse espaço não dá pra ficar sendo moleque</t>
+  </si>
+  <si>
+    <t>@o_jurunense lá vai o pt elegendo neonazistas ao redor do mundo.
+já não bastava trump, bolsonaro, salvini, orbhan...?</t>
+  </si>
+  <si>
+    <t>e pensar que o trump fez negócios ilícitos com maduro https://t.co/lnxyhrgbw3</t>
+  </si>
+  <si>
+    <t>@jairmearrependi fico imaginando o trump dando boas risada do filhinho bastardo jairzinho aprontando essas peripécias</t>
+  </si>
+  <si>
+    <t>@carlosrios2013 @jaodro @conjur_oficial qual a dificuldade em ler a matéria? a “lei” é a constituição. minha opinião, com base na lei de acesso à informação e à constituição e em duas decisões nos eua contra trump.</t>
+  </si>
+  <si>
+    <t>pessoal querendo impeachment do trump</t>
+  </si>
+  <si>
+    <t>@o_antagonista a grosseria é cultura do blog, n sabem escrever sem ofender? vai ser lindo ver macri perder e depois trump, só p ver os "liberais" q defendem censura e cpmf sem chão.</t>
+  </si>
+  <si>
+    <t>"israel e os gigantes asiáticos se aproximam, enquanto o governo trump aumenta a pressão para frear a aproximação" https://t.co/ih6nxiuf2y</t>
+  </si>
+  <si>
+    <t>@uolnoticias só sobraram trump e netanyahu.
+mas parece que ano que vem trump também cairá fora.
+bolsonaro ficará isolado.</t>
+  </si>
+  <si>
+    <t>já tem capitalismo, bolsonaro, trump, desemprego, o mundo acabando, uma caralhada de coisa pra deixar a gente na miséria
+e vc vai abrir mão do único sentimento bom que independe de tudo isso porque uma pessoa ruim te magoou?</t>
+  </si>
+  <si>
+    <t>@realdonaldtrump #trump is corrupt #corrupttrump #impeachtrumpnow https://t.co/d6jw9xhiuf</t>
+  </si>
+  <si>
+    <t>exposição de charges com bolsonaro lambendo botas de trump é suspensa no rs https://t.co/ire1it2wqb</t>
+  </si>
+  <si>
+    <t>@pedro12016731 trump está ocupado tentando arranjar uma guerra que garanta sua reeleição.</t>
+  </si>
+  <si>
+    <t>eu odeio trump
+pau no cu do kanye west da bahia
+o produto que eles querem
+um preto gourmetzado que se esconde atrás da cor da pele
+#vandaldeverdade</t>
+  </si>
+  <si>
+    <t>mick jagger fez duras críticas às políticas ambientais de donald trump e jair bolsonaro durante o festival de cinema de veneza, no sábado, 7. "é uma situação muito difícil nos eua, todos os controles ambientais foram tão revertidos pelo atual governo que estão sendo eliminados." https://t.co/ckkw4bs1p6</t>
+  </si>
+  <si>
+    <t>ta­le­ban ameaça eua após re­cuo de trump (o estado de s. paulo), 09 de set de 2019 https://t.co/ha0yaszera</t>
+  </si>
+  <si>
+    <t>@sofomaniaco @samiabomfim se uma pessoa que elogia e idolatra o bolsonaro e o trump me acha burra, vou levar isso como elogio!!! ❤️❤️❤️</t>
+  </si>
+  <si>
+    <t>vamos aos fatos.
+macron é um imbecil e covarde, além dos franceses explorarem a amazônia há anos, este fedido quer boicotar o agronegócio brasileiro.
+angela merkel não quis se indispor com o brasil, mesmo depois do "refloresta a alemanha".
+quem é macron perto de trump?</t>
+  </si>
+  <si>
+    <t>qq o parsons falou? — parsons e o merritt são pró trump k https://t.co/jvfz216wn3</t>
+  </si>
+  <si>
+    <t>@alderiex @bolsonarosp eua de trump? hahaha</t>
+  </si>
+  <si>
+    <t>@lilianmgmota @mariofla95 @uolnoticias “nosso país”  kkkkkkkkkk mas ele tá entregando o brasil e cu ao trump né? bando de anta.</t>
+  </si>
+  <si>
+    <t>@exame jä saiu o salvini,vai sair o macri e breve será o trump,deus é pai...</t>
+  </si>
+  <si>
+    <t>@folha bolsonaro sente orgulho de ser o cachorro do trump e ser odiado pelo resto do mundo, sabe em que isso favorece o brasil? em nada! quem discorda nunca viu como as relações comerciais entre os dois países sempre favoreceu só o tio sam e quando não favorece eles tramam pra favorecer https://t.co/jt8nhqesxi</t>
+  </si>
+  <si>
+    <t>eua removeram fonte secreta da rússia por questões de segurança sob trump https://t.co/0cbkia5b0u https://t.co/bbid6z31yn</t>
+  </si>
+  <si>
+    <t>@eleonmoraes o único que conseguiu isso foi trump, ele tá ferrado nas mãos dela, pois ela sabe falar com o eleitor dele.
+https://t.co/syctdpdtfu</t>
+  </si>
+  <si>
+    <t>@hbredda acredito que china tem demanda pra desenvolver, acho que faz sentido a infraestrutura massiva que o chinês menciona. com relação ao usa... não sei dizer se está ocioso... mas trump tem um longo caminho até as eleições pra segurar o mercado...</t>
+  </si>
+  <si>
+    <t>mick jagger e sutherland criticam bolsonaro e trump em festival https://t.co/57nn3uzctc</t>
+  </si>
+  <si>
+    <t>@alavid2 @mafinha_veron pergunta para este monte de otários que estão  reclamando de termos chamado a mocréia de feia se eles preferem ela ou a melanie trump..e vejamos o que eles respondem...rs</t>
+  </si>
+  <si>
+    <t>quer saber como ser antifrágil, como bolsonaro e trump, na política? 
+fale com a gente.</t>
+  </si>
+  <si>
+    <t>parabéns, méxico!
+trump comprovando mais uma vez que todo mundo precisa de uma forcinha para poder cooperar. foi os eua falar em sanções que de repente o méxico viu que dava para impedir o fluxo de ilegais para a fronteira americana. https://t.co/q1ge13ghty</t>
+  </si>
+  <si>
+    <t>@uttfla trump já tinha alertado, ninguém quis ouvir</t>
+  </si>
+  <si>
+    <t>@moiribeiron @bolsoneas sim, grande trabalho patriótico para os eua. entregaram a embraer e querem entregar a base de alcântara, o pré-sal e a petrobras. além de lamberem as botas do donald trump com acordos humilhantes para o brasil.</t>
+  </si>
+  <si>
+    <t>não choca não, gente!!!
+trump ganhou nos eua, o bozo no brasil e pra quem assistiu: ele está de volta, sabe que infelizmente, tem muita gente na alemanha que é a favor de hitler e apoia ele...
+nada mais que venha de merda da raça humana me assusta, infelizmente! https://t.co/ey9bpzysfr</t>
+  </si>
+  <si>
+    <t>@jairbolsonaro jaiminho carteiro =bozo
+dona clotilde = michele
+chiquinha = carluxo
+quico=eduardo mamãe 😭
+godines flávio
+seu barriga = trump cobrando aluguel
+professor girafales= haddad</t>
+  </si>
+  <si>
+    <t>democratas dão mais um passo na tentativa de impeachment de trump - istoé independente https://t.co/vfiiqy0lwr</t>
+  </si>
+  <si>
+    <t>vei eu devo ter falado do trump umas 2 vezes nessa porra de site e o garoto dizendo que eu sou obcecada pq disse q o trump parece um salmão ??? hoje meu pai</t>
+  </si>
+  <si>
+    <t>eheheheheh
+não foi o trump??? https://t.co/rcldokjm0e</t>
+  </si>
+  <si>
+    <t>@lilianmgmota @mariofla95 @uolnoticias só entrega para o trump, né?! aushsudj esse povo é engraçado.</t>
+  </si>
+  <si>
+    <t>@marleneffl e o guga da globo news falou que o trump não tá nem aí pro brasil rsrsrsrs</t>
+  </si>
+  <si>
+    <t>@jordanfarialima o bolsonaro mandou o presidente da frança praticamente ir se foder, chamou a mulher de feia, e ainda ganhou a disputa no g7. 
+kkkkkkkkkkk trump 2.0</t>
+  </si>
+  <si>
+    <t>um tuite do pence escrito pelo trump... https://t.co/wyhuwrrt5f</t>
+  </si>
+  <si>
+    <t>@agentevans @dylanobrien @chrisevans imagina os dois sentados militando em cima do trump pqp vai ser a coisa mais linda do mundo</t>
+  </si>
+  <si>
+    <t>@o_antagonista @jairbolsonaro @igorgadelham @revistacrusoe ele pediu autorização para o trump?</t>
+  </si>
+  <si>
+    <t>#fechadocomoceni e com quem mais for preciso. que caia até o trump, mas o cruzeiro não pode de maneira nenhuma 😡🦊</t>
+  </si>
+  <si>
+    <t>6,2 milhões de americanos desistem do “bolsa família” na era trump.👏👏👏 https://t.co/heiyhd3aqz</t>
+  </si>
+  <si>
+    <t>o #trump é danato para a brincadeira</t>
+  </si>
+  <si>
+    <t>@marialm44488152 @gugachacra @realdonaldtrump engraçado, o seu mundo se resume ao trump?</t>
+  </si>
+  <si>
+    <t>@gugachacra guga se lambusa nessas noticias, é muita felicidade no coração. mas quando é uma notícia boa do governo, cai para as notícias de esporte. trump se reelege aí no usa. abs ✌🏻️</t>
+  </si>
+  <si>
+    <t>@adriano27091778 @uol trump tá nem aí pro brasil e pro bozo meu filho, acorda</t>
+  </si>
+  <si>
+    <t>lógico q haddad, lula e pt ovacionados em evento q ciro arrivista tava presente e a pesquisa q deu q haddad hj venceria trump bananeiro, iria ligar o sinal de alerta no arrivista e sua gente pra retornarem alvo no pt. pro objetivo do arrivista, haddad não pode continuar crescendo</t>
+  </si>
+  <si>
+    <t>@oglobopolitica @bolsonarosp ele acha que está  no texas de trump.
+gado aqui e acolá! 🐄</t>
+  </si>
+  <si>
+    <t>trump comprova que alguns só precisam de uma "forcinha" para cooperar. bastou os eua falar em sanções, que o méxico percebeu que consegue impedir o fluxo de ilegais na fronteira!
+méxico reduz em 56% migração para os eua e espera fim da ameaça de sanções 
+https://t.co/22qwfn8qjj</t>
+  </si>
+  <si>
+    <t>os minions falando que não são colônia da frança mas só falta lamber as botas do trump</t>
+  </si>
+  <si>
+    <t>@veramagalhaes aposto que mora com os pais e passa o dia na internet causando muito. mesma estirpe dos eleitores do “mito” e do trump.</t>
+  </si>
+  <si>
+    <t>jp morgan cria índice "volfefe" para captar efeito dos tuítes de trump no mercado
+https://t.co/grr7kpridy</t>
+  </si>
+  <si>
+    <t>@pcypesado apoio o canadá pnc do trump</t>
+  </si>
+  <si>
+    <t>@folha e assim trump vai sair dessa fazendo piada
+ele vai fazer disso um show</t>
+  </si>
+  <si>
+    <t>cc to cpvoooo https://t.co/cxu1quoghp</t>
+  </si>
+  <si>
+    <t>@gugachacra raros aliados?! 😂😂
+donald trump e benjamim netanyahu mandam lembranças. pseudo-jornalista!</t>
+  </si>
+  <si>
+    <t>@gugachacra que o cara é um brucutu, isso ninguém duvida. porém, era ele ou fernando haddad. 
+fica complicado desse jeito... cada presidente tem o seu problema no quintal de casa, macron, merkel, trump também cometem suas "truculências", num grau menor, revestidas.</t>
+  </si>
+  <si>
+    <t>vejam o thread. trump falando que a mídia quer criar confusão e atrito entre os integrantes do governo. diz que a mídia planta mentiras, e são um braço da esquerda. alguma semelhança com o brasil? https://t.co/zcpcfesmom</t>
+  </si>
+  <si>
+    <t>trump volta atrás e permite que empresas voltem a vender para a huawei % url%</t>
+  </si>
+  <si>
+    <t>queria saber qual foi a merda que os dinossauros fizeram, eles bem mais daora que a gente, não elegiam trump e bolsonaro e mesmo assim foram exterminados por um meteoro...</t>
+  </si>
+  <si>
+    <t>🇧🇷 o presidente @jairbolsonaro
+não deve dá importância, afinal o trump já se posicionou sobre assunto.
+"vídeo mostra macron falando de bolsonaro a piñera e merkel: 'não é atitude de um presidente'"  https://t.co/leykaoyfn2</t>
+  </si>
+  <si>
+    <t>@adriano27091778 @uol o único lado que o trump tá é o dele, querido. acorda pra vida</t>
+  </si>
+  <si>
+    <t>@gugachacra até agora ele não engoliu não ter conseguido enganar o mundo para uma intervenção na amazônia. posto em seu devido lugar pelo trump, só resta ao macron espernear com raivinha e ir chorar no colo de sua esposa-mamãe. trata-se de um narcisista sem cura.</t>
+  </si>
+  <si>
+    <t>jr o trump consegue chocar sp um gajo</t>
+  </si>
+  <si>
+    <t>@sandraf16584305 @o_antagonista amiga tirar foto apartando a mão é a norma pra chefe de estado. há menos de 3 meses tava lá o trump rindo a beça com o kim jong-un, cada um com um detonador nuclear no bolso</t>
+  </si>
+  <si>
+    <t>mick jagger e sutherland criticam bolsonaro e trump em festival https://t.co/fkcrg1xzca</t>
+  </si>
+  <si>
+    <t>o trump dele estar agradecido que o brasil achou um presidente tão idiota quanto ele pq o bolsonaro faz tanta merda que o resto do mundo se concentra nele e esquece do trump</t>
+  </si>
+  <si>
+    <t>pelo amor de deus...não! se o imbecil palhaço trump 'se envolver' no diálogo entre rússia e ucrânia vai dar merda de novo! por favor trump, vai recosturar tuas pregas anais e deixa rússia e ucrânia resolverem seus próprios problemas em paz... caralho!</t>
+  </si>
+  <si>
+    <t>@folha acelera essa porra aí!
+trump tem que cair pro biroliro cair também e o país parar de ser destruído.</t>
+  </si>
+  <si>
+    <t>bringo. https://t.co/ihv2xvajns</t>
+  </si>
+  <si>
+    <t>@bumbameubode fiz uma piada falando que o slipknot não vinha porque o corey taylor é anti trump o cara levou a sério........</t>
+  </si>
+  <si>
+    <t>estivessem torcendo para o avião cair". isso não faz o menor sentido. o brasil nunca ouviu tantas verdades da boca de um presidente, e, para alguns, isso é difícil de engolir. o caso brasileiro é único no mundo. é muito maior do que o brexit, é gigante perto da eleição de trump.</t>
+  </si>
+  <si>
+    <t>@opropriolavo @bolsonarosp e vive na terra do presidente mais educado do mundo donald trump.</t>
+  </si>
+  <si>
+    <t>@uvichier olha aqui gente uma cadélonario do trump #forabol卐onaro</t>
+  </si>
+  <si>
+    <t>@carloscastrosth @pradolaz @lulaoficial infelizmente o exército brasileiro cagou-se de medo de invadir a venezuela a mando do trump. teríamos nos livrado de um bando de covardes, que zurram sobre a situação política do país.</t>
+  </si>
+  <si>
+    <t>dória se adonou do psdb tipo o trump com o p. republicado, neh? https://t.co/fth7yuvjfx</t>
+  </si>
+  <si>
+    <t>blog do zé luís: trump interrompe negociações de paz com o talibã https://t.co/cadvw29obn</t>
+  </si>
+  <si>
+    <t>bolsominions: ai pq num sei o que soberania do brasil não nos ajoelharemos ao g7
+also bolsominions: 🇺🇸🇺🇸🇺🇸🇺🇸🇺🇸 eua e trump vocês querem o mundo???? eu te douu!!! 👉🏼😎👉🏼</t>
+  </si>
+  <si>
+    <t>pastores ligados a trump chegam ao brasil para iniciar estudos bíblicos no congresso https://t.co/daziiyhbja</t>
+  </si>
+  <si>
+    <t>@ccherryfatale sim! e não para por aí: ele apoiou o governo trump e falou mal do obama e da michelle. logo após isso, ele foi parar no hospital por estresse e ficou internado por uns dias.</t>
+  </si>
+  <si>
+    <t>trump descarta negociações com talibã https://t.co/3kpio7hif9</t>
+  </si>
+  <si>
+    <t>alguem tira a rihanna do lado desse merda do trump, pls https://t.co/iwsvgifp51</t>
+  </si>
+  <si>
+    <t>@danilofern_ @gugachacra o trump é esperto, e tá usando muito bem seu lacaio bolsonaro.</t>
+  </si>
+  <si>
+    <t>bravo  https://t.co/wlxwgvtqz0</t>
+  </si>
+  <si>
+    <t>trump não mandou tocar o hino nacional brasileiro na times square, em nova york. leia mais em: https://t.co/rwwqqppiew via aos fatos | em busca da verdade na política. #fakenão #fakenews #factcheck #checkbr #sermultimidia</t>
+  </si>
+  <si>
+    <t>assim se constrói uma lenda.
+diz p mim...trump,puchin,bolsonaro etc...vocês já conheceram alguém realmente honesto? eu sim!!!!!!!!!meu pai!!!!!!!!!</t>
+  </si>
+  <si>
+    <t>só sobraram trump e netanyahu.
+mas parece que ano que vem trump também cairá fora.
+bolsonaro ficará isolado. https://t.co/lpyjgltm4o</t>
+  </si>
+  <si>
+    <t>@shellenbergermd @gugachacra 
+@caioblinder 
+@andretrig 
+vamos comentar a esquerda fofa opositora do trump trabalhando para melhorar a vida do cidadão?
+desafio...</t>
+  </si>
+  <si>
+    <t>trump se diz pronto para ‘se envolver’ no diálogo entre rússia e ucrânia https://t.co/ilrb0uchlo</t>
+  </si>
+  <si>
+    <t>poxa trump :((( 
+#askfandoms https://t.co/zomm7fixpa</t>
+  </si>
+  <si>
+    <t>@gxbrael eu amo esse shade
+trump pq choras?</t>
+  </si>
+  <si>
+    <t>o john legend afrontando o trump 😂😂😂😂😂😂
+maravilhoso demais 😂😂👏🏼👏🏼👏🏼 https://t.co/pcdemqwezn</t>
+  </si>
+  <si>
+    <t>@loveyourselfplx falando mal do trump. eu preciso disso na minha vida levy.</t>
+  </si>
+  <si>
+    <t>matou o trump https://t.co/ufzwzfquap</t>
+  </si>
+  <si>
+    <t>@cooler_brian @lilianmgmota @depaivale @mariofla95 @uolnoticias ahhahahahaha mas quanta ingenuidade senhoooor. ta virando quintalzinho e mão de obra barata do trump e acha que o inimigo é o outro lá!! precisa ler dom quixote, cada moinho de vento vc vai identificar um inimigo diferente kkkkkk</t>
+  </si>
+  <si>
+    <t>assista a "erro fatal! macron tralu trump e negocia com lrã" no youtube https://t.co/vqxes5ufoy</t>
+  </si>
+  <si>
+    <t>trump diz que conversas de paz no afeganistão 'estão mortas' https://t.co/z5tnn6cl4q</t>
+  </si>
+  <si>
+    <t>@hugogloss tenho a impressão que o trump fica o dia inteiro de cueca assistindo televisão no sofá e olhando o twitter...</t>
+  </si>
+  <si>
+    <t>@mundodeandy completamente isolados internacionalmente e  a mercê dos eua. trump deve estar rindo...</t>
+  </si>
+  <si>
+    <t>a chrissy e o john ontem depois dos tweets do trump https://t.co/mz8xr3y1bt</t>
+  </si>
+  <si>
+    <t>"pentágono disponibiliza bilhões de dólares para construir o muro de trump
+o secretário de defesa do estado imperialista ianque, mark t. esper aprovou, no... https://t.co/ofh0ohxfhe</t>
+  </si>
+  <si>
+    <t>@estadao devo mencionar q lá morrem por poluição? q existem "bairros do câncer"? q sequestram crianças para tráfico de órgãos?q não existe democracia? trump está corrigindo a balança comercial, essa falácia de q comunismo dá certo vai acabar.</t>
+  </si>
+  <si>
+    <t>trump defende restrições à entrada de sobreviventes do furacão dorian. “bahamas têm pessoas muito más” https://t.co/ll428iqhta #aparcomomundo</t>
+  </si>
+  <si>
+    <t>@lilianmgmota @mariofla95 @uolnoticias só vai entregar se for pros eua. daddy trump</t>
+  </si>
+  <si>
+    <t>tem uma coisa muito daora que o john mulaney fez que eu admiro horrores eh que ele fez uma metáfora falando do trump na presidência como se ele fosse um cavalo solto dentro de um hospital
+e é muito genial o jeito que ele fala</t>
+  </si>
+  <si>
+    <t>@cachuchosr @inconseguir trump explicará isso num gráfico , ele é bom nessa coisas</t>
+  </si>
+  <si>
+    <t>@gensantoscruz @blogdonoblat plano: fazer o que o trump mandar. https://t.co/kwn408wbkm</t>
+  </si>
+  <si>
+    <t>@adriano27091778 @uol o trump não tá do lado de ngm. kkkkk</t>
+  </si>
+  <si>
+    <t>@camixx12 trump=bolsonaro. gente esquisita aqui também tem, único agravante aí é a comida né, ninguém merece.</t>
+  </si>
+  <si>
+    <t>trump visita aliada e eurocética polônia no 80º aniversário da invasão nazista https://t.co/ibcxb1ayuw :auto pickup by wikyou</t>
+  </si>
+  <si>
+    <t>nacionalismo do governo bolsonaro: uma farsa para tolos, uma farra para trump!!! https://t.co/wjhtinzs9f</t>
+  </si>
+  <si>
+    <t>@mauestevez provavelmente ! mas os democratas sempre fizeram um bom governo na américa ! o trump está ficando queimado com as decisões que toma e depois volta atrás , como se ele fosse dono do mundo !</t>
+  </si>
+  <si>
+    <t>@gugachacra @globonews @marcelolins68 @andrefran @leilasterenberg esse cara nao querem democracia nem com obama ,trump  ou qualquer outro</t>
+  </si>
+  <si>
+    <t>o john legend e a chrissy teigen brigando com o trump é mt engraçado #presidentpussyassbitch</t>
+  </si>
+  <si>
+    <t>@forat4mer @maurovs @quarti_sandra @uolnoticias incompetência diplomática não passa de mera opinião minha cara!! donald trump diariamente sofre as mesmas críticas pelos seus adversários assim como obama também sofria. acredita um pouquinho mais no teu país que não estarás errada. e muita calma para não prejudicar o coração!!!</t>
+  </si>
+  <si>
+    <t>@zueraofwwe @jairbolsonaro bolsonaro se diz amigo do trump. trump é amigo do vince. estamos tão perto, mas, tão longe...</t>
+  </si>
+  <si>
+    <t>@jornaloglobo bolsonaro adoraria ser o presidente do irã...menos o fato do irã ser inimigo do trump</t>
+  </si>
+  <si>
+    <t>bolsonaro ajuda fazendeiros de trump e compra etanol americano mesmo sem taxa de isenção  https://t.co/axpcvtfs2b</t>
+  </si>
+  <si>
+    <t>o presidente levantou a moratória federal de 2014 sobre a pena de morte, aumentando os riscos de um cidadão ser condenado https://t.co/n6oyynmunb</t>
+  </si>
+  <si>
+    <t>2- sabemos que o méxico atualmente é governado pela extrema-esquerda, inclusive o presidente mexicano não tem simpatia alguma pelo seu governo e do trump, certo?</t>
+  </si>
+  <si>
+    <t>será que esse processo de impeachment do trump vai pra frente?  https://t.co/ymczqiw0ay</t>
+  </si>
+  <si>
+    <t>jpmorgan cria índice de volatilidade com base em tuítes de trump https://t.co/gxhwdxsu9r</t>
+  </si>
+  <si>
+    <t>@anapaulavolei e ainda estão falando em impeachment de trump????
+se tentarem, vai ser outra secessão nos eua...  absurdo</t>
+  </si>
+  <si>
+    <t>trump usa brecha para levar pena de morte a estados que proíbem execuções https://t.co/m7fq34zkmj https://t.co/bblpvos7yl</t>
+  </si>
+  <si>
+    <t>o trump é o representante perfeito dessa gente xenofóbica dos eua</t>
+  </si>
+  <si>
+    <t>no último fim de semana, o talibã assumiu a autoria de um ataque que matou um soldado americano. https://t.co/zunwipotwj</t>
+  </si>
+  <si>
+    <t>erro fatal! macron tralu trump e negocia com lrã https://t.co/bdakpsw9au via @youtube</t>
+  </si>
+  <si>
+    <t>alguns meios de comunicação, repórteres e analistas ridicularizaram trump por alertar os moradores do alabama. https://t.co/yhziwaf2et</t>
+  </si>
+  <si>
+    <t>@guibreaking @eunataliatelles bolsonaro só fala na frente de mulher! gosta de mandar recado pela imprensa para outros líderes e lambe a nota do trump</t>
+  </si>
+  <si>
+    <t>como dizia trump: #askfandoms</t>
+  </si>
+  <si>
+    <t>muro do trump em sp https://t.co/w8tvjg6552</t>
+  </si>
+  <si>
+    <t>@amandafaudi @demori trump aconteceu!</t>
+  </si>
+  <si>
+    <t>@frulanis trump bananeiro 😂😂😂😂👏👏👏</t>
+  </si>
+  <si>
+    <t>em o cerco, o jornalista mergulha novamente no caótico e imprevisível governo de donald trump – que agora, ainda mais isolado, insiste nos mesmos erros de sempre
+https://t.co/uxmy73pzs7</t>
+  </si>
+  <si>
+    <t>não basta ser um dos homens mais importantes do mundo, é também um tuiteiro  #seudinheiro #trump #jpmorgan #twitter https://t.co/ahy1uuadhc</t>
+  </si>
+  <si>
+    <t>saber que minha tia evangélica esculhamba o jair e o trump na frente do esposo evangélico bolsominion dela = 🥰🥰🥰</t>
+  </si>
+  <si>
+    <t>erro fatal! macron tralu trump e negocia com lrã https://t.co/icbvmos4an via @youtube</t>
+  </si>
+  <si>
+    <t>eu fico chocado como os minions realmente acreditam que o trump ficaria contra a frança e alemanha pelo bonossauro kkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkk</t>
+  </si>
+  <si>
+    <t>@fal_simoes @lucasberti kkkkk rapaz, que passa pano mal feito! então a bajulação só pode ser com os eua, ue finge não enxergar as asneiras do presidente?! quero ver o que falarão quando trump se cansar e soltar uma contra o biroliro!</t>
+  </si>
+  <si>
+    <t>@fpl7tsch @educardinal eu apoio eduardo na embaixada eua, trump está fazendo um belo trabalho contra a pedofilia, a damares foi há algum tempo atrás para os eua (tenho convicção para tratar tb deste assunto), no caso epstein, se puxar o fio tem muita gente conhecida/"importante" c/ vínculo na pedofilia https://t.co/uqigbzs8af</t>
+  </si>
+  <si>
+    <t>se trump pode usar o twitter pra falar merda, eu tbm posso #pas</t>
+  </si>
+  <si>
+    <t>@g1 macron é um moleque...trump mandou ele fechar a boca...pedir desculpas ao brasil... tá sem moral na própria frança...😂😂😂😂😂😂😂😂😂
+https://t.co/em263hhqu3</t>
+  </si>
+  <si>
+    <t>@brendasafra trump é laranja pô</t>
+  </si>
+  <si>
+    <t>“meteorologistas foram avisados para não contradizerem donald trump” https://t.co/vkvmsexm21</t>
+  </si>
+  <si>
+    <t>@mauestevez trump está com medo de perder a presidência ! foi eleito por redes sociais , as mesmas vão acabar c ele !</t>
+  </si>
+  <si>
+    <t>dilma,ex-presidenta dos petistas,...num 7 de setembro mandou dividir a esplanada com uma cerca "estilo trump" configurando o nós x eles .... nada igual se viu no ultimo dia 7/9 e só o q vimos foi o veneno destilado pela mídia comprada contra o pobre menino.seguimos !</t>
+  </si>
+  <si>
+    <t>@estadao esperando o gado vim reclamar da tal soberania sendo que o bolsonaro chupa as bolas dos eua e trump kkkkkk aiai ele ataca a mulher dele e ainda querem tirar a razão do cara ata</t>
+  </si>
+  <si>
+    <t>@oglobopolitica @bolsonarosp entrou assim p falar com o trump tb? seria interessante o resultado.</t>
+  </si>
+  <si>
+    <t>o que acabei de descrever é basicamente o episódio do copo de leite da alt right americana. nazistas cuspiam leite enquanto defendiam trump? apoiadores de trump passaram beber leite alegando que tudo não passava de trollagem. https://t.co/uxskayy0at</t>
+  </si>
+  <si>
+    <t>@soulscritico @blogayra_ariana @emanuelmm93 @manueladavila putaqpariu caralho.. imbecil que colocou o brasil foi o trump. feliz isso pelo bolsonaro. estuda porra. pt era contra. sempre foi.</t>
+  </si>
+  <si>
+    <t>@estadao demora o trump enjoa do cachorrinho também</t>
+  </si>
+  <si>
+    <t>tasso jereissati: "acho a comparação de minha eventual candidatura com a de donald trump completamente descabida".</t>
+  </si>
+  <si>
+    <t>estás ideias só de um louco como trump... https://t.co/ce4euoijbn</t>
+  </si>
+  <si>
+    <t>@uol quem precisa de um macron quando contamos com trump.
+chora gentalha 
+chora esquerdalha.</t>
+  </si>
+  <si>
+    <t>@renataagostini há um distanciamento evidente do planalto com a institucionalidade e a liturgia da posição. é "em linha" com a conduta de trump, mas as posições jamais serão comparáveis. há uma sucessão de ruídos desnecessários, que eventualmente ofuscam uma agenda positiva relevante em curso!</t>
+  </si>
+  <si>
+    <t>trump descarta negociações com talibã https://t.co/gceygb8vdg</t>
+  </si>
+  <si>
+    <t>trump surpreende todos e ora por bolsonaro e pelo brasil https://t.co/gycg7wktmm</t>
+  </si>
+  <si>
+    <t>como é possível bestas destas serem presidentes dos eua? https://t.co/hvacmytyxr</t>
+  </si>
+  <si>
+    <t>após ataques pessoais de #donaldtrump contra #chrissyteigen, a artista rebateu as críticas e mandou resposta na lata para o presidente
+https://t.co/jvicllstei</t>
+  </si>
+  <si>
+    <t>bolsa já deu 3x em dólares desde janeiro de 2016. e não faltaram escândalos políticos internos, preocupações e medos. lá fora tivemos eleição do trump, brexit, tradewar... não faltarão preocupações.
+.
+onde será o… https://t.co/ycx7toaifn</t>
+  </si>
+  <si>
+    <t>fui conhecer um amiguinho da internet e ele me perguntou se sou da família do trump, não entendi gente</t>
+  </si>
+  <si>
+    <t>@danielfacesken @arigonizer @uol exatamente o que a anta do seu presidente faz com o trump. lambe botas do caralho!</t>
+  </si>
+  <si>
+    <t>@erikakokay macron seu país acabou com as terras onde vcs colonizaram e agora quer acabar com os países dos outros , vai tomar chumbo do trump , espere.</t>
+  </si>
+  <si>
+    <t>@ailtonbenedito bolsonaro mentiu ter políticas de sustentabilidade,p/obter acordo c/união europeia.fatos vem a tona,chamado de mentiroso por macrom,que é retrucado c/ofensas e acusação de interferir na soberania.
+ae trump diz querer cuidar da amazônia junto c/brasil,ae não é afronta a soberania?</t>
+  </si>
+  <si>
+    <t>meu vô vindo falar cmg sobre o trump 🤮🤮🤮🤮</t>
+  </si>
+  <si>
+    <t>será um erro do governo brasileiro criticar ou fazer ataques à chapa de oposição a macri que lidera as pesquisas para as eleições de outubro na argentina. e é um erro vincular as nossas relações com os eua a trump. governos vão. os estados ficam. 
+aqsjr</t>
+  </si>
+  <si>
+    <t>@boscardin trump deve ficar vendo essas coisas e dar gaitaida no salão oval kkk</t>
+  </si>
+  <si>
+    <t>trump surpreende todos e ora por bolsonaro e pelo brasil https://t.co/yvkiadaiuv</t>
+  </si>
+  <si>
+    <t>amanhã desenvolvo mais sobre. enquanto nos digladiamos, trump bananeiro e sua gangue continuam fazendo das suas e lula continua perseguido,com moro inclusive indo onde petista tá preso pra continuar perseguição. já a figura política q sempre dividiu a esquerda, continua dividindo</t>
+  </si>
+  <si>
+    <t>@edusilvafogo falou o embaixador de trump no brasil.</t>
+  </si>
+  <si>
+    <t>colapso das negociações com o talibã revela racha no governo trump https://t.co/wr0khky9il (via @mundo_gazeta)</t>
+  </si>
+  <si>
+    <t>democratas dão mais um passo na tentativa de impeachment de trump
+https://t.co/1ylryc0jcm https://t.co/axh8aw5sey</t>
+  </si>
+  <si>
+    <t>acabei de descobrir q eu seguia a mulher do trump e o próprio....mds kkkkkkkkkkk</t>
+  </si>
+  <si>
+    <t>será que trump não consegue uma reserva la no arizona ou novo méxico. https://t.co/ztrtsru22w</t>
+  </si>
+  <si>
+    <t>trump como de costume, ora antes de começar seu dia ,na presidência, neste dia orou pelo nosso presidente @jairbolsonaro  e pelo @bolsonarosp ,deus seja glorificado ! https://t.co/png3pqfbys</t>
+  </si>
+  <si>
+    <t>microsoft defende huawei e chama trump de “antiamericano” https://t.co/9cul5adkf5</t>
   </si>
   <si>
     <t>Teste</t>
   </si>
   <si>
-    <t>@franciscalucia esse governo é pior do que qualquer um que já teve nesses  30 anos de redemocratização.
-até o collor, por pior que tenha sido, ele fez varios acordos internacionais além de liberar a importação do brasil. coisa que não existia.
-já esse palhaço.. está lambendo o saco do trump</t>
-  </si>
-  <si>
-    <t>rt @prince___007: os americanos que desaprovam a presidência de trump superam em 8% aqueles que a aprovam. (era bom que isto se mantivesse…</t>
-  </si>
-  <si>
-    <t>rt @mandineab: melanie cantando the principal // trump ouvindo
-#k12movie #kthrough12 #melaniemartinez https://t.co/akjsihmefa</t>
-  </si>
-  <si>
-    <t>rt @pslnaveia: @veja o jagger é um baita "pé frio".
-ainda bem que ele é contra o trump e o bolsonaro.
-kkkkkkkkkkkkkkkk.
-se ele ele fosse a…</t>
-  </si>
-  <si>
-    <t>rt @mdenser: a pedido de trump, o pentágono finalmente liberou 3,6 bilhões de dólares (15 bilhões de reais) para a construção de 280 quilôm…</t>
-  </si>
-  <si>
-    <t>falso moralista
-cristão de taubaté
-entreguista
-lambe botas do trump
-parasita dos infernos
-saporra é próprio pau do galinheiro https://t.co/elwudxu59t</t>
-  </si>
-  <si>
-    <t>bolsonaro é uma cadelinha do eua e o trump agradece https://t.co/axo5gfuzma</t>
-  </si>
-  <si>
-    <t>@barbaragancia @blogdopannunzio independência?discordo.já fomos independentes e hje somos colônia dos eua q vc,presidente desqualificado p/o cargo q ocupa,nos tornou.colônia,quintal do trump,outro presid despreparado.ambos só querem o poder.
-#forabolsonaro  #moroedallagnolnacadeia  #lulalivre #lulaapatrialivre</t>
-  </si>
-  <si>
-    <t>@jairbolsonaro independência sem soberania é tolice, pare de lamber as botas do trump...</t>
-  </si>
-  <si>
-    <t>@veja bem o mundo todo está contra estes vadios do trump e bolsonaro kkkkk</t>
-  </si>
-  <si>
-    <t>tem o chris que eh trump fã também https://t.co/xzz8nh1hca</t>
-  </si>
-  <si>
-    <t>@mudranger7 @eussigo @lpscomunica @gugachacra que político eu lambi saco ?
-geralmente quem fica lambendo saco de engravatado e do trump são vcs, eu quero que os políticos se fodam</t>
-  </si>
-  <si>
-    <t>@alroker via propublica
-https://t.co/6xfsefuptv https://t.co/ig8m5miccj</t>
-  </si>
-  <si>
-    <t>@guilhermeboulos logo na primeira linha, já nem disfarça mais. é uma homenagem ao brasil ou aos eua? enquanto isso, ele briga até com o papa e vai nos isolando com o trump.</t>
-  </si>
-  <si>
-    <t>a pedido de trump, o pentágono finalmente liberou 3,6 bilhões de dólares (15 bilhões de reais) para a construção de 280 quilômetros de muro na fronteira do méxico.
-15 bilhões de reais. muro. 15 bi. fronteira. muro.</t>
-  </si>
-  <si>
-    <t>@veja vixi jagger? torcendo contra  é tudo que faltava, bolsonaro e trump reeleitos</t>
-  </si>
-  <si>
-    <t>trump parabeniza rússia e ucrânia por libertação mútua de prisioneiros https://t.co/br0boh4o2s</t>
-  </si>
-  <si>
-    <t>rt @bolsonarosp: pautas da imprensa:
--mre ernesto entrou ou não no salão oval
--eduardo tirou ou não foto com trump
--comitiva sorriu ou não…</t>
-  </si>
-  <si>
-    <t>é isso mesmo que eu quero babado,correria e muita shade pro trump 😂 https://t.co/mo2upwmvcu</t>
-  </si>
-  <si>
-    <t>@rodsouza83 @aryribeironeto @gauchazh larga o pau do trump !!!</t>
-  </si>
-  <si>
-    <t>eu queria estar discutindo táticas de guerrilha com a minha família, mas to aqui ouvindo meu primo falando q bolsonaro tá ruim mas q o trump é bom</t>
-  </si>
-  <si>
-    <t>escape from abaco https://t.co/ygfnyfdgao</t>
-  </si>
-  <si>
-    <t>rt @a_emponderada: @sf_moro dia da (in)dependência! trump que o diga...</t>
-  </si>
-  <si>
-    <t>@blogdopannunzio a paixão dele é trump</t>
-  </si>
-  <si>
-    <t>eu sei que essa música foi para o trump, mas eu a dedico a você .i. https://t.co/ephxu1xqej 
-@jairbolsonaro</t>
-  </si>
-  <si>
-    <t>@deputadofederal o vira lata do trump.... https://t.co/frqh5dmpdl</t>
-  </si>
-  <si>
-    <t>@veja kkkk eita porra,bolsonaro e trump se deram bem nessa, jagger é pé frio p cacete kkkkk</t>
-  </si>
-  <si>
-    <t>@estadao @estadaopolitica patético.  os caras estão vendendo o país,  destruindo nossas riquezas, se ajoelhado ao trump e se dizem nacionalistas.</t>
-  </si>
-  <si>
-    <t>na véspera do #7desetembro bolsonaro organizou o leilão da maior reserva de petróleo do país. trump e outros imperialistas agradecem.
-https://t.co/eyl8gekarz</t>
-  </si>
-  <si>
-    <t>rt @aluizcosta: congresso dos eua investiga como trump lucra oferecendo descontos em resort de golfe na escócia para militares às custas do…</t>
-  </si>
-  <si>
-    <t>infelizmente o brasil ñ é mais livre está aprisionado pelo bozonaro que entregou o brasil para trump  https://t.co/fnrggq4zhe</t>
-  </si>
-  <si>
-    <t>com o comentário de jagger, agora tenho certeza que trump e bolsonaro vencerão seus jogos. temo pela amazônia. terminará em carvão. o distinto rockeiro, ora cumprindo tabela na terra, não costuma trazer sorte para quem ele torce. https://t.co/voxnuczukh</t>
-  </si>
-  <si>
-    <t>solamente trump?, pergunta seria...
-#méxicoreflexivo 🇲🇽 https://t.co/dc0d7mc8uk</t>
-  </si>
-  <si>
-    <t>eu me pergunto às vezes se o felipe neto ta usando a teoria do pêndulo político, quando o pt tava no poder ele tava contra, agora que é a direita, ta contra
-é o mesmo que o donald trump fez durante quase 3 décadas antes de ser eleito presidente https://t.co/fod2iewcko</t>
-  </si>
-  <si>
-    <t>as vezes eu tô pensando no nada, vivendo a vida normalmente, de repente paro e penso "e se a hillary tivesse ganhado as eleições em vez do trump?"</t>
-  </si>
-  <si>
-    <t>rt @rconstantino: entendo um presidente levar no carro seu filhinho, tipo o trump fazer isso com o moleque de uns 12 anos. mas carluxo?! sé…</t>
-  </si>
-  <si>
-    <t>@blogdopannunzio liberdade? esse totozinho do trump não pode falar em liberdade.
-nos podemos !</t>
-  </si>
-  <si>
-    <t>depois querem que o trump não construa uma muralha, quando os americanos são violados à vista de todos pelos mexicanos https://t.co/o8cbafaung</t>
-  </si>
-  <si>
-    <t>itamaraty paga diárias de r$ 11 mil em giro de 33 horas de eduardo bolsonaro para encontrar trump nos eua https://t.co/lauqgpvqft</t>
-  </si>
-  <si>
-    <t>... vocês são péssimos atuando: #damares; #guedes; #neymar; #trump; #netanyahu &amp;amp; #bolsonaro!
-.
-.
-#fantástico!
-#ninguémsoltaamãodeninguém #queer #lgbtqi+ lgbtqqicapf2k+ #gaybrasil #lgbt. #salva #justiceformarielle mestre moa presente #brasilacimadetudo #conversaafiada!
-#moro... https://t.co/aiuo6rahlt</t>
-  </si>
-  <si>
-    <t>@sf_moro dia da (in)dependência! trump que o diga...</t>
-  </si>
-  <si>
-    <t>@leandroruschel ficou com medo do trump.</t>
-  </si>
-  <si>
-    <t>@brasil247 mesmos senadores que são contra o trump.</t>
-  </si>
-  <si>
-    <t>@updatechart seria icônico se ela convidasse a rihana pra performarem can't remember to forget you e foder o cu*ão do trump</t>
-  </si>
-  <si>
-    <t>bolsonaro, trump e maduro sabendo q sao os piores presidentes da atualidade
-https://t.co/bxym8qfefk</t>
-  </si>
-  <si>
-    <t>"em 22 anos patrulhando nossa fronteira sul, nunca vi o méxico agir como um verdadeiro parceiro de segurança de fronteira até que o presidente trump se envolveu, e agora eles estão avançando e fazendo o que precisam fazer." brandon judd, patrulhamento nacional de fronteira https://t.co/cvbeuxdu3a</t>
-  </si>
-  <si>
-    <t>eh incrivel como the principal foi feita pro trump e encaixa certinho no boloniro melanie martinez eu te amo #k12premiere</t>
-  </si>
-  <si>
-    <t>@thepinkfridayx vocês falando isso enquanto a bey e o jay z vao pra festas de aniversario da taylor todo ano kkk entendam que o kanye é um lixo independente do impacto na música que ele tem sem contar que lambe o cu do trump hmmkk</t>
-  </si>
-  <si>
-    <t>@estadao @estadaoeconomia trump tá rindo muito</t>
-  </si>
-  <si>
-    <t>eles enganam os brasileiros e entregam tudo para trump  https://t.co/ts7orwwdce</t>
-  </si>
-  <si>
-    <t>nfl protestando contra o trump? kkkkkkk https://t.co/ayojhrzjvt</t>
-  </si>
-  <si>
-    <t>rt @bolsonarosp: embarcando agora em missão da fab para fazer um bate e volta em alcântara, maranhão. lá visitaremos a o cla (centro de lan…</t>
-  </si>
-  <si>
-    <t>jornalista vai à justiça após ser bloqueado por bolsonaro no twitter https://t.co/x19p4jygub&amp;gt; o canalha do trump fez igual e foi vencido pela justiça americana ...</t>
-  </si>
-  <si>
-    <t>@sf_moro "brasil acima de tudo, trump acima de todos" https://t.co/qm1p7zya86</t>
-  </si>
-  <si>
-    <t>@repluv que novidade, o black twitter rebaixando uma mulher por ser branca e enaltecendo um homem so por ser negro mesmo que ele apoie o trump
-https://t.co/owoq0myhrw</t>
-  </si>
-  <si>
-    <t>@joaquinshow é bem remunerado para isso, receber elogios do futuro embaixador do brasil nos eua, eduardo vai até comentar com o trump sobre o seu trabalho nas redes sociais #7desetembro https://t.co/fwgj0yzwek</t>
-  </si>
-  <si>
-    <t>como essa matéria deveria ser noticiada: 
-“depois de exclusão da copa da rússia shakira migra para outro evento esportivo e protesta conta as leis imigratórias de trump” https://t.co/1wdbwojssu</t>
-  </si>
-  <si>
-    <t>@j_livres @vander_javier depois d agredir trump chamando-o d não cristão o papa francisco recebe a mãe de marielle e defensores do lula-livre demonstrando ter bandido de estimação. seria ele um comunista sonso? vai cuidar da pedofilia na igreja beato e deixa a amazônia com o governo do brasil! pqp! amém!</t>
-  </si>
-  <si>
-    <t>nããããão mick!!!! vc tem que apoiar o trump e o bozo!!! https://t.co/34xqlgsauw</t>
-  </si>
-  <si>
-    <t>hj vi pela primeira vez um adesivo trump 2020 e nem consigo rir pq tem gente q mesmo com todo o lixo q o bolsonaro tem feito, segue apoiando o cara
-galera emburreceu de um jeito q não achei ser possível</t>
-  </si>
-  <si>
-    <t>shakira é ativista, fez desde o começo campanha anti-trump, é a artista latina #1 all time, nome perfeito pra afrontar esse desgoverno americano e ela com seus mais de 20 anos de carreira solidificada 
-merece um half time desse super bowl 
-#shakiraforsuperbowlmiami https://t.co/oqqcknlj8n</t>
-  </si>
-  <si>
-    <t>a incrível história dos brasileiros que cancelam artistas que seguem o bolsonaro no instagram mas exalta famosos dos usa que faz campanha pro trump
-vai se fuderrr mil vezes se fuder</t>
-  </si>
-  <si>
-    <t>@siteptbr trump e bolso eu shippo</t>
-  </si>
-  <si>
-    <t>a filha do trump dançando com uma mulher indígena que vende produtos orgânicos e você blogueira mafrense se acha pq aparece no https://t.co/dwubrdutxx  e desfilou n gincana do idb. https://t.co/njioxj1juz</t>
-  </si>
-  <si>
-    <t>@rafaelmyway @migchupetinha @rafinhabastos ele cita trump e um número de 0 pessoas ficam surpresas...</t>
-  </si>
-  <si>
-    <t>@fabjanski e foi assim que trump foi eleito etc</t>
-  </si>
-  <si>
-    <t>@vocesabendo a não ser q o seu sobrenome seja 'trump'</t>
-  </si>
-  <si>
-    <t>@iagoluan22 @folha a fox na terra do pai do bozo é pro trump, já a cnn é crítica do trump.</t>
-  </si>
-  <si>
-    <t>@matthewshirts @gugachacra @rfi_br em compensação o trump tem bom gosto.. a mulher é linda e elegante</t>
-  </si>
-  <si>
-    <t>@alexsanspacheco boa tarde alexandre, uma vez vc citou aqui um livro que o donald trump usa como estratégia!! poderia me dizer qual é?</t>
-  </si>
-  <si>
-    <t>o pior de tudo é q, na vdd, o bolsonaro é a “versão ruim” do trump (n q o trump tenha uma “versão boa” né) https://t.co/l0hou83ekd</t>
-  </si>
-  <si>
-    <t>a subserviência do desgovero bolsonaro ao governo trump é, no mínimo, ridícula e vexatória
-#7desetembro #7desetembrodepreto #dia7depretonarua #forabolsonaro #independenciadobrasil #lutopelobrasil #tvbrasilno7 https://t.co/bhdxg5av99</t>
-  </si>
-  <si>
-    <t>@marcelodedois isso. continua chamando tudo e todos de nazista. compara o presidente com um cara que matou 6 milhões de judeus... deu certo ano passado ne? 
-ai leva na cabeça em 2022 de novo e vai dizer o que? que é resistência? 
-é a esquerda acéfala que o elege. o mesmo com o trump.</t>
-  </si>
-  <si>
-    <t>rt @casadarei: bolsonaro é prostituta,q se agarra em um velho rico,( trump) achando q vai melhorar de vida. bolsonaro é um burro. trump vai…</t>
-  </si>
-  <si>
-    <t>@jairbolsonaro que independência?
-pra peidar você está pedindo permissão a trump.</t>
-  </si>
-  <si>
-    <t>traído por trump, irã apressa seu projeto nuclear - https://t.co/syzvdkwxsk</t>
-  </si>
-  <si>
-    <t>dae @villamarcovilla  e @gugachacra o que dizer dessa cadelaaa do trump ? https://t.co/3jrpxbpw8w
-#forabol卐onaro</t>
-  </si>
-  <si>
-    <t>rt @pstu: que independência? | por trás do discurso nacionalista e do onipresente verde-amarelo, está o governo mais entreguista da históri…</t>
-  </si>
-  <si>
-    <t>@pomeranianjap true
-e só tá acontecendo essa guerra comercial entre eua e china pq trump não vai com a cara deles, se fosse outro presidente acho q nem ia dar um pio.</t>
-  </si>
-  <si>
-    <t>@ggreenwald que tal você voltar a morar nos eua e criticar o donald trump. criticar o país dos outros é ser mau caráter! vá embora ninguém obriga você morar no brasil! fora vanderval”.</t>
-  </si>
-  <si>
-    <t>@etatibitat braço direito do trump antivax etc hahahahahahaha
-mas o edir macedo eu diria ser mais urgente</t>
-  </si>
-  <si>
-    <t>@jhozzuel @felipeneto pois eh, mesmo mimi que voces fazem quando os imundos mandam tirar charge do biroliro lambendo as botas do trump 👍</t>
-  </si>
-  <si>
-    <t>irão pressiona europa para salvar acordo nuclear. para pressionar a europa a salvar o acordo nuclear, abandonado por donald trump, teerão diz que tem novas centrifugadoras em funcionamento. https://t.co/rsoy5zwbfr</t>
-  </si>
-  <si>
-    <t>@jairbolsonaro cena grotesca, o capacho do trump junto com o lavador de dinheiro e o enganador de fiéis</t>
-  </si>
-  <si>
-    <t>nem no pior dos mundos da era trump aconteceria tamanho retrocesso...a liberdade de expressao é inviolável num país democrático...crivella passa vergonha. análise: recolhimento de hq viola o estado de direito https://t.co/1abnz4tefx</t>
-  </si>
-  <si>
-    <t>@vyctrs @guilhermeboulos que ele se mudasse de vez pra lá e terminasse a vida lambendo merda dos sapatos do trump, era o que eu esperava... é querer muito?</t>
-  </si>
-  <si>
-    <t>amazônia https://t.co/nzgizcvg8f</t>
-  </si>
-  <si>
-    <t>rt @cudipley: uma latina como atração principal do super bowle aaaaa vc vai ter que engolir trump https://t.co/nhvdztkdx6</t>
-  </si>
-  <si>
-    <t>e agora foi a vez do ernesto, que eu gostava tanto, falar merda. tava indo tão bem! https://t.co/tfibfaj95j</t>
-  </si>
-  <si>
-    <t>@gaijinzin @ggreenwald @arthurmoledoval tenha consciência estratégica. 
-em 2016 muitos da esquerda ridicularizavam o bozonaro, mesmo com uma vitória do trump, e deu no que deu.
-aprendam a lição que o glenn está dando de graça.</t>
-  </si>
-  <si>
-    <t>como o estrategista-chefe de trump usou videogames para espalhar o ódio https://t.co/ffyrb2fw2s via @uolstart @uol</t>
+    <t>@renovamidia se preocupe com trump, macron ! sua aproximação com irã não o agradou em nada !</t>
+  </si>
+  <si>
+    <t>@carlosbolsonaro
+pra quem ainda tem alguma esperança da grande mídia vir a se retratar de suas aberrações e mentiras escabrosas, pode tirar o cavalinho da chuva. há 2 1/2 anos trump sofre o mesmo ataque.
+cabe aos consumidores de conteúdo a reação contra essas fakenews. cancele! https://t.co/qn6livffwb</t>
+  </si>
+  <si>
+    <t>@folha o filme é sobre o trump?</t>
+  </si>
+  <si>
+    <t>@jornaloglobo vai deixar o patrão trump bravinho hein.</t>
+  </si>
+  <si>
+    <t>@ggreenwald ninguém liga pra vcs mais não .perdendo seu tempo,  vai mamar no trump.</t>
+  </si>
+  <si>
+    <t>gente esta charge do bozo  lambendo as botas do trump é demais ... ri  muito aqui. #voltapt #esquerdistasegueesquerdista #lulalivresdv https://t.co/57eoaozsb6</t>
+  </si>
+  <si>
+    <t>boris johnson já mudou a sua posição sobre o brexit. diz agora que faz mais sentido um acordo. é o mesmo registo de trump e bolsonaro. entram a matar e depois recuam. dizem o que for preciso para se manterem no lugar.</t>
+  </si>
+  <si>
+    <t>placa com o nome de trump?!? 'tá doido, é?' rs https://t.co/74dwiibdb6</t>
+  </si>
+  <si>
+    <t>donald trump ataca john legend e chrissy teigen nas redes sociais, e o casal rebate de forma (muito!) ácida: ‘melania está ocupada’ https://t.co/9c9uaon8zk https://t.co/fwpsvm4mso</t>
+  </si>
+  <si>
+    <t>obrigado pt por ter feito do brasil um país respeitado no mundo inteiro! 
+por não ter tido um presidente que fosse vergonha mundial.
+macron e piñeda são dois líderes de direita, e o  imbecil conseguiu desagradar possíveis aliados só pela ânsia de ser o lambedor oficial de trump. https://t.co/dentcdh1rk</t>
+  </si>
+  <si>
+    <t>enquanto furacão dorian provoca caos, trump não ajuda e adultera dados em mapa https://t.co/yaxqjgdzif</t>
+  </si>
+  <si>
+    <t>@pedrocerize bozo de cama, trump e china em paz, setembro promete</t>
+  </si>
+  <si>
+    <t>@pedro12016731 essa onda de extrema-direita ainda vai levar um tempo para passar, favorace as ideias nacionalistas do trump.</t>
+  </si>
+  <si>
+    <t>trump perdendo as eleições ano que vem, vai enfraquecer demais o governo bolsonaro, principalmente na comunidade internacional, disso, para o seu impeachment é questão de meses</t>
+  </si>
+  <si>
+    <t>@elisabe28415751 @aiditadura @alezera_sousa @uolnoticias isso pq o trump é um republicano, se um democrata granhar a eleição dúvido que o apoio vai continuar, vanos ficar isolados.</t>
+  </si>
+  <si>
+    <t>@metropoles a melhor parte da biografia dela " não aceito pró- trump". 
+https://t.co/msejsoavlm</t>
+  </si>
+  <si>
+    <t>bolsonaro tem um gosto peculiar: fala mal da esposa do presidente francês, mas acha donald trump lindo. deve ser porque ele gosta de um laranja.</t>
+  </si>
+  <si>
+    <t>@spookyreiter deus me livre pisar em terra de trump. eu até te amo demais, mas estados unidos é demais, né amada? vem pro meu país são paulo 🥺🥺</t>
+  </si>
+  <si>
+    <t>parabéns borsalino você é uma piada. quando a economia colapsar é o mercado mundial não apoiar, nem o trump vai ajudar a segurar a peteca quando ela cair. https://t.co/pyq0ahmsw8</t>
+  </si>
+  <si>
+    <t>quem veio primeiro? o ovo ou? trump ou nosso presidente? 
+https://t.co/qesk6cwm08</t>
+  </si>
+  <si>
+    <t>donald trump diz que negociações com talibã estão ‘mortas’ https://t.co/wc0xwain7g https://t.co/j4qgdviqnq</t>
+  </si>
+  <si>
+    <t>o presidente trump chamou chrissy teigen de "esposa de boca suja" e ela respondeu chamando-o de "cadela burra".
+ e agora os esquerdistas no twitter estão agindo como se ela o possuísse quando não fez nada além de provar que ele estava certo.  😂</t>
+  </si>
+  <si>
+    <t>@rebrand_pt @brito_fdx na realidade, rui rio tem tudo o que enuncia. a única em que pode haver quem discorde é no carisma. mas se carisma fosse essencial para ser eficaz, então é melhor arranjar atores ou protagonistas de reality shows, e depois ficavamos com uma espécie de trump/trampa ou de costa...</t>
+  </si>
+  <si>
+    <t>@lucas_o_fofo cara estas pessoas são burras. só isso explica. nas eleições do ano passado eu já falava sobre. trump na mostrou tbm, mas o povo faz vergonha.</t>
+  </si>
+  <si>
+    <t>@folha bolsonaro é a versão canarinho do hugo chavez, só que nesta versão mais idiota ele chupa as bolas do trump!</t>
+  </si>
+  <si>
+    <t>@ancorvere_ @uolnoticias @vibrradas @l00katth1ssh1t política virou um meme desde a eleição do trump</t>
+  </si>
+  <si>
+    <t>@estadao @estadaopolitica está no caminho certo do inferno esse coitado...bolsonaro se isola só resta ovo trump para se consolar e entregar resto que temos;; governo atrapalhado e de amadores..são desatsres ministro , jumento do presidente e seus eleitores https://t.co/dbszcy4twg</t>
+  </si>
+  <si>
+    <t>eu fico pensando às vezes e tipo... a emilee subiu na vida, cara. e nunca na vida dela expôs insatisfação com o governo trump. ou querem me convencer de que eu realmente não entendo o contexto?</t>
+  </si>
+  <si>
+    <t>@sangriaman que se passa com o trump e a tiegen?</t>
+  </si>
+  <si>
+    <t>ui ui....a biba não aguemyta enfrentar  um verdadeiro macho alfa.foi assim com trump, boris e agora com o mais macho de todos, jair bolsonaro. https://t.co/precbr7aff</t>
+  </si>
+  <si>
+    <t>trump olhou para o bozo e disse #askfandoms</t>
+  </si>
+  <si>
+    <t>microsoft defende huawei e chama trump de “antiamericano”
+https://t.co/rezir0qqke</t>
+  </si>
+  <si>
+    <t>nossa solidariedade à luta do povo cubano contra as sanções de trump. coletivo de jornalistas amigos de cuba
+seguir lutando é o caminho!
+o coletivo de jornalistas amigos de cuba se une à onda internacional... https://t.co/rypx2y3nnv</t>
+  </si>
+  <si>
+    <t>flaming, flamingo, flamenco.
+https://t.co/s9rpivt8xe</t>
+  </si>
+  <si>
+    <t>semana passada um friozão essa o proprio inferno na superfície terrestre de sp explica essa trump</t>
+  </si>
+  <si>
+    <t>trump promete 800 quilômetros de muro até 2020 https://t.co/ie68kizpcz https://t.co/byvaojnfyn</t>
+  </si>
+  <si>
+    <t>trump lidera o ranking dos presidentes mais grossos do mundo segundo os entendidos e ele não tá nem ai! continua sendo bajulado mundo a fora! esse macron é ridículo! vai perfer feio a proxima eleição! piñero</t>
+  </si>
+  <si>
+    <t>@paulinhanao nada! no walmart ou target tem geralmente, uns 2 trump mais ou menos</t>
+  </si>
+  <si>
+    <t>minha mãe: seja faxineira de graça
+meu pai: militar
+meu padrasto: trabalhe pra mim de graça
+meu cérebro: carreira militar, engenharia civil, polícia militar/civil
+meu coração: astronomia, aeronáutica
+uma parte estranha em mim: ficar ryco que nem o trump e comprar as coisas https://t.co/bj02hysh9k</t>
+  </si>
+  <si>
+    <t>@donia_trump @juandie_19 listo! agendado.</t>
+  </si>
+  <si>
+    <t>povo falando "cor de pele", só quem tem essa cor é o trump mano, ele nem é de vdd https://t.co/kmqu5higpd</t>
+  </si>
+  <si>
+    <t>president pussy ass bitch. apelido foi criado pro trump, mas o bozo cabe direitinho.</t>
+  </si>
+  <si>
+    <t>@radioitatiaia o anjinho lula mais uma vez?
+mentira!!
+essa lava jato é uma conspiração da cia,trump,bannon e os liberais.</t>
+  </si>
+  <si>
+    <t>@marianavaarroo @domlancellotti moça vc ainda não entendeu que eu não vou passar a mão na cabeça se o bolsonaro estiver errado, ele está errado em confiar demais no trump sim, não devia confiar em ninguém, em hipótese alguma, até pq a amazônia é uma das ou a maior riqueza do mundo.</t>
+  </si>
+  <si>
+    <t>@jessepesta @maggienyt @cflav @lffriedman @peterbakernyt as corrupt as trump!</t>
+  </si>
+  <si>
+    <t>trump cancela negociação de paz com presidente do afeganistão e talibã https://t.co/pnesasjx8v</t>
+  </si>
+  <si>
+    <t>venho falando, se o brasil fizer tudo certo seremos a nova china. e me lembro de uma reportagem da exame, muitos anos atrás, que dizia que a pergunta não era mais se a china ia passar os eua economicamente e sim quando? só esqueceram de combinar com trump. https://t.co/l78n2iryoj</t>
+  </si>
+  <si>
+    <t>@3jonnathan @estadao governos dos eua são fantoches de grandes corporações independente se são democratas ou republicanos o princípio básico de qualquer americano é que qualquer lugar pode ser deles basta ver como trump é com a venezuela e como é com outras ditaduras como a cn  ou arábia saudita...</t>
+  </si>
+  <si>
+    <t>trump anuncia que conversações com os talibã estão “mortas” https://t.co/ah8w2bdnzs https://t.co/vd83myqf54</t>
+  </si>
+  <si>
+    <t>trump 2020 temos servido como policiais no afeganistão, e isso não era para ser o trabalho de nossos grandes soldados, os melhores do mundo.  nos últimos quatro dias, temos atingido nosso inimigo com mais força do que em qualquer outro momento nos últimos dez anos! https://t.co/yjcv7dglgb</t>
+  </si>
+  <si>
+    <t>@hermeshcg1 olha só o que temos aqui, um brasileiro americanizado xenofobico que apoia o donalt trump?</t>
+  </si>
+  <si>
+    <t>@gugachacra sera interessante se trump e netaniahu perderem suas eleições. teremos 2 anos sob un presidente considerado paria por todos...</t>
+  </si>
+  <si>
+    <t>@dsgcrapaz vida longa aos eua
+e trump</t>
+  </si>
+  <si>
+    <t>jornais de goiânia – polícia de hong kong lança gás lacrimogêneo em meio a confrontos; manifestantes apelam a trump https://t.co/whc5diuft1 https://t.co/je4azbdtqt</t>
+  </si>
+  <si>
+    <t>passa um protetor solar nessa cara, tu tá parecendo o donald trump de tão laranja</t>
+  </si>
+  <si>
+    <t>iiiihhh rapaiz, agora o bagulho ficou sério:
+@huawei @huawei_brasil @huaweimobilebr @microsoft #huawei #microsoft 
+https://t.co/lwprkbckhs</t>
+  </si>
+  <si>
+    <t>@uolnoticias alguém aqui acha que o trump vai comprar uma briga com a alemanha (que também foi vítima de ataque misógino) ou frança ou contra os dois para defender bolsolini?
+alguém aqui acha q o facista italiano irá apoiar bolsolini dentro da união europeia?
+e o putin, vai brigar por nós? https://t.co/si7u3ymksq</t>
+  </si>
+  <si>
+    <t>@mmonjardino @expresso @borisjohnson @allblacks aprendeu com o trump e com o putin. e isso é que é verdadeiramente novo. parece que está a acabar a politica dos paninhos quentes. no futebol lembra uma entrada a pés-juntos, mas aí dá cartão vermelho. há 100 anos na política dava morteirada.</t>
+  </si>
+  <si>
+    <t>@juliaopetruquio @uolnoticias vai la lamber o saco do trump enquanto ele caga pro brasil otário kkkkkkkkkkkkk</t>
+  </si>
+  <si>
+    <t>@dasilvabenedita pode ir agora inutil e leva junto toda turma pra estados unidos mas depois qdo trump correr eles nao aceita de volta rsssssssss</t>
+  </si>
+  <si>
+    <t>"aos 83 anos, idosa entra em app e transa com mais de 50 homens." que mulher maravilhosa, apenas. e anti trump, o que mostra que além de tudo é sensata.</t>
+  </si>
+  <si>
+    <t>@insidesade isso do governo trump eu sabia, mesmo o trump sendo super racista e tal.. o legal foi ele ter conseguido umas coisas pra comunidade negra com essa amizade. mas, isso com o jay-z eu não sabia.. lembro da polêmica quando ele disse que ia ser presidente. ele é meio doido..</t>
+  </si>
+  <si>
+    <t>erro fatal! macron tralu trump e negocia com lrã https://t.co/6z3pbktkre via @youtube</t>
+  </si>
+  <si>
+    <t>erro fatal! macron tralu trump e negocia com lrã https://t.co/2xmypbrxt1 via @youtube</t>
+  </si>
+  <si>
+    <t>depois de cogitar receber talibãs em camp david, trump recuou e jogou uma pá de cal nas negociações de paz que vinham ocorrendo nos últimos meses. representantes do governo americano chegaram a dizer nas últimas semanas que o conflito estava próximo do fim. https://t.co/jbyql9prny</t>
+  </si>
+  <si>
+    <t>...o entediante músico @johnlegend, e sua mulher boca porca, estão falando agora do quão bom é - mas eu não os vi por perto quando ajuda era necessária para a aprovação. o "âncora" @lesterholtnbc nem sequer menciona o fato do presidente trump ou dos republicanos quando fala da... https://t.co/hznzhwicmp</t>
+  </si>
+  <si>
+    <t>@bolsonarosp @exercitooficial vc ja quer entregar para o trump</t>
+  </si>
+  <si>
+    <t>@realdonaldtrump trump vai proteger os eua , até  2025 !</t>
+  </si>
+  <si>
+    <t>#askfandoms
+donald trump chegou no bozo e falou:</t>
+  </si>
+  <si>
+    <t>enquanto isso o presidente passando pano pra um filho, e o outro indo fritar hambúrguer com trump.</t>
+  </si>
+  <si>
+    <t>trump chegou no ouvido de bolsonaro e susurrou: #askfandoms</t>
+  </si>
+  <si>
+    <t>@alinetosin tremendamente desnecessario ficar mostrando a arma.mais parece coisa de miliciano querendo amedrontar as milicias adversarias. sera que bozzo vai pedir para trump coloca o filhinho em westpoint sem concurso, pois no brasil e perigoso. afinal no psl e normal este pedido no brasil</t>
+  </si>
+  <si>
+    <t>óbvio q o povo tá defendendo o john, mas tipo isso que o trump fez foi bom (?) óbvio q foi por clout mas eh todo político https://t.co/4fk9fx9lwy</t>
+  </si>
+  <si>
+    <t>@gugachacra guga alguém vai ter que desenhar para vc que trump é apoiador de bolsonaro, me admiro pelo fato de vc ser correspondente da globo nos estados unidos e ninguém lhe falou sobre isso... https://t.co/8gavjbwmou</t>
+  </si>
+  <si>
+    <t>@fabioamorimdas1 @joaquinshow o bannon foi enxotado do governo pelo próprio trump, além de perder o job no @breitbartnews. não sei o que diabos esse cara ta fazendo aí.</t>
+  </si>
+  <si>
+    <t>@bevlymarsh acho que é o trump pq há uns tempos ela falou dele sabe, além de que ela é de descendencia mexicana ai tem a coisa do muro e tudo mais. e no negócio de killing kids pelas armas. e a transfobia: há uns tempos atrás ele foi super transfobico no twtter</t>
+  </si>
+  <si>
+    <t>o presidente trump anunciou mudanças drásticas no afeganistão, de "policiais" para "soldados em guerra". as forças armadas norte-americanas iniciaram há 4 dias uma grande ofensiva em todo o país. https://t.co/uenrx8ml5h</t>
+  </si>
+  <si>
+    <t>mais notícias falsas da #cnn trump says taliban meetings are 'dead' https://t.co/18hhbqkbf9 #fakenews</t>
+  </si>
+  <si>
+    <t>o que a imprensa e a globo news ficam discutindo:
+- se o ministro das relações exteriores ernesto araújo entrou ou não no salão oval da casa branca.
+- se o eduardo bolsonaro tirou ou não foto com só com o donald trump.
+- se a comitiva americana sorriu ou não durante a reunião https://t.co/voiga1y7yq</t>
+  </si>
+  <si>
+    <t>eita que vai sujar para o trump https://t.co/hnqlwpn3kc</t>
+  </si>
+  <si>
+    <t>@armando31357440 @gugachacra trump é outro "corrupto". inocente mesmo é o nove dedos.</t>
+  </si>
+  <si>
+    <t>o irã  ameaçado  por trump. se tudo for pelos ares não  é  só  a floresta amazônica que explode.</t>
+  </si>
+  <si>
+    <t>#democraticsocialist #democraticsocialism#notmeus #berniesanders #bernie2020 #berniesanders2020 #berniesandersforpresident #thisiswhataleaderlookslike
+https://t.co/sxbl52sgv0</t>
+  </si>
+  <si>
+    <t>@albertocalmeida queimada tem que estar a imagem do bolsonaro, não do brasil. a opinião de quem pensa que em b. aires, nossa capital, caminham onças nas ruas não me interessa. assim como não se pode confundir, p. ex., o idiota trump com a américa.</t>
+  </si>
+  <si>
+    <t>assessor de trump relatou cena vergonhosa de eduardo bolsonaro nos eua. https://t.co/0skytrxxkr via @pragmatismo_</t>
+  </si>
+  <si>
+    <t>trump anuncia que conversações com os talibã estão “mortas”: https://t.co/i9evbnu3vy</t>
+  </si>
+  <si>
+    <t>@jacsonperego @dw_brasil então agora os traficantes não compram dos eua? trump está isento disso tudo, assim como as empresas de armas dos eua?</t>
+  </si>
+  <si>
+    <t>e ainda dizem que o brasil é subserviente ao eua...que belo exemplo é o donald trump, deus guarde esses nobres presidentes e abençoe os nossos países! 🇧🇷🙏🇺🇸 https://t.co/lj3dgpfguk</t>
+  </si>
+  <si>
+    <t>trump preso amanhã https://t.co/qkalensx7r</t>
+  </si>
+  <si>
+    <t>@marleneffl esta oração abençoada foi feita pelo presidente da cbn's pat robertson não pelo presidente trump!!🙏🙏🙏</t>
+  </si>
+  <si>
+    <t>erro fatal! macron tralu trump e negocia com lrã https://t.co/dxu2cdy8h3 via @youtube</t>
+  </si>
+  <si>
+    <t>@gugachacra pqp....de novo??? descreva sobre o atentado sobre a nossa soberania que este mesmo fez!!! poxa vida...assim fica difícil!! porquê dar crédito para este presidente? mas vindo de vc, que já fez e faz isso com o trump. a esquerda odeia trump e bolsonaro.</t>
+  </si>
+  <si>
+    <t>@amandafaudi @demori mes que vem eleições na argentina e bolívia. fernández y fernández devem ganhar no primeiro turno com 53 a 33 pro macri. na bolivia evo y álvaro também devem ganhar no primeiro turno com uns 60 a 25. espero que essas perdas pro trump  eventualmente revertam em ganhos pro bernie.</t>
+  </si>
+  <si>
+    <t>donald trump;  uma das melhores administração. 💪 https://t.co/sp9pifddre</t>
+  </si>
+  <si>
+    <t>@marcella_resen @jeffs_araujo35 acho q o pessoal não entendeu ainda oq vai acontecer se o cara assinar, ( deixo claro q quero q assine) o cara é a rússia do trump. agora nego replicar teoria do antagonistas é brincadeira.</t>
+  </si>
+  <si>
+    <t>.@cubavsbloqueo: nossa solidariedade à luta do povo cubano contra as sanções de trump https://t.co/aauwyuw19z</t>
+  </si>
+  <si>
+    <t>@o_antagonista @emmanuelmacron @jairbolsonaro lacron, levou um "fica na tua mané" do trump, um "eu tô ligado no que vc quer" do boris, e um "nada a ver" da merkel. saiu desmoralizado do g7. e, ainda teve a mulher desnecessariamente exposta à análise mundial. fora, centenas de memes brasileiros os ridicularizando. chora n..</t>
+  </si>
+  <si>
+    <t>erro fatal! macron tralu trump e negocia com lrã https://t.co/2wezuan9ki via @youtube</t>
+  </si>
+  <si>
+    <t>quem não gosta de perfect illusion, na minha opiniao, não tem o minimo de senso... fugiu do estilo que a gaga estava acostumada e vc pode ate não gostar disso, mas dizer que a musica é ruim? é por isso que vivemos em um mundo onde o bolsonaro e trump sao presidentes</t>
+  </si>
+  <si>
+    <t>tempestade furiosa sobre os tweets de trump continua furiosa no noaa https://t.co/7xkqcewjpl https://t.co/v8i2gcrsbh</t>
+  </si>
+  <si>
+    <t>@felix9442 não tem o pq de ficar surpreso.  todos sabemos que o guga tem seu posicionamento contrário ao governo bolsonaro e trump</t>
+  </si>
+  <si>
+    <t>bolsonaro é 'um homem fantástico com uma família maravilhosa', diz trump https://t.co/gbs5dlybx4</t>
+  </si>
+  <si>
+    <t>bolsonaro sente orgulho de ser o cachorro do trump e ser odiado pelo resto do mundo, sabe em que isso favorece o brasil? em nada! quem discorda nunca viu como as relações comerciais entre os dois países sempre favoreceu só o tio sam e quando não favorece eles tramam pra favorecer https://t.co/jz6g2shc5q</t>
+  </si>
+  <si>
+    <t>@brunnosarttori faltou o trump endossando a atitude do mácron. ia ser perfeito!</t>
+  </si>
+  <si>
+    <t>@stampede_a @gustavolovatto @estadao dependendo do nível de produção pode ser interessante, mas vc se esquece de um fato fundamental: a moeda do país onde hayek escreveu já era forte, o que não é o nosso caso, e aliás: a china fez exatamente isso em retaliação ao trump.</t>
+  </si>
+  <si>
+    <t>felipe neto virou ainda mais ícone na lacrolândia por causa desse episódio. várias manifestações lgbt ganharam muita força graças ao crivella.
+se não nos atentarmos pra isso receberemos o mesmo "golpe surpresa" que a esquerda recebeu com o bolsonaro e o trump.</t>
+  </si>
+  <si>
+    <t>@adriano27091778 @uol esse aí acha que o trump é rei do mundo. coitado.</t>
+  </si>
+  <si>
+    <t>a prece de trump pelo brasil. gratos presidente trump</t>
+  </si>
+  <si>
+    <t>trump declara negociações entre eua e talibã ‘mortas’ https://t.co/beeoczrkqo https://t.co/tcjp0syviw</t>
+  </si>
+  <si>
+    <t>@hbredda concordo não 😄
+usa não está nervoso não.
+nervoso estão eles os chineses.
+que venha a reunião de outubro com o trump</t>
+  </si>
+  <si>
+    <t>@adriano27091778 @uol já pensou que há a possibilidade do trump perder nas eleições do ano que vem?</t>
+  </si>
+  <si>
+    <t>@vlogdolisboa trump já deu uma bronca nesse cara, bolsonaro desprezou, a mulher é feia, o que esse cara quer? a amazônia? vai cuidar da frança macron!!!!</t>
+  </si>
+  <si>
+    <t>@exame kkkkk estão sendo pressionado pelo trump. kkkkkkk.</t>
+  </si>
+  <si>
+    <t>mais notícias falsas da #cnn why scaramucci now calls trump 'horrific' and 'despicable' https://t.co/snnbfyompm #fakenews</t>
+  </si>
+  <si>
+    <t>@flsfilho @folha não. quem faz isso é os eua com o aval do lambe botas oficial do trump, bolsonaro.</t>
+  </si>
+  <si>
+    <t>donald trump ataca john legend e chrissy teigen nas redes sociais, e o casal rebate de forma (muito!) ácida: ‘melania está ocupada’ https://t.co/hajq413xrr (foto: getty) https://t.co/oty1udjnhx</t>
+  </si>
+  <si>
+    <t>@bolsomitos2022 @cbersey @jairbolsonaro olá, apenas uma correção pra você. eu discordo de tudo o que você falou, não apoio bolsonaro, mas não foi por isso que vim comentar. só vim dar um toque: a bandeira que vc usa como sendo dos eua na verdade é da malásia. olha aí, porque trump não tá vendo a sua idolatria não ✌🏼</t>
+  </si>
+  <si>
+    <t>@roxmo o nome do presidente(com o de trump)entrou numa reportagem da veja sobre  woodstock!</t>
+  </si>
+  <si>
+    <t>@duduhso trump fede azeitonas</t>
+  </si>
+  <si>
+    <t>essa mina é sensacional e, também, solidariedade demais com o drama de ter um presidente misógino e rude 
+https://t.co/vj8lg0ngor</t>
+  </si>
+  <si>
+    <t>@felix9442 esse guga sempre demonstrou ódio pelo presidente bolsonaro e do trump. como sua previsão sobre a derrota dos dois nas últimas eleições não se concretizou, dissemina seu ódio por ambos. um perfeito idiota!!!</t>
+  </si>
+  <si>
+    <t>será que o brasileiro comprando children’s crusade pra lutar contra a homofobia sabe que o dinheiro vai pro bolso do ike perlmutter e de lá pra doação pro trump, fica o questionamento</t>
+  </si>
+  <si>
+    <t>mick jagger e sutherland criticam bolsonaro e trump em festival https://t.co/voo61mfezr</t>
+  </si>
+  <si>
+    <t>tentei demais postar esse vídeo. ms a carla zambelli  conseguiu. o presidente trump  faz uma oração pelo brasil e eduardo bolsonaro estava presente  
+👉as 2➕importantes nações do mundo serão eua e brasil.👈
+reforcado neste momento, desta oração. 
+amém. https://t.co/w1gafjidtm</t>
+  </si>
+  <si>
+    <t>só o trump, o bozo e algumas pessoas de “alma raiada” e vazia que não compreendem isso no globo terrestre (não é plano terrestre). https://t.co/yno5hfntnm</t>
+  </si>
+  <si>
+    <t>@reparebem1 @ricamconsult entenda também. na época, ninguém esperava que o trump arrumaria birra com a china e tacaria a economia mundial no buraco.
+e nem que a argentina estivesse pensando em dar default no fmi.
+foi tanta merda que rolou que qualquer um erraria as previsões.</t>
+  </si>
+  <si>
+    <t>ainda não saiu nenhum filme sobre o trump pois não</t>
+  </si>
+  <si>
+    <t>@kobebolsominion bolsominion gosta mesmo é a da seleção do trump né 😠</t>
+  </si>
+  <si>
+    <t>@lilianmgmota @mariofla95 @uolnoticias agora mama o ovo do seu querido homem laranjado trump. e com saliva.</t>
+  </si>
+  <si>
+    <t>@adriano27091778 @uol e vc fala isso como se fosse a melhor coisa do mundo. amigo, não é. trump não está do lado de ninguém. ele não liga nem para os eua, que dirá pra bozonaro e o brasil. trump só se importa com ele mesmo, como o psicopata que é.</t>
+  </si>
+  <si>
+    <t>exposição de charges com bolsonaro lambendo botas de trump é suspensa no rs https://t.co/bh5zhww1ae via @uolgeek @uol</t>
+  </si>
+  <si>
+    <t>é só lembrar que ele apoia o donald trump https://t.co/ee0pd0tbuw</t>
+  </si>
+  <si>
+    <t>porque é que ninguém fala disto?? todos preocupados com o bolsonaro e o trump só para parecerem bem nas redes sociais enquanto isto acontece ao povo da venezuela, abram os olhos!!! https://t.co/7wjh60wvwg</t>
+  </si>
+  <si>
+    <t>@iracemagouvea @mattproenca @uol 1° o país é a frança, n paris 
+2° nosso país só pode se curvar aos estados unidos (q entre os paises evoluídos é o pior) e à israel (q vive em conflito) ???
+3° de q soberania vc tá falando se o bolsonaro, no momento, é o tapete favorito do trump?!</t>
+  </si>
+  <si>
+    <t>@marleneffl o trump, assim como os outros presidentes da europa, se preocupam unicamente em explorar nossas riquezas... foda-se o trump e os eua.... quem tem que se preocupar com o brasil é o próprio povo brasileiro... o resto do mundo que se exploda...</t>
+  </si>
+  <si>
+    <t>@rickycifuentes daqui a pouco até o trump vira de esquerda.</t>
+  </si>
+  <si>
+    <t>em 2016 escrevi sobre isso, notando um movimento comum, entre a vitória do brexit e a polarização dos estados unidos com a vitória de donald trump no gop e o fortalecimento do anacrônico bernie sanders.
+https://t.co/dlf8rj5y3n</t>
+  </si>
+  <si>
+    <t>@georgeseia @braziliancolle2 como sei que é o trump? no filme thomas wayne é um empresario que se candidata a prefeito, ele é o capitalista malvado, citam a torre wayne assim como a trump tower.</t>
+  </si>
+  <si>
+    <t>@bosxlli doutor wendel baixada
+do clonado?
+cpf é o fake?
+votei no trump no primeiro turno e bolso no segundo
+foto: https://t.co/sfzgvcwqna</t>
+  </si>
+  <si>
+    <t>scott lively fala sobre trump, rússia e desafios geopolíticos https://t.co/cymfizbrlu</t>
+  </si>
+  <si>
+    <t>...importância da aprovação da reforma da justiça criminal. só falam dos menos importantes, ou das pessoas que não tiveram nada a ver com ela...e as pessoas que tão desesperadamente procuraram minha ajuda quando todos falharam, tudo o que falam sobre agora é de impichar trump! https://t.co/de4chqvhly</t>
+  </si>
+  <si>
+    <t>@estadao e o macron é um cara bem razoável dialoga até com o trump mas o bozo é um burro demagogo</t>
+  </si>
+  <si>
+    <t>@jairbolsonaro kids graça. alguem consegue imaginar o trump se expondo desse jeito? parece que aquele homem já nasceu de terno e gravata. já o bolsonaro não faz questão alguma de preservar a imagem.</t>
+  </si>
+  <si>
+    <t>trump anuncia que conversações com os talibã estão “mortas” https://t.co/h8yes60jon #observador https://t.co/ptanf8mman</t>
+  </si>
+  <si>
+    <t>@folha bem que bolsonaro podia dar mais uma apoiadinha a trump, como fez com macri, não é? hahha</t>
+  </si>
+  <si>
+    <t>nao eh meme eu olhei rápido achei q era o donald trump https://t.co/iwbhoj1zkr</t>
+  </si>
+  <si>
+    <t>@g1 esperando o gado falar da tal soberania sendo que o presidente bolsonaro só falta ficar de quatro para o trump e estados unidos</t>
+  </si>
+  <si>
+    <t>@iasminmoreira @filipebarrost só poderia opinar se visse o tal texto, mas mesmo sem ler, tenho certeza que trata-se de um texto crítico ao trump.</t>
+  </si>
+  <si>
+    <t>e se trump cair o que fará bolsonaro ?</t>
+  </si>
+  <si>
+    <t>imaturidade. bem estilo trump. #idiocracia https://t.co/qtaeizqtsw</t>
+  </si>
+  <si>
+    <t>jpmorgan cria índice de volatilidade com base em tuítes de trump https://t.co/ancud4jgbz via @exame</t>
+  </si>
+  <si>
+    <t>tuítes de donald trump agora compõem um índice do mercado financeiro https://t.co/yfgxvrae3i https://t.co/qtvjgsxfsg</t>
+  </si>
+  <si>
+    <t>@danibacedo the intercept é financiado pelo bilionário francês pierre omidyar, progressista, grande opositor de trump, apoiador/doador do democratas, de barack obama, governo responsável pelos grampos da petrobras, de dilma e seus ministros. alguém acha q essa briga é mesmo tupiniquim?</t>
+  </si>
+  <si>
+    <t>microsoft defende huawei e chama trump de “antiamericano” https://t.co/zgzd4htk7q</t>
+  </si>
+  <si>
+    <t>nenhum, todos são centro da xenofobia musical onde o público é extremamente fechado, maroon5 quando foi ao superbowl foi vaiado pelos machos, rihanna quando pisou no rir teve maior estardalhaço, coachella tem organizador preconceituoso e apoiador de trump. que fique longe. https://t.co/t1tvnhseek</t>
+  </si>
+  <si>
+    <t>@ddlkindness @deby03 essa ai é tiazona de zap zap, gado de primeira, já discutir com ela aqui no tt, foi a coisa mais engraçada, fugiu dps de eu ter desmentido ela.. ela só pega "noticias" do grupo do zap zap. daqui a pouco ela vem com os gifs do trump kk</t>
+  </si>
+  <si>
+    <t>me dói admitir que donald trump foi o menos pau no cu nesse filme</t>
+  </si>
+  <si>
+    <t>trump surpreende todos e ora por bolsonaro e pelo brasil https://t.co/vs4ffapvhl</t>
+  </si>
+  <si>
+    <t>trump encerra conversas de paz com os talibãs no afeganistão https://t.co/la9gbblv6b</t>
+  </si>
+  <si>
+    <t>@gugachacra o senhor está escandalizado? o interessante é que quando o trump faz algum “ato político” em relação a outros países, jornalistas como senhor chamam de colonialismo. quando a frança do macron convoca um get together sem a presenc. do gov. bras. , aí não é colonialismo.</t>
+  </si>
+  <si>
+    <t>@gugachacra @globonews @marcelolins68 @andrefran @leilasterenberg se for no mesmo estilo da tentativa de um acordo do seculo com a palestina, do genro sionista jared kuschner, pode ter  100%certeza é mentira do trump e do monopólio da grande midia.</t>
+  </si>
+  <si>
+    <t>@marianatwinkle socorronajsjshe apoiador de trump é apoiador do lixo daqui também.</t>
+  </si>
+  <si>
+    <t>depois de anunciar cancelamento de reunião com o governo do afeganistão e com a milícia talibã, @realdonaldtrump diz que conversas de paz "estão mortas" https://t.co/0b1c8zbvic</t>
+  </si>
+  <si>
+    <t>eua: democratas tentam novamente processo de impeachment de trump https://t.co/ckh5vqn34z https://t.co/c0ld4lagjn</t>
+  </si>
+  <si>
+    <t>gente eleitor do bolsonaro falando de soberania enquanto aplaude o cara se curvando pro trump é a piada do ano</t>
+  </si>
+  <si>
+    <t>@gugachacra @globonews @marcelolins68 @andrefran @leilasterenberg bixa nervosa 😂😂😂😂😂😂 vive nos states do trump opressor</t>
+  </si>
+  <si>
+    <t>no dia q eu arrumar um coletão da oakley, uma trump, mais uma penny e uma medusa eu zero minha vida</t>
+  </si>
+  <si>
+    <t>@estadao @estadaopolitica o jair quer brincar de apagão do estado como fez o trump</t>
+  </si>
+  <si>
+    <t>mais 2 caras ( @mickjagger &amp;amp; @donaldsuth_fans ) que não sabem de nada e ficam enchendo o saco!
+https://t.co/094ujbxp4m</t>
+  </si>
+  <si>
+    <t>@bolsomitos2022 @jairbolsonaro isso mesmo, aliança militar com trump  @realdonaldtrump e benjamin netanyahu @netanyahu . 
+🇧🇷+🇱🇷+🇮🇱 = ✈️🚁🚔🚑🚒😉</t>
+  </si>
+  <si>
+    <t>@hcmkarla @uolnoticias a gente não é colônia, só lambe o saco do trump e bate continência para a bandeira do eua</t>
+  </si>
+  <si>
+    <t>democratas dão mais um passo na tentativa de impeachment de trump - istoé dinheiro https://t.co/xf5pc7nloe</t>
+  </si>
+  <si>
+    <t>@patrlotas bolsonaro mentiu ter políticas de sustentabilidade,p/obter acordo c/união europeia.fatos vem a tona,chamado de mentiroso por macrom,que é retrucado c/ofensas e acusação de interferir na soberania.
+ae trump diz querer cuidar da amazônia junto c/brasil,ae não é afronta a soberania?</t>
+  </si>
+  <si>
+    <t>o #trump que foi eleito com base em fake news, hj reclama, toda notícia que não seja favorável a ele é falsa.
+https://t.co/v4dkletar3</t>
+  </si>
+  <si>
+    <t>pois é, pra @jairbolsonaro, é o filho ou nada na embaixada brasileira mais importante... entenderam as "prioridades"?
+há recíproca, os eua também não tem embaixador no brasil há 10 meses... trump nos considera importantes assim...
+https://t.co/fck682upn1</t>
+  </si>
+  <si>
+    <t>fã de trump e bolsonaro, ex-miss bumbum ficou 8 meses sem sexo para passar em medicina: "praticamente virgem"
+https://t.co/rdvbf9dkrm</t>
+  </si>
+  <si>
+    <t>@chegamateus e as chamada de skype do trump pro bonoro e ele fazendo continência pra bandeira yankee ⚠️ https://t.co/7daih8g96r</t>
+  </si>
+  <si>
+    <t>@gugachacra e com donald trump e benjamin netanyahu  como é  relação com eles? e normal uns gostar outros não. qual o problema?</t>
+  </si>
+  <si>
+    <t>nossa o trump nesse filme me irritou de uma forma...</t>
+  </si>
+  <si>
+    <t>@carloscezarcjr @marceloadnet @f_a_monteiro achar que aceitar ajuda é igual a entregar a amazonia é uma questão de ótica com lentes distorcidas. 
+vergonha internacional é bradar que a amazonia é nossa pra gente queimar o quanto quiser.
+ou, sei lá, arregaçar o rabo para o trump sem receber nada em troca, também é.</t>
+  </si>
+  <si>
+    <t>se você acha que se um furacão devastasse os fiordes da noruega, o trump teria esse discurso em relação aos refugiados (caso eles fossem pros eua)?
+se você acha isso, parabéns, você tem a cognição de uma criança de 5 anos meio burra. https://t.co/nlo5ikr138</t>
+  </si>
+  <si>
+    <t>@ericcraveiro @uol ele visitar as ongs é reconhecimento e pesquisa sobre o trabalho que elas fazem aqui no país, a grande diferença com o ernesto araújo, é que a reunião não estava marcada e foi fora da agenda presidencial, e eles praticamente impuseram uma agenda com o trump.</t>
+  </si>
+  <si>
+    <t>@adriano27091778 @uol o trump tá do lado dele idiota, e ele já anda deixando o bossal de lado pra não se prejudicar nas eleições ano que vêem</t>
+  </si>
+  <si>
+    <t>posso até  odiar  homens mas biroliro, boris jonhson e trump são os caras que eu mais odeio nesse mundo todo</t>
+  </si>
+  <si>
+    <t>@mmagalhae5 decisão da corte dos eua proibiu o trump de blockear pessoas, aqui poderia ser assim! políticos precisam prestar contas aos seus eleitores e ao povo em geral.</t>
+  </si>
+  <si>
+    <t>ele eduardo deixa claro que só é subserviente a trump...
+ já bozonaze parece uma criança diante do ídolo de futebol quando está perto de trump. https://t.co/lszrkybana</t>
+  </si>
+  <si>
+    <t>@leo_bianchi sobre a amazônia eles podem tirar dúvida com o nosso amigo @realdonaldtrump conhecem?
+se vc não consegue explicar o trump pode.
+já explica de quem é a amazônia!</t>
+  </si>
+  <si>
+    <t>a cada cena que passa trump da vontade de dar uma pedrada nele</t>
+  </si>
+  <si>
+    <t>figuras que a história regista como fascistas: passos coelho, donald trump, jair bolsonaro e boris johnson (🆕) https://t.co/4xysrprsdd</t>
+  </si>
+  <si>
+    <t>@marcelojgonca @uolnoticias trump ganha.</t>
+  </si>
+  <si>
+    <t>dos 9 mil pts em jan/16 até os 25 mil atuais, todo dia algo p/ te deixar c/ medo, apavorado, "análises" e mais "análises" s/ conclusão... impeachment, tlp, lei das estatais, teto de gastos, ref trabalhista, selic, trf4, ref da previdência, trade war, china, trump...
+p/ onde vai? https://t.co/pcjy85sbq2</t>
+  </si>
+  <si>
+    <t>@gerhard_breda eua, né
+aquele país que foi construído em torno de uma supremacia branca, mas não quer que ninguém saiba (antes do trump, agora ta escancarado)</t>
+  </si>
+  <si>
+    <t>@renataagostini mas é o mesmo que o trump e qualquer outro eventual aliado, que fazem o possível para não puxar a escada do bozo, mesmo sabendo se tratar de um débil mental...</t>
+  </si>
+  <si>
+    <t>@gugachacra que se dane macron, ficou isolado, trump disse pra ele num vídeo "vc está agindo errado com o brasil", vc não viu isso? pare de chorar, que terrível imagem é essa? talvez pra quem seja fã do socialismo nossa imagem não é das melhores, a maioria do ocidente está com a gente.</t>
+  </si>
+  <si>
+    <t>você já agradeceu pela vida de @pablomv5 hj? o homi é o muro que o trump tanto sonha, mas só o fla tem, não passa naaada. e ainda segura o er7 com um braço só. que homem! https://t.co/wbc6mdhrub</t>
+  </si>
+  <si>
+    <t>@uolnoticias esses democratas é a vergonha dos verdadeiro americanos. 
+se depender desses caras, os estados unidos vai virar baderna com mentalidade comunista. 
+trump está colocando os estados unidos no trilho.</t>
+  </si>
+  <si>
+    <t>nessa aqui ela mandou o trump ir se lascar https://t.co/5u08vuqboa</t>
+  </si>
+  <si>
+    <t>@nadiafalcao1 @walternunes síndrome de vira-lata é abanar o rabinho pro trump, como o bozo faz...#vergonha!!</t>
+  </si>
+  <si>
+    <t>@uvichier uma foto do keanu reeves no perfil , hahaha ,vc acha que ele ia apoiar o governinho do cadelonario do trump ? e votar nesse lixoso?</t>
+  </si>
+  <si>
+    <t>tempos atrás, postei que oxana havia sido demitida. segundo fabinho, #dispensada seria o adequado.
+trump e justus não usam termos técnicos em, respectivamente, "you're fired" e "você está demitido(a)".</t>
   </si>
   <si>
     <t>Relevancia</t>
@@ -1254,8 +2095,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B301"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A285" workbookViewId="0">
-      <selection activeCell="A301" sqref="A301"/>
+    <sheetView tabSelected="1" topLeftCell="A282" workbookViewId="0">
+      <selection activeCell="A302" sqref="A302"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1269,7 +2110,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>236</v>
+        <v>502</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
@@ -1277,7 +2118,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
@@ -1285,7 +2126,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
@@ -1293,7 +2134,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
@@ -1301,7 +2142,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
@@ -1325,7 +2166,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
@@ -1341,20 +2182,20 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -1362,7 +2203,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -1370,15 +2211,15 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -1386,7 +2227,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -1394,15 +2235,15 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="B17">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1410,15 +2251,15 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="B19">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -1426,15 +2267,15 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B21">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1442,15 +2283,15 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -1458,15 +2299,15 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="B25">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -1474,31 +2315,31 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="B27">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="B28">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="B29">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -1506,39 +2347,39 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="B31">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="B32">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="B33">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="B34">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="B35">
         <v>1</v>
@@ -1546,7 +2387,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -1554,7 +2395,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1562,7 +2403,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -1570,7 +2411,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -1578,7 +2419,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="B40">
         <v>1</v>
@@ -1586,7 +2427,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -1594,7 +2435,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1602,7 +2443,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -1610,23 +2451,23 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="B44">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="B45">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -1634,23 +2475,23 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="B47">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="B48">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1658,7 +2499,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -1666,7 +2507,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -1674,7 +2515,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1682,7 +2523,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -1690,7 +2531,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -1698,15 +2539,15 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>2</v>
+        <v>54</v>
       </c>
       <c r="B55">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>5</v>
+        <v>55</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -1714,15 +2555,15 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="B57">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -1730,15 +2571,15 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="B59">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -1746,7 +2587,7 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -1754,15 +2595,15 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>1</v>
+        <v>61</v>
       </c>
       <c r="B62">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="B63">
         <v>0</v>
@@ -1770,23 +2611,23 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="B64">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="B65">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="B66">
         <v>0</v>
@@ -1794,15 +2635,15 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="B67">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>2</v>
+        <v>67</v>
       </c>
       <c r="B68">
         <v>1</v>
@@ -1810,7 +2651,7 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="B69">
         <v>1</v>
@@ -1818,7 +2659,7 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1826,39 +2667,39 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="B71">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="B72">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>1</v>
+        <v>72</v>
       </c>
       <c r="B73">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>4</v>
+        <v>73</v>
       </c>
       <c r="B74">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>12</v>
+        <v>74</v>
       </c>
       <c r="B75">
         <v>0</v>
@@ -1866,7 +2707,7 @@
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>5</v>
+        <v>75</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -1874,7 +2715,7 @@
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>12</v>
+        <v>76</v>
       </c>
       <c r="B77">
         <v>0</v>
@@ -1882,23 +2723,23 @@
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>52</v>
+        <v>77</v>
       </c>
       <c r="B78">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>53</v>
+        <v>78</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>5</v>
+        <v>79</v>
       </c>
       <c r="B80">
         <v>0</v>
@@ -1906,7 +2747,7 @@
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>54</v>
+        <v>80</v>
       </c>
       <c r="B81">
         <v>0</v>
@@ -1914,15 +2755,15 @@
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>55</v>
+        <v>81</v>
       </c>
       <c r="B82">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>15</v>
+        <v>82</v>
       </c>
       <c r="B83">
         <v>0</v>
@@ -1930,23 +2771,23 @@
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>56</v>
+        <v>83</v>
       </c>
       <c r="B84">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>57</v>
+        <v>84</v>
       </c>
       <c r="B85">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>12</v>
+        <v>85</v>
       </c>
       <c r="B86">
         <v>0</v>
@@ -1954,15 +2795,15 @@
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>58</v>
+        <v>86</v>
       </c>
       <c r="B87">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>59</v>
+        <v>87</v>
       </c>
       <c r="B88">
         <v>0</v>
@@ -1970,7 +2811,7 @@
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="B89">
         <v>1</v>
@@ -1978,23 +2819,23 @@
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>5</v>
+        <v>89</v>
       </c>
       <c r="B90">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>13</v>
+        <v>90</v>
       </c>
       <c r="B91">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>15</v>
+        <v>91</v>
       </c>
       <c r="B92">
         <v>0</v>
@@ -2002,7 +2843,7 @@
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>61</v>
+        <v>92</v>
       </c>
       <c r="B93">
         <v>0</v>
@@ -2010,15 +2851,15 @@
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
-        <v>11</v>
+        <v>93</v>
       </c>
       <c r="B94">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
-        <v>62</v>
+        <v>94</v>
       </c>
       <c r="B95">
         <v>0</v>
@@ -2026,15 +2867,15 @@
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
-        <v>63</v>
+        <v>95</v>
       </c>
       <c r="B96">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
-        <v>10</v>
+        <v>96</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2042,23 +2883,23 @@
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
-        <v>64</v>
+        <v>97</v>
       </c>
       <c r="B98">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
-        <v>65</v>
+        <v>98</v>
       </c>
       <c r="B99">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
-        <v>5</v>
+        <v>99</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2066,7 +2907,7 @@
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="B101">
         <v>0</v>
@@ -2074,7 +2915,7 @@
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
-        <v>5</v>
+        <v>101</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2082,7 +2923,7 @@
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
-        <v>66</v>
+        <v>102</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2090,15 +2931,15 @@
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
-        <v>67</v>
+        <v>103</v>
       </c>
       <c r="B104">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
-        <v>33</v>
+        <v>104</v>
       </c>
       <c r="B105">
         <v>0</v>
@@ -2106,7 +2947,7 @@
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
-        <v>68</v>
+        <v>105</v>
       </c>
       <c r="B106">
         <v>0</v>
@@ -2114,15 +2955,15 @@
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
-        <v>69</v>
+        <v>106</v>
       </c>
       <c r="B107">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
-        <v>70</v>
+        <v>107</v>
       </c>
       <c r="B108">
         <v>0</v>
@@ -2130,15 +2971,15 @@
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
-        <v>10</v>
+        <v>108</v>
       </c>
       <c r="B109">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
-        <v>71</v>
+        <v>109</v>
       </c>
       <c r="B110">
         <v>1</v>
@@ -2146,31 +2987,31 @@
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
-        <v>69</v>
+        <v>110</v>
       </c>
       <c r="B111">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
-        <v>1</v>
+        <v>111</v>
       </c>
       <c r="B112">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
-        <v>72</v>
+        <v>112</v>
       </c>
       <c r="B113">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
-        <v>73</v>
+        <v>113</v>
       </c>
       <c r="B114">
         <v>0</v>
@@ -2178,7 +3019,7 @@
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
-        <v>74</v>
+        <v>114</v>
       </c>
       <c r="B115">
         <v>1</v>
@@ -2186,7 +3027,7 @@
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
-        <v>75</v>
+        <v>115</v>
       </c>
       <c r="B116">
         <v>0</v>
@@ -2194,23 +3035,23 @@
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
-        <v>76</v>
+        <v>116</v>
       </c>
       <c r="B117">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
-        <v>12</v>
+        <v>117</v>
       </c>
       <c r="B118">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
-        <v>5</v>
+        <v>118</v>
       </c>
       <c r="B119">
         <v>0</v>
@@ -2218,23 +3059,23 @@
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
-        <v>77</v>
+        <v>119</v>
       </c>
       <c r="B120">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
-        <v>2</v>
+        <v>120</v>
       </c>
       <c r="B121">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
-        <v>78</v>
+        <v>121</v>
       </c>
       <c r="B122">
         <v>0</v>
@@ -2242,31 +3083,31 @@
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
-        <v>79</v>
+        <v>122</v>
       </c>
       <c r="B123">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
-        <v>12</v>
+        <v>123</v>
       </c>
       <c r="B124">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
-        <v>80</v>
+        <v>124</v>
       </c>
       <c r="B125">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
-        <v>5</v>
+        <v>125</v>
       </c>
       <c r="B126">
         <v>0</v>
@@ -2274,7 +3115,7 @@
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
-        <v>12</v>
+        <v>126</v>
       </c>
       <c r="B127">
         <v>0</v>
@@ -2282,7 +3123,7 @@
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
-        <v>81</v>
+        <v>127</v>
       </c>
       <c r="B128">
         <v>1</v>
@@ -2290,15 +3131,15 @@
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
-        <v>2</v>
+        <v>128</v>
       </c>
       <c r="B129">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
-        <v>5</v>
+        <v>129</v>
       </c>
       <c r="B130">
         <v>0</v>
@@ -2306,7 +3147,7 @@
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
-        <v>12</v>
+        <v>130</v>
       </c>
       <c r="B131">
         <v>0</v>
@@ -2314,7 +3155,7 @@
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
-        <v>4</v>
+        <v>131</v>
       </c>
       <c r="B132">
         <v>1</v>
@@ -2322,7 +3163,7 @@
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
-        <v>1</v>
+        <v>132</v>
       </c>
       <c r="B133">
         <v>1</v>
@@ -2330,7 +3171,7 @@
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
-        <v>33</v>
+        <v>133</v>
       </c>
       <c r="B134">
         <v>0</v>
@@ -2338,7 +3179,7 @@
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
-        <v>82</v>
+        <v>134</v>
       </c>
       <c r="B135">
         <v>1</v>
@@ -2346,7 +3187,7 @@
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
-        <v>1</v>
+        <v>135</v>
       </c>
       <c r="B136">
         <v>1</v>
@@ -2354,15 +3195,15 @@
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
-        <v>83</v>
+        <v>136</v>
       </c>
       <c r="B137">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
-        <v>84</v>
+        <v>137</v>
       </c>
       <c r="B138">
         <v>0</v>
@@ -2370,32 +3211,31 @@
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
-        <v>5</v>
+        <v>138</v>
       </c>
       <c r="B139">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
-        <v>85</v>
+        <v>139</v>
       </c>
       <c r="B140">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A141" t="e">
-        <f>_xlfn.SINGLE(sabrinajurinich _xlfn.SINGLE(g_abseixas _xlfn.SINGLE(theloverarcher _xlfn.SINGLE(thepinkfridayx _xlfn.SINGLE(swiftiiover _xlfn.SINGLE(dalmivin _xlfn.SINGLE(sweeteney “não pensa em números” realidade: todo lançamento precisa criar uma nova polemica ter tentar ser  para de ser  a última foi o apoio no trump e falar que escravidão foi A143 logo em seguida lançou duas musicas. depois são os fãs da taylor que são cegos kkkkkkkkkk)))))))</f>
-        <v>#NAME?</v>
+      <c r="A141" t="s">
+        <v>140</v>
       </c>
       <c r="B141">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
-        <v>86</v>
+        <v>141</v>
       </c>
       <c r="B142">
         <v>1</v>
@@ -2403,7 +3243,7 @@
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
-        <v>13</v>
+        <v>142</v>
       </c>
       <c r="B143">
         <v>0</v>
@@ -2411,7 +3251,7 @@
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
-        <v>87</v>
+        <v>143</v>
       </c>
       <c r="B144">
         <v>0</v>
@@ -2419,7 +3259,7 @@
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
-        <v>5</v>
+        <v>144</v>
       </c>
       <c r="B145">
         <v>0</v>
@@ -2427,23 +3267,23 @@
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
-        <v>1</v>
+        <v>145</v>
       </c>
       <c r="B146">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
-        <v>10</v>
+        <v>146</v>
       </c>
       <c r="B147">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
-        <v>12</v>
+        <v>147</v>
       </c>
       <c r="B148">
         <v>0</v>
@@ -2451,15 +3291,15 @@
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
-        <v>5</v>
+        <v>148</v>
       </c>
       <c r="B149">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
-        <v>88</v>
+        <v>149</v>
       </c>
       <c r="B150">
         <v>0</v>
@@ -2467,23 +3307,23 @@
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
-        <v>89</v>
+        <v>150</v>
       </c>
       <c r="B151">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
-        <v>10</v>
+        <v>151</v>
       </c>
       <c r="B152">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
-        <v>12</v>
+        <v>152</v>
       </c>
       <c r="B153">
         <v>0</v>
@@ -2491,15 +3331,15 @@
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
-        <v>90</v>
+        <v>153</v>
       </c>
       <c r="B154">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
-        <v>91</v>
+        <v>154</v>
       </c>
       <c r="B155">
         <v>0</v>
@@ -2507,7 +3347,7 @@
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
-        <v>92</v>
+        <v>155</v>
       </c>
       <c r="B156">
         <v>0</v>
@@ -2515,15 +3355,15 @@
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
-        <v>11</v>
+        <v>156</v>
       </c>
       <c r="B157">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
-        <v>15</v>
+        <v>157</v>
       </c>
       <c r="B158">
         <v>0</v>
@@ -2531,31 +3371,31 @@
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
-        <v>93</v>
+        <v>158</v>
       </c>
       <c r="B159">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
-        <v>94</v>
+        <v>159</v>
       </c>
       <c r="B160">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
-        <v>5</v>
+        <v>160</v>
       </c>
       <c r="B161">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
-        <v>5</v>
+        <v>161</v>
       </c>
       <c r="B162">
         <v>0</v>
@@ -2563,7 +3403,7 @@
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
-        <v>11</v>
+        <v>162</v>
       </c>
       <c r="B163">
         <v>0</v>
@@ -2571,15 +3411,15 @@
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
-        <v>5</v>
+        <v>163</v>
       </c>
       <c r="B164">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
-        <v>12</v>
+        <v>164</v>
       </c>
       <c r="B165">
         <v>0</v>
@@ -2587,7 +3427,7 @@
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
-        <v>95</v>
+        <v>165</v>
       </c>
       <c r="B166">
         <v>0</v>
@@ -2595,7 +3435,7 @@
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
-        <v>4</v>
+        <v>166</v>
       </c>
       <c r="B167">
         <v>1</v>
@@ -2603,15 +3443,15 @@
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
-        <v>96</v>
+        <v>167</v>
       </c>
       <c r="B168">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
-        <v>5</v>
+        <v>168</v>
       </c>
       <c r="B169">
         <v>0</v>
@@ -2619,7 +3459,7 @@
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
-        <v>97</v>
+        <v>169</v>
       </c>
       <c r="B170">
         <v>0</v>
@@ -2627,7 +3467,7 @@
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
-        <v>98</v>
+        <v>170</v>
       </c>
       <c r="B171">
         <v>0</v>
@@ -2635,7 +3475,7 @@
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
-        <v>15</v>
+        <v>171</v>
       </c>
       <c r="B172">
         <v>0</v>
@@ -2643,15 +3483,15 @@
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
-        <v>11</v>
+        <v>172</v>
       </c>
       <c r="B173">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
-        <v>5</v>
+        <v>173</v>
       </c>
       <c r="B174">
         <v>0</v>
@@ -2659,47 +3499,47 @@
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
-        <v>99</v>
+        <v>174</v>
       </c>
       <c r="B175">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
-        <v>100</v>
+        <v>175</v>
       </c>
       <c r="B176">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
-        <v>2</v>
+        <v>176</v>
       </c>
       <c r="B177">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
-        <v>12</v>
+        <v>177</v>
       </c>
       <c r="B178">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
-        <v>63</v>
+        <v>178</v>
       </c>
       <c r="B179">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
-        <v>12</v>
+        <v>179</v>
       </c>
       <c r="B180">
         <v>0</v>
@@ -2707,7 +3547,7 @@
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
-        <v>9</v>
+        <v>180</v>
       </c>
       <c r="B181">
         <v>0</v>
@@ -2715,7 +3555,7 @@
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
-        <v>101</v>
+        <v>181</v>
       </c>
       <c r="B182">
         <v>0</v>
@@ -2723,15 +3563,15 @@
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
-        <v>5</v>
+        <v>182</v>
       </c>
       <c r="B183">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
-        <v>102</v>
+        <v>183</v>
       </c>
       <c r="B184">
         <v>0</v>
@@ -2739,15 +3579,15 @@
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
-        <v>5</v>
+        <v>184</v>
       </c>
       <c r="B185">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
-        <v>12</v>
+        <v>185</v>
       </c>
       <c r="B186">
         <v>0</v>
@@ -2755,7 +3595,7 @@
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
-        <v>1</v>
+        <v>186</v>
       </c>
       <c r="B187">
         <v>1</v>
@@ -2763,15 +3603,15 @@
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
-        <v>11</v>
+        <v>187</v>
       </c>
       <c r="B188">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
-        <v>103</v>
+        <v>188</v>
       </c>
       <c r="B189">
         <v>0</v>
@@ -2779,7 +3619,7 @@
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
-        <v>104</v>
+        <v>189</v>
       </c>
       <c r="B190">
         <v>0</v>
@@ -2787,7 +3627,7 @@
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
-        <v>1</v>
+        <v>190</v>
       </c>
       <c r="B191">
         <v>1</v>
@@ -2795,15 +3635,15 @@
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
-        <v>5</v>
+        <v>191</v>
       </c>
       <c r="B192">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
-        <v>4</v>
+        <v>192</v>
       </c>
       <c r="B193">
         <v>1</v>
@@ -2811,31 +3651,31 @@
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
-        <v>12</v>
+        <v>193</v>
       </c>
       <c r="B194">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
-        <v>1</v>
+        <v>194</v>
       </c>
       <c r="B195">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
-        <v>1</v>
+        <v>195</v>
       </c>
       <c r="B196">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
-        <v>11</v>
+        <v>196</v>
       </c>
       <c r="B197">
         <v>0</v>
@@ -2843,15 +3683,15 @@
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
-        <v>105</v>
+        <v>197</v>
       </c>
       <c r="B198">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
-        <v>106</v>
+        <v>198</v>
       </c>
       <c r="B199">
         <v>0</v>
@@ -2859,7 +3699,7 @@
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
-        <v>5</v>
+        <v>199</v>
       </c>
       <c r="B200">
         <v>0</v>
@@ -2867,7 +3707,7 @@
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
-        <v>107</v>
+        <v>200</v>
       </c>
       <c r="B201">
         <v>1</v>
@@ -2875,7 +3715,7 @@
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
-        <v>11</v>
+        <v>201</v>
       </c>
       <c r="B202">
         <v>0</v>
@@ -2883,7 +3723,7 @@
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
-        <v>12</v>
+        <v>202</v>
       </c>
       <c r="B203">
         <v>0</v>
@@ -2891,7 +3731,7 @@
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
-        <v>108</v>
+        <v>203</v>
       </c>
       <c r="B204">
         <v>0</v>
@@ -2899,39 +3739,39 @@
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
-        <v>109</v>
+        <v>204</v>
       </c>
       <c r="B205">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
-        <v>4</v>
+        <v>205</v>
       </c>
       <c r="B206">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
-        <v>33</v>
+        <v>206</v>
       </c>
       <c r="B207">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
-        <v>15</v>
+        <v>207</v>
       </c>
       <c r="B208">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
-        <v>13</v>
+        <v>208</v>
       </c>
       <c r="B209">
         <v>0</v>
@@ -2939,15 +3779,15 @@
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
-        <v>110</v>
+        <v>209</v>
       </c>
       <c r="B210">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
-        <v>111</v>
+        <v>210</v>
       </c>
       <c r="B211">
         <v>1</v>
@@ -2955,7 +3795,7 @@
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
-        <v>112</v>
+        <v>211</v>
       </c>
       <c r="B212">
         <v>0</v>
@@ -2963,15 +3803,15 @@
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
-        <v>5</v>
+        <v>212</v>
       </c>
       <c r="B213">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
-        <v>79</v>
+        <v>213</v>
       </c>
       <c r="B214">
         <v>0</v>
@@ -2979,55 +3819,55 @@
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
-        <v>113</v>
+        <v>214</v>
       </c>
       <c r="B215">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
-        <v>104</v>
+        <v>215</v>
       </c>
       <c r="B216">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
-        <v>10</v>
+        <v>216</v>
       </c>
       <c r="B217">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
-        <v>12</v>
+        <v>217</v>
       </c>
       <c r="B218">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
-        <v>11</v>
+        <v>218</v>
       </c>
       <c r="B219">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
-        <v>1</v>
+        <v>219</v>
       </c>
       <c r="B220">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
-        <v>114</v>
+        <v>220</v>
       </c>
       <c r="B221">
         <v>0</v>
@@ -3035,7 +3875,7 @@
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
-        <v>12</v>
+        <v>221</v>
       </c>
       <c r="B222">
         <v>0</v>
@@ -3043,7 +3883,7 @@
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
-        <v>4</v>
+        <v>222</v>
       </c>
       <c r="B223">
         <v>1</v>
@@ -3051,15 +3891,15 @@
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
-        <v>12</v>
+        <v>223</v>
       </c>
       <c r="B224">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
-        <v>104</v>
+        <v>224</v>
       </c>
       <c r="B225">
         <v>0</v>
@@ -3067,7 +3907,7 @@
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
-        <v>12</v>
+        <v>225</v>
       </c>
       <c r="B226">
         <v>0</v>
@@ -3075,7 +3915,7 @@
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
-        <v>115</v>
+        <v>226</v>
       </c>
       <c r="B227">
         <v>0</v>
@@ -3083,7 +3923,7 @@
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
-        <v>116</v>
+        <v>227</v>
       </c>
       <c r="B228">
         <v>0</v>
@@ -3091,7 +3931,7 @@
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
-        <v>117</v>
+        <v>228</v>
       </c>
       <c r="B229">
         <v>0</v>
@@ -3099,23 +3939,23 @@
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
-        <v>15</v>
+        <v>229</v>
       </c>
       <c r="B230">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
-        <v>118</v>
+        <v>230</v>
       </c>
       <c r="B231">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A232" t="s">
-        <v>11</v>
+        <v>231</v>
       </c>
       <c r="B232">
         <v>0</v>
@@ -3123,7 +3963,7 @@
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A233" t="s">
-        <v>5</v>
+        <v>232</v>
       </c>
       <c r="B233">
         <v>0</v>
@@ -3131,15 +3971,15 @@
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A234" t="s">
-        <v>10</v>
+        <v>233</v>
       </c>
       <c r="B234">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A235" t="s">
-        <v>9</v>
+        <v>234</v>
       </c>
       <c r="B235">
         <v>0</v>
@@ -3147,7 +3987,7 @@
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A236" t="s">
-        <v>119</v>
+        <v>235</v>
       </c>
       <c r="B236">
         <v>0</v>
@@ -3155,7 +3995,7 @@
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A237" t="s">
-        <v>4</v>
+        <v>236</v>
       </c>
       <c r="B237">
         <v>1</v>
@@ -3163,7 +4003,7 @@
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A238" t="s">
-        <v>89</v>
+        <v>237</v>
       </c>
       <c r="B238">
         <v>0</v>
@@ -3171,15 +4011,15 @@
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A239" t="s">
-        <v>13</v>
+        <v>238</v>
       </c>
       <c r="B239">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A240" t="s">
-        <v>120</v>
+        <v>239</v>
       </c>
       <c r="B240">
         <v>0</v>
@@ -3187,7 +4027,7 @@
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A241" t="s">
-        <v>12</v>
+        <v>240</v>
       </c>
       <c r="B241">
         <v>0</v>
@@ -3195,24 +4035,23 @@
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A242" t="s">
-        <v>81</v>
+        <v>241</v>
       </c>
       <c r="B242">
         <v>1</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A243" t="e">
-        <f>biancardgss misericórdia. logo trump?? poxa K243</f>
-        <v>#NAME?</v>
+      <c r="A243" t="s">
+        <v>242</v>
       </c>
       <c r="B243">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A244" t="s">
-        <v>13</v>
+        <v>243</v>
       </c>
       <c r="B244">
         <v>0</v>
@@ -3220,7 +4059,7 @@
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A245" t="s">
-        <v>121</v>
+        <v>244</v>
       </c>
       <c r="B245">
         <v>0</v>
@@ -3228,7 +4067,7 @@
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A246" t="s">
-        <v>122</v>
+        <v>245</v>
       </c>
       <c r="B246">
         <v>0</v>
@@ -3236,7 +4075,7 @@
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A247" t="s">
-        <v>5</v>
+        <v>246</v>
       </c>
       <c r="B247">
         <v>0</v>
@@ -3244,31 +4083,31 @@
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A248" t="s">
-        <v>123</v>
+        <v>247</v>
       </c>
       <c r="B248">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A249" t="s">
-        <v>2</v>
+        <v>248</v>
       </c>
       <c r="B249">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A250" t="s">
-        <v>5</v>
+        <v>249</v>
       </c>
       <c r="B250">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A251" t="s">
-        <v>124</v>
+        <v>250</v>
       </c>
       <c r="B251">
         <v>0</v>
@@ -3276,7 +4115,7 @@
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A252" t="s">
-        <v>5</v>
+        <v>251</v>
       </c>
       <c r="B252">
         <v>0</v>
@@ -3284,15 +4123,15 @@
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A253" t="s">
-        <v>10</v>
+        <v>252</v>
       </c>
       <c r="B253">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A254" t="s">
-        <v>125</v>
+        <v>253</v>
       </c>
       <c r="B254">
         <v>0</v>
@@ -3300,7 +4139,7 @@
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A255" t="s">
-        <v>12</v>
+        <v>254</v>
       </c>
       <c r="B255">
         <v>0</v>
@@ -3308,7 +4147,7 @@
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A256" t="s">
-        <v>126</v>
+        <v>255</v>
       </c>
       <c r="B256">
         <v>0</v>
@@ -3316,15 +4155,15 @@
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A257" t="s">
-        <v>127</v>
+        <v>256</v>
       </c>
       <c r="B257">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A258" t="s">
-        <v>1</v>
+        <v>257</v>
       </c>
       <c r="B258">
         <v>1</v>
@@ -3332,23 +4171,23 @@
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A259" t="s">
-        <v>128</v>
+        <v>258</v>
       </c>
       <c r="B259">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A260" t="s">
-        <v>69</v>
+        <v>259</v>
       </c>
       <c r="B260">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A261" t="s">
-        <v>4</v>
+        <v>260</v>
       </c>
       <c r="B261">
         <v>1</v>
@@ -3356,7 +4195,7 @@
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A262" t="s">
-        <v>129</v>
+        <v>261</v>
       </c>
       <c r="B262">
         <v>0</v>
@@ -3364,15 +4203,15 @@
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A263" t="s">
-        <v>130</v>
+        <v>262</v>
       </c>
       <c r="B263">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A264" t="s">
-        <v>131</v>
+        <v>263</v>
       </c>
       <c r="B264">
         <v>0</v>
@@ -3380,23 +4219,23 @@
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A265" t="s">
-        <v>132</v>
+        <v>264</v>
       </c>
       <c r="B265">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A266" t="s">
-        <v>10</v>
+        <v>265</v>
       </c>
       <c r="B266">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A267" t="s">
-        <v>10</v>
+        <v>266</v>
       </c>
       <c r="B267">
         <v>0</v>
@@ -3404,7 +4243,7 @@
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A268" t="s">
-        <v>13</v>
+        <v>267</v>
       </c>
       <c r="B268">
         <v>0</v>
@@ -3412,15 +4251,15 @@
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A269" t="s">
-        <v>4</v>
+        <v>268</v>
       </c>
       <c r="B269">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A270" t="s">
-        <v>5</v>
+        <v>269</v>
       </c>
       <c r="B270">
         <v>0</v>
@@ -3428,7 +4267,7 @@
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A271" t="s">
-        <v>11</v>
+        <v>270</v>
       </c>
       <c r="B271">
         <v>0</v>
@@ -3436,7 +4275,7 @@
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A272" t="s">
-        <v>5</v>
+        <v>271</v>
       </c>
       <c r="B272">
         <v>0</v>
@@ -3444,7 +4283,7 @@
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A273" t="s">
-        <v>133</v>
+        <v>272</v>
       </c>
       <c r="B273">
         <v>0</v>
@@ -3452,7 +4291,7 @@
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A274" t="s">
-        <v>5</v>
+        <v>273</v>
       </c>
       <c r="B274">
         <v>0</v>
@@ -3460,7 +4299,7 @@
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A275" t="s">
-        <v>2</v>
+        <v>274</v>
       </c>
       <c r="B275">
         <v>1</v>
@@ -3468,7 +4307,7 @@
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A276" t="s">
-        <v>134</v>
+        <v>275</v>
       </c>
       <c r="B276">
         <v>0</v>
@@ -3476,39 +4315,39 @@
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A277" t="s">
-        <v>2</v>
+        <v>276</v>
       </c>
       <c r="B277">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A278" t="s">
-        <v>10</v>
+        <v>277</v>
       </c>
       <c r="B278">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A279" t="s">
-        <v>119</v>
+        <v>278</v>
       </c>
       <c r="B279">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A280" t="s">
-        <v>33</v>
+        <v>279</v>
       </c>
       <c r="B280">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A281" t="s">
-        <v>15</v>
+        <v>280</v>
       </c>
       <c r="B281">
         <v>0</v>
@@ -3516,7 +4355,7 @@
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A282" t="s">
-        <v>5</v>
+        <v>281</v>
       </c>
       <c r="B282">
         <v>0</v>
@@ -3524,15 +4363,15 @@
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A283" t="s">
-        <v>135</v>
+        <v>282</v>
       </c>
       <c r="B283">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A284" t="s">
-        <v>48</v>
+        <v>283</v>
       </c>
       <c r="B284">
         <v>1</v>
@@ -3540,7 +4379,7 @@
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A285" t="s">
-        <v>10</v>
+        <v>284</v>
       </c>
       <c r="B285">
         <v>0</v>
@@ -3548,23 +4387,23 @@
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A286" t="s">
-        <v>2</v>
+        <v>285</v>
       </c>
       <c r="B286">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A287" t="s">
-        <v>7</v>
+        <v>286</v>
       </c>
       <c r="B287">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A288" t="s">
-        <v>15</v>
+        <v>287</v>
       </c>
       <c r="B288">
         <v>0</v>
@@ -3572,7 +4411,7 @@
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A289" t="s">
-        <v>136</v>
+        <v>288</v>
       </c>
       <c r="B289">
         <v>0</v>
@@ -3580,15 +4419,15 @@
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A290" t="s">
-        <v>137</v>
+        <v>289</v>
       </c>
       <c r="B290">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A291" t="s">
-        <v>5</v>
+        <v>290</v>
       </c>
       <c r="B291">
         <v>0</v>
@@ -3596,7 +4435,7 @@
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A292" t="s">
-        <v>138</v>
+        <v>291</v>
       </c>
       <c r="B292">
         <v>0</v>
@@ -3604,7 +4443,7 @@
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A293" t="s">
-        <v>139</v>
+        <v>292</v>
       </c>
       <c r="B293">
         <v>0</v>
@@ -3612,15 +4451,15 @@
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A294" t="s">
-        <v>140</v>
+        <v>293</v>
       </c>
       <c r="B294">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A295" t="s">
-        <v>141</v>
+        <v>294</v>
       </c>
       <c r="B295">
         <v>0</v>
@@ -3628,23 +4467,23 @@
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A296" t="s">
-        <v>1</v>
+        <v>295</v>
       </c>
       <c r="B296">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A297" t="s">
-        <v>5</v>
+        <v>296</v>
       </c>
       <c r="B297">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A298" t="s">
-        <v>69</v>
+        <v>297</v>
       </c>
       <c r="B298">
         <v>0</v>
@@ -3652,7 +4491,7 @@
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A299" t="s">
-        <v>37</v>
+        <v>298</v>
       </c>
       <c r="B299">
         <v>0</v>
@@ -3660,7 +4499,7 @@
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A300" t="s">
-        <v>142</v>
+        <v>299</v>
       </c>
       <c r="B300">
         <v>0</v>
@@ -3668,17 +4507,14 @@
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A301" t="s">
-        <v>143</v>
+        <v>300</v>
       </c>
       <c r="B301">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <ignoredErrors>
-    <ignoredError sqref="A141 A243" evalError="1"/>
-  </ignoredErrors>
 </worksheet>
 </file>
 
@@ -3686,1013 +4522,1016 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A201"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A72" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="255.6328125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>144</v>
+        <v>301</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>302</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>145</v>
+        <v>303</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>146</v>
+        <v>304</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>147</v>
+        <v>305</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>148</v>
+        <v>306</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>307</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>149</v>
+        <v>308</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>150</v>
+        <v>309</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>151</v>
+        <v>310</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>152</v>
+        <v>311</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>2</v>
+        <v>312</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>153</v>
+        <v>313</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>2</v>
+        <v>314</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>154</v>
+        <v>315</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>12</v>
+        <v>316</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>155</v>
+        <v>317</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>10</v>
+        <v>318</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>10</v>
+        <v>319</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>5</v>
+        <v>320</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>1</v>
+        <v>321</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>5</v>
+        <v>322</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>156</v>
+        <v>323</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>15</v>
+        <v>324</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>119</v>
+        <v>325</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>157</v>
+        <v>326</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>158</v>
+        <v>327</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>33</v>
+        <v>328</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>159</v>
+        <v>329</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>160</v>
+        <v>330</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>161</v>
+        <v>331</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>162</v>
+        <v>332</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>163</v>
+        <v>333</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>1</v>
+        <v>334</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>10</v>
+        <v>335</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>5</v>
+        <v>336</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>79</v>
+        <v>337</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>2</v>
+        <v>338</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>164</v>
+        <v>339</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>5</v>
+        <v>340</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>12</v>
+        <v>341</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>33</v>
+        <v>342</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>165</v>
+        <v>343</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>166</v>
+        <v>344</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>5</v>
+        <v>345</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>167</v>
+        <v>346</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>13</v>
+        <v>347</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>88</v>
+        <v>348</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>168</v>
+        <v>349</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>5</v>
+        <v>350</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>169</v>
+        <v>351</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>79</v>
+        <v>352</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>12</v>
+        <v>353</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>89</v>
+        <v>354</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>170</v>
+        <v>355</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>171</v>
+        <v>356</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>172</v>
+        <v>357</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>15</v>
+        <v>358</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>5</v>
+        <v>359</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>173</v>
+        <v>360</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>12</v>
+        <v>361</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>46</v>
+        <v>362</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>174</v>
+        <v>363</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>104</v>
+        <v>364</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>12</v>
+        <v>365</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>175</v>
+        <v>366</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>10</v>
+        <v>367</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>176</v>
+        <v>368</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>177</v>
+        <v>369</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>5</v>
+        <v>370</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>5</v>
+        <v>371</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>178</v>
+        <v>372</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>15</v>
+        <v>373</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>179</v>
+        <v>374</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>180</v>
+        <v>375</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>11</v>
+        <v>376</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>89</v>
+        <v>377</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>5</v>
+        <v>378</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>181</v>
+        <v>379</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>2</v>
+        <v>380</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>182</v>
+        <v>381</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>183</v>
+        <v>382</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>184</v>
+        <v>383</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>5</v>
+        <v>384</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>185</v>
+        <v>385</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>186</v>
+        <v>386</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>187</v>
+        <v>387</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>188</v>
+        <v>388</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>88</v>
+        <v>389</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>189</v>
+        <v>390</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>190</v>
+        <v>391</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>10</v>
+        <v>392</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>4</v>
+        <v>393</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
-        <v>191</v>
+        <v>394</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
-        <v>12</v>
+        <v>395</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
-        <v>192</v>
+        <v>396</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
-        <v>12</v>
+        <v>397</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
-        <v>193</v>
+        <v>398</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
-        <v>194</v>
+        <v>399</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
-        <v>63</v>
+        <v>400</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
-        <v>195</v>
+        <v>401</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
-        <v>12</v>
+        <v>402</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
-        <v>33</v>
+        <v>403</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
-        <v>5</v>
+        <v>404</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
-        <v>196</v>
+        <v>405</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
-        <v>35</v>
+        <v>406</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
-        <v>197</v>
+        <v>407</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
-        <v>198</v>
+        <v>408</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
-        <v>5</v>
+        <v>409</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
-        <v>2</v>
+        <v>410</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
-        <v>5</v>
+        <v>411</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
-        <v>5</v>
+        <v>412</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
-        <v>96</v>
+        <v>413</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
-        <v>199</v>
+        <v>414</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
-        <v>200</v>
+        <v>415</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
-        <v>201</v>
+        <v>416</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
-        <v>1</v>
+        <v>417</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
-        <v>2</v>
+        <v>418</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
-        <v>202</v>
+        <v>419</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
-        <v>1</v>
+        <v>420</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
-        <v>2</v>
+        <v>421</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
-        <v>203</v>
+        <v>422</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
-        <v>204</v>
+        <v>423</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
-        <v>35</v>
+        <v>424</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
-        <v>205</v>
+        <v>425</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
-        <v>147</v>
+        <v>426</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
-        <v>119</v>
+        <v>427</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
-        <v>206</v>
+        <v>428</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
-        <v>33</v>
+        <v>429</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
-        <v>4</v>
+        <v>430</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
-        <v>11</v>
+        <v>431</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
-        <v>5</v>
+        <v>432</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
-        <v>1</v>
+        <v>433</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
-        <v>1</v>
+        <v>434</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
-        <v>5</v>
+        <v>435</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
-        <v>33</v>
+        <v>436</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
-        <v>207</v>
+        <v>437</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
-        <v>2</v>
+        <v>438</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
-        <v>10</v>
+        <v>439</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
-        <v>2</v>
+        <v>440</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
-        <v>12</v>
+        <v>441</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
-        <v>174</v>
+        <v>442</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
-        <v>208</v>
+        <v>443</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
-        <v>209</v>
+        <v>444</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
-        <v>2</v>
+        <v>445</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
-        <v>210</v>
+        <v>446</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
-        <v>211</v>
+        <v>447</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
-        <v>2</v>
+        <v>448</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
-        <v>148</v>
+        <v>449</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
-        <v>2</v>
+        <v>450</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
-        <v>5</v>
+        <v>451</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
-        <v>149</v>
+        <v>452</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
-        <v>212</v>
+        <v>453</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
-        <v>2</v>
+        <v>454</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
-        <v>213</v>
+        <v>455</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
-        <v>214</v>
+        <v>456</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
-        <v>215</v>
+        <v>457</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
-        <v>5</v>
+        <v>458</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
-        <v>4</v>
+        <v>459</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
-        <v>12</v>
+        <v>460</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
-        <v>5</v>
+        <v>461</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
-        <v>2</v>
+        <v>462</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
-        <v>216</v>
+        <v>463</v>
       </c>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
-        <v>2</v>
+        <v>464</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
-        <v>13</v>
+        <v>465</v>
       </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
-        <v>217</v>
+        <v>466</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
-        <v>5</v>
+        <v>467</v>
       </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
-        <v>12</v>
+        <v>468</v>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
-        <v>218</v>
+        <v>469</v>
       </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
-        <v>219</v>
+        <v>470</v>
       </c>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
-        <v>5</v>
+        <v>471</v>
       </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
-        <v>12</v>
+        <v>472</v>
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
-        <v>220</v>
+        <v>473</v>
       </c>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
-        <v>4</v>
+        <v>474</v>
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
-        <v>221</v>
+        <v>475</v>
       </c>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
-        <v>222</v>
+        <v>476</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
-        <v>223</v>
+        <v>477</v>
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
-        <v>224</v>
+        <v>478</v>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
-        <v>225</v>
+        <v>479</v>
       </c>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
-        <v>5</v>
+        <v>480</v>
       </c>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
-        <v>79</v>
+        <v>481</v>
       </c>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
-        <v>226</v>
+        <v>482</v>
       </c>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
-        <v>227</v>
+        <v>483</v>
       </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
-        <v>180</v>
+        <v>484</v>
       </c>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
-        <v>12</v>
+        <v>485</v>
       </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
-        <v>13</v>
+        <v>486</v>
       </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
-        <v>228</v>
+        <v>487</v>
       </c>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
-        <v>229</v>
+        <v>488</v>
       </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
-        <v>98</v>
+        <v>489</v>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
-        <v>230</v>
+        <v>490</v>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
-        <v>1</v>
+        <v>491</v>
       </c>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
-        <v>180</v>
+        <v>492</v>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
-        <v>1</v>
+        <v>493</v>
       </c>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
-        <v>2</v>
+        <v>494</v>
       </c>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
-        <v>5</v>
+        <v>495</v>
       </c>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
-        <v>231</v>
+        <v>496</v>
       </c>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
-        <v>232</v>
+        <v>497</v>
       </c>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
-        <v>233</v>
+        <v>498</v>
       </c>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
-        <v>96</v>
+        <v>499</v>
       </c>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
-        <v>234</v>
+        <v>500</v>
       </c>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
-        <v>235</v>
+        <v>501</v>
       </c>
     </row>
   </sheetData>

--- a/Trump.xlsx
+++ b/Trump.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arthu\Documents\Project2DaSci\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC9E26EA-D720-48A4-9306-C16D678BE939}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8DB82D8-24FA-4B7E-89C5-C1E9C93F2C38}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Treinamento" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="503">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="503">
   <si>
     <t>Treinamento</t>
   </si>
@@ -1698,7 +1698,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1708,6 +1708,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -1750,11 +1758,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2095,7 +2104,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B301"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A282" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A302" sqref="A302"/>
     </sheetView>
   </sheetViews>
@@ -4520,1021 +4529,1627 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:A201"/>
+  <dimension ref="A1:B201"/>
   <sheetViews>
-    <sheetView topLeftCell="A72" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A168" zoomScale="63" workbookViewId="0">
+      <selection activeCell="A201" sqref="A201"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="255.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B1" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>345</v>
       </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>351</v>
       </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>352</v>
       </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>363</v>
       </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>364</v>
       </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>365</v>
       </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>366</v>
       </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>372</v>
       </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>374</v>
       </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>377</v>
       </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>381</v>
       </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>382</v>
       </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>383</v>
       </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>385</v>
       </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>390</v>
       </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>391</v>
       </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>392</v>
       </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>394</v>
       </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>397</v>
       </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>398</v>
       </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>400</v>
       </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>402</v>
       </c>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>403</v>
       </c>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>404</v>
       </c>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>409</v>
       </c>
-    </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>410</v>
       </c>
-    </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>412</v>
       </c>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>413</v>
       </c>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>416</v>
       </c>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>417</v>
       </c>
-    </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>419</v>
       </c>
-    </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>420</v>
       </c>
-    </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>423</v>
       </c>
-    </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>424</v>
       </c>
-    </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>425</v>
       </c>
-    </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B125">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>426</v>
       </c>
-    </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>427</v>
       </c>
-    </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>428</v>
       </c>
-    </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>429</v>
       </c>
-    </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>430</v>
       </c>
-    </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>431</v>
       </c>
-    </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>432</v>
       </c>
-    </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>433</v>
       </c>
-    </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>435</v>
       </c>
-    </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B135">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>436</v>
       </c>
-    </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>439</v>
       </c>
-    </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B139">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B140">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>442</v>
       </c>
-    </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B142">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>443</v>
       </c>
-    </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>444</v>
       </c>
-    </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B144">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>445</v>
       </c>
-    </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B149">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B151">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>452</v>
       </c>
-    </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>453</v>
       </c>
-    </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>454</v>
       </c>
-    </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>455</v>
       </c>
-    </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B155">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>457</v>
       </c>
-    </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>458</v>
       </c>
-    </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B158">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>459</v>
       </c>
-    </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B159">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>461</v>
       </c>
-    </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B161">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>463</v>
       </c>
-    </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B163">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B165">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>466</v>
       </c>
-    </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B166">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>467</v>
       </c>
-    </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B167">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>468</v>
       </c>
-    </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B168">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>469</v>
       </c>
-    </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B169">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>470</v>
       </c>
-    </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>471</v>
       </c>
-    </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B171">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>472</v>
       </c>
-    </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B172">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>473</v>
       </c>
-    </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B173">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>474</v>
       </c>
-    </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B174">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B175">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B177">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B178">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B179">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
         <v>480</v>
       </c>
-    </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B180">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
         <v>481</v>
       </c>
-    </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B181">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
         <v>482</v>
       </c>
-    </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B182">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
         <v>483</v>
       </c>
-    </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B183">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
         <v>484</v>
       </c>
-    </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B184">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
         <v>485</v>
       </c>
-    </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B185">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
         <v>486</v>
       </c>
-    </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B186">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
         <v>487</v>
       </c>
-    </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B187">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
         <v>488</v>
       </c>
-    </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B188">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
         <v>489</v>
       </c>
-    </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B189">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
         <v>490</v>
       </c>
-    </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B190">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
         <v>491</v>
       </c>
-    </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B191">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
         <v>492</v>
       </c>
-    </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B192">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
         <v>493</v>
       </c>
-    </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B193">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
         <v>494</v>
       </c>
-    </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B194">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
         <v>495</v>
       </c>
-    </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B195">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
         <v>496</v>
       </c>
-    </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
         <v>497</v>
       </c>
-    </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B197">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
         <v>498</v>
       </c>
-    </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B198">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
         <v>499</v>
       </c>
-    </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B199">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A201" t="s">
+      <c r="B200">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A201" s="2" t="s">
         <v>501</v>
+      </c>
+      <c r="B201">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>